--- a/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="918" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F172BB20-8D02-46F6-A328-A0C974644950}"/>
+  <xr:revisionPtr revIDLastSave="923" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D1FB138-20DA-4787-80A7-F0AADF95FB6A}"/>
   <bookViews>
-    <workbookView xWindow="-18997" yWindow="-98" windowWidth="19095" windowHeight="12795" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="residents" sheetId="1" r:id="rId1"/>
-    <sheet name="directory" sheetId="6" r:id="rId2"/>
+    <sheet name="Residents" sheetId="1" r:id="rId1"/>
+    <sheet name="Directory" sheetId="6" r:id="rId2"/>
     <sheet name="birthdays" sheetId="12" r:id="rId3"/>
     <sheet name="Family" sheetId="16" r:id="rId4"/>
     <sheet name="No Family" sheetId="17" r:id="rId5"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1110">
   <si>
     <t>First Name</t>
   </si>
@@ -8930,7 +8930,7 @@
       <c r="I1004" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:AA2 C7:D8 F7:H8 C9:H10 C11:E11 G11:H11 C12:H17 C18:AA51 D52:E53 C3:H6 I3:AA17 C54:AA75">
+  <conditionalFormatting sqref="C2:AA2 C3:H6 I3:AA17 C7:D8 F7:H8 C9:H10 C11:E11 G11:H11 C12:H17 C18:AA51 D52:E53 C54:AA75">
     <cfRule type="expression" dxfId="22" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
@@ -9847,28 +9847,28 @@
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C12:E12 G12:AA12">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>"ISEVEN(ROW()"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15 K15:AB15 A27:J27">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>"ISEVEN(ROW()"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:AA2">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:AA11">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:AA24">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>"ISEVEN(ROW()"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:AA2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>"ISEVEN(ROW()"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:E12 G12:AA12">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9886,7 +9886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4F1CA-A107-47E1-B61D-684F7BB5060E}">
   <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
@@ -9919,23 +9919,23 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str" cm="1">
-        <f t="array" ref="A2:A75">CONCATENATE(residents!A2:A75, " ", residents!B2:B75)</f>
+        <f t="array" ref="A2:A75">CONCATENATE(Residents!A2:A75, " ", Residents!B2:B75)</f>
         <v>Patrick Alexander</v>
       </c>
       <c r="B2" s="11" t="str" cm="1">
-        <f t="array" ref="B2:B75">residents!D2:D75</f>
+        <f t="array" ref="B2:B75">Residents!D2:D75</f>
         <v>230 C</v>
       </c>
       <c r="C2" s="11" t="str" cm="1">
-        <f t="array" ref="C2:C75">residents!E2:E75</f>
+        <f t="array" ref="C2:C75">Residents!E2:E75</f>
         <v>415 567-0419</v>
       </c>
       <c r="D2" s="11" t="str" cm="1">
-        <f t="array" ref="D2:D75">residents!F2:F75</f>
+        <f t="array" ref="D2:D75">Residents!F2:F75</f>
         <v>baimp@earthlink.net</v>
       </c>
       <c r="E2" s="12" t="str" cm="1">
-        <f t="array" ref="E2:E75">residents!I2:I75</f>
+        <f t="array" ref="E2:E75">Residents!I2:I75</f>
         <v>07/27</v>
       </c>
     </row>
@@ -12453,7 +12453,7 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:B74">_xlfn.LET(
-    _xlpm.data, residents!A2:I75,
+    _xlpm.data, Residents!A2:I75,
     _xlpm.firstNames, INDEX(_xlpm.data, _xlfn.SEQUENCE(ROWS(_xlpm.data)), 1),
     _xlpm.lastNames, INDEX(_xlpm.data, _xlfn.SEQUENCE(ROWS(_xlpm.data)), 2),
     _xlpm.dates, INDEX(_xlpm.data, _xlfn.SEQUENCE(ROWS(_xlpm.data)), 9),
@@ -16165,11 +16165,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C4CAD2-851C-4D78-8B2D-D5100B32C514}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -16270,7 +16270,18 @@
         <v>1097</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{33405957-C986-435E-B4F7-B48E571E3812}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="923" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D1FB138-20DA-4787-80A7-F0AADF95FB6A}"/>
+  <xr:revisionPtr revIDLastSave="925" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D7263FC-3790-44C2-B448-E847F3A166DE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1106">
   <si>
     <t>First Name</t>
   </si>
@@ -1240,18 +1240,6 @@
   </si>
   <si>
     <t>Flora</t>
-  </si>
-  <si>
-    <t>Zagorites</t>
-  </si>
-  <si>
-    <t>238 M</t>
-  </si>
-  <si>
-    <t>415 710-2771</t>
-  </si>
-  <si>
-    <t>02/16</t>
   </si>
   <si>
     <t>Resident</t>
@@ -3787,7 +3775,35 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4005,20 +4021,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D9D9"/>
           <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4262,8 +4264,8 @@
   <dimension ref="A1:I1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD61"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4281,7 +4283,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -4793,10 +4795,10 @@
     </row>
     <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>19</v>
@@ -4805,10 +4807,10 @@
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5008,7 +5010,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>163</v>
@@ -5328,7 +5330,7 @@
         <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>231</v>
@@ -5345,7 +5347,7 @@
     </row>
     <row r="43" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>233</v>
@@ -5559,42 +5561,42 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F52" s="39" t="s">
         <v>1100</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="I52" s="53" t="s">
         <v>1101</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I52" s="53" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="F53" s="40" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="I53" s="53" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5643,7 +5645,7 @@
         <v>288</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -6119,28 +6121,12 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="4" t="s">
-        <v>393</v>
-      </c>
+      <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I76" s="2"/>
@@ -8931,7 +8917,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AA2 C3:H6 I3:AA17 C7:D8 F7:H8 C9:H10 C11:E11 G11:H11 C12:H17 C18:AA51 D52:E53 C54:AA75">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8998,7 +8984,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -9007,18 +8993,18 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
@@ -9028,10 +9014,10 @@
         <v>254</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>53</v>
@@ -9043,12 +9029,12 @@
         <v>104</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -9058,40 +9044,40 @@
         <v>348</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -9101,24 +9087,24 @@
         <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -9128,10 +9114,10 @@
         <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>53</v>
@@ -9140,15 +9126,15 @@
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
@@ -9158,24 +9144,24 @@
         <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -9185,7 +9171,7 @@
         <v>315</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
@@ -9193,34 +9179,34 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -9250,32 +9236,32 @@
     </row>
     <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
@@ -9285,25 +9271,25 @@
         <v>167</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>19</v>
@@ -9312,10 +9298,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>22</v>
@@ -9324,30 +9310,30 @@
         <v>15</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -9358,10 +9344,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J17" s="9">
         <v>44763</v>
@@ -9369,43 +9355,43 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>22</v>
@@ -9414,21 +9400,21 @@
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -9438,52 +9424,52 @@
         <v>167</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
@@ -9493,14 +9479,14 @@
         <v>357</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K23" s="16"/>
     </row>
@@ -9533,7 +9519,7 @@
     </row>
     <row r="25" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
@@ -9543,19 +9529,19 @@
         <v>250</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3" t="s">
@@ -9565,32 +9551,32 @@
         <v>211</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
@@ -9598,36 +9584,36 @@
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="32" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -9637,20 +9623,20 @@
         <v>124</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -9679,7 +9665,7 @@
     </row>
     <row r="31" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -9689,23 +9675,23 @@
         <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
@@ -9715,79 +9701,79 @@
         <v>387</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38"/>
@@ -9802,7 +9788,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -9812,7 +9798,7 @@
         <v>250</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -9820,60 +9806,60 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8:AB8">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:AC10 A13:AC13 K38:AC38 A39:J39">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:AC18">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:AC23">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:E12 G12:AA12">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15 K15:AB15 A27:J27">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AA2">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:AA11">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:AA24">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:AA30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9886,8 +9872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4F1CA-A107-47E1-B61D-684F7BB5060E}">
   <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -9902,7 +9888,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -9914,7 +9900,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -11165,19 +11151,19 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
-        <v>Flora Zagorites</v>
-      </c>
-      <c r="B75" s="11" t="str">
-        <v>238 M</v>
-      </c>
-      <c r="C75" s="11" t="str">
-        <v>415 710-2771</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B75" s="11">
+        <v>0</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0</v>
       </c>
       <c r="D75" s="11">
         <v>0</v>
       </c>
-      <c r="E75" s="11" t="str">
-        <v>02/16</v>
+      <c r="E75" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -11196,17 +11182,17 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -11215,7 +11201,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="52" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
@@ -11224,10 +11210,10 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>4</v>
@@ -11235,42 +11221,42 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>4</v>
@@ -11303,11 +11289,11 @@
     </row>
     <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="7"/>
@@ -11335,14 +11321,14 @@
     </row>
     <row r="90" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -11369,11 +11355,11 @@
     </row>
     <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="37" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="7"/>
@@ -11401,11 +11387,11 @@
     </row>
     <row r="92" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B92" s="37"/>
       <c r="C92" s="37" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="7"/>
@@ -11433,11 +11419,11 @@
     </row>
     <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B93" s="37"/>
       <c r="C93" s="37" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="7"/>
@@ -11465,11 +11451,11 @@
     </row>
     <row r="94" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="37" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="7"/>
@@ -11497,10 +11483,10 @@
     </row>
     <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="11"/>
@@ -11529,16 +11515,16 @@
     </row>
     <row r="96" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="7"/>
@@ -11565,16 +11551,16 @@
     </row>
     <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="7"/>
@@ -11601,16 +11587,16 @@
     </row>
     <row r="98" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="7"/>
@@ -11637,16 +11623,16 @@
     </row>
     <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -11673,16 +11659,16 @@
     </row>
     <row r="100" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -11709,16 +11695,16 @@
     </row>
     <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -11745,16 +11731,16 @@
     </row>
     <row r="102" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -11781,16 +11767,16 @@
     </row>
     <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -11817,16 +11803,16 @@
     </row>
     <row r="104" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="7"/>
@@ -11853,16 +11839,16 @@
     </row>
     <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="7"/>
@@ -11889,16 +11875,16 @@
     </row>
     <row r="106" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="7"/>
@@ -11925,14 +11911,14 @@
     </row>
     <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="38" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="7"/>
@@ -11959,16 +11945,16 @@
     </row>
     <row r="108" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="7"/>
@@ -11995,16 +11981,16 @@
     </row>
     <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="7"/>
@@ -12031,16 +12017,16 @@
     </row>
     <row r="110" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="7"/>
@@ -12067,16 +12053,16 @@
     </row>
     <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="7"/>
@@ -12103,7 +12089,7 @@
     </row>
     <row r="112" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="7"/>
@@ -12133,7 +12119,7 @@
     </row>
     <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="34" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -12163,11 +12149,11 @@
     </row>
     <row r="114" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B114" s="30"/>
       <c r="C114" s="37" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D114" s="11"/>
       <c r="F114" s="7"/>
@@ -12194,10 +12180,10 @@
     </row>
     <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D115" s="11"/>
       <c r="F115" s="7"/>
@@ -12224,11 +12210,11 @@
     </row>
     <row r="116" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="7"/>
@@ -12417,13 +12403,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E76">
-    <cfRule type="expression" dxfId="21" priority="1">
+  <conditionalFormatting sqref="A2:E74">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12461,15 +12447,15 @@
     _xlpm.sortedData, _xlfn._xlws.SORT(CHOOSE({1,2}, _xlpm.fullNames, _xlpm.dates), 2, 1),
     _xlpm.sortedData
 )</f>
-        <v>Liz Jonson</v>
-      </c>
-      <c r="B1" t="str">
-        <v>-</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <v>Kathy Kirkpatrick</v>
+        <v>Liz Jonson</v>
       </c>
       <c r="B2" t="str">
         <v>-</v>
@@ -12477,7 +12463,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <v>Mercedes Van Den Berg</v>
+        <v>Kathy Kirkpatrick</v>
       </c>
       <c r="B3" t="str">
         <v>-</v>
@@ -12485,7 +12471,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <v>Shirley Yawitz</v>
+        <v>Mercedes Van Den Berg</v>
       </c>
       <c r="B4" t="str">
         <v>-</v>
@@ -12493,47 +12479,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <v>Pamela Fischer</v>
+        <v>Shirley Yawitz</v>
       </c>
       <c r="B5" t="str">
-        <v>01/04</v>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <v>Michele Jackson</v>
+        <v>Pamela Fischer</v>
       </c>
       <c r="B6" t="str">
-        <v>01/17</v>
+        <v>01/04</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <v>Linda Hanley</v>
+        <v>Michele Jackson</v>
       </c>
       <c r="B7" t="str">
-        <v>01/22</v>
+        <v>01/17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <v>Maureen Perron</v>
+        <v>Linda Hanley</v>
       </c>
       <c r="B8" t="str">
-        <v>01/24</v>
+        <v>01/22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <v>Lillemor Leichum</v>
+        <v>Maureen Perron</v>
       </c>
       <c r="B9" t="str">
-        <v>01/26</v>
+        <v>01/24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <v>Nancy Trogman</v>
+        <v>Lillemor Leichum</v>
       </c>
       <c r="B10" t="str">
         <v>01/26</v>
@@ -12541,31 +12527,31 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <v>Theo Armour</v>
+        <v>Nancy Trogman</v>
       </c>
       <c r="B11" t="str">
-        <v>01/28</v>
+        <v>01/26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <v>Candy  Naughton</v>
+        <v>Theo Armour</v>
       </c>
       <c r="B12" t="str">
-        <v>02/03</v>
+        <v>01/28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <v>Bob Granucci</v>
+        <v>Candy  Naughton</v>
       </c>
       <c r="B13" t="str">
-        <v>02/05</v>
+        <v>02/03</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <v>Val Szigeti</v>
+        <v>Bob Granucci</v>
       </c>
       <c r="B14" t="str">
         <v>02/05</v>
@@ -12573,15 +12559,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <v>Cooby Greenway</v>
+        <v>Val Szigeti</v>
       </c>
       <c r="B15" t="str">
-        <v>02/06</v>
+        <v>02/05</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <v>Jane Standing</v>
+        <v>Cooby Greenway</v>
       </c>
       <c r="B16" t="str">
         <v>02/06</v>
@@ -12589,42 +12575,42 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <v>Katie Loo</v>
+        <v>Jane Standing</v>
       </c>
       <c r="B17" t="str">
-        <v>02/09</v>
+        <v>02/06</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <v>Ivy Lee</v>
+        <v>Katie Loo</v>
       </c>
       <c r="B18" t="str">
-        <v>02/10</v>
+        <v>02/09</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <v>June Fraps</v>
+        <v>Ivy Lee</v>
       </c>
       <c r="B19" t="str">
-        <v>02/11</v>
+        <v>02/10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <v>Jim Naughton</v>
+        <v>June Fraps</v>
       </c>
       <c r="B20" t="str">
-        <v>02/12</v>
+        <v>02/11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <v>Flora Zagorites</v>
+        <v>Jim Naughton</v>
       </c>
       <c r="B21" t="str">
-        <v>02/16</v>
+        <v>02/12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -13078,30 +13064,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -13112,16 +13098,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>25</v>
@@ -13129,13 +13115,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>36</v>
@@ -13146,19 +13132,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -13169,7 +13155,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>75</v>
@@ -13180,13 +13166,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>80</v>
@@ -13197,13 +13183,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>100</v>
@@ -13214,13 +13200,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>100</v>
@@ -13231,13 +13217,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>111</v>
@@ -13248,13 +13234,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>48</v>
@@ -13265,16 +13251,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>143</v>
@@ -13282,13 +13268,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>161</v>
@@ -13299,13 +13285,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>161</v>
@@ -13316,13 +13302,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>161</v>
@@ -13339,7 +13325,7 @@
         <v>166</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>161</v>
@@ -13350,13 +13336,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>161</v>
@@ -13367,13 +13353,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>161</v>
@@ -13387,10 +13373,10 @@
         <v>187</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>161</v>
@@ -13401,13 +13387,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>161</v>
@@ -13418,13 +13404,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>161</v>
@@ -13435,13 +13421,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>161</v>
@@ -13452,47 +13438,47 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>187</v>
@@ -13503,13 +13489,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>187</v>
@@ -13520,13 +13506,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>198</v>
@@ -13537,13 +13523,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>205</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>204</v>
@@ -13554,13 +13540,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>209</v>
@@ -13571,13 +13557,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>209</v>
@@ -13588,13 +13574,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>229</v>
@@ -13605,16 +13591,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>233</v>
@@ -13622,13 +13608,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>248</v>
@@ -13639,13 +13625,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>161</v>
@@ -13656,13 +13642,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>161</v>
@@ -13673,13 +13659,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>258</v>
@@ -13696,7 +13682,7 @@
         <v>264</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>263</v>
@@ -13707,13 +13693,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>263</v>
@@ -13724,13 +13710,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>263</v>
@@ -13741,16 +13727,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>270</v>
@@ -13758,16 +13744,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>270</v>
@@ -13775,16 +13761,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>270</v>
@@ -13795,13 +13781,13 @@
         <v>193</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>270</v>
@@ -13809,13 +13795,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>274</v>
@@ -13826,13 +13812,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>274</v>
@@ -13843,16 +13829,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>283</v>
@@ -13860,16 +13846,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>283</v>
@@ -13877,16 +13863,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>283</v>
@@ -13894,13 +13880,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>296</v>
@@ -13911,13 +13897,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>296</v>
@@ -13928,13 +13914,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>302</v>
@@ -13945,13 +13931,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>302</v>
@@ -13962,13 +13948,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>313</v>
@@ -13979,13 +13965,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>337</v>
@@ -13996,13 +13982,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>360</v>
@@ -14013,13 +13999,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>360</v>
@@ -14030,13 +14016,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>360</v>
@@ -14047,13 +14033,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>370</v>
@@ -14064,13 +14050,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>371</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>370</v>
@@ -14081,16 +14067,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>376</v>
@@ -14098,16 +14084,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>376</v>
@@ -14115,16 +14101,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>376</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>376</v>
@@ -14249,52 +14235,52 @@
     <sortCondition ref="E2:E100"/>
   </sortState>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D96">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98:D100">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14519,7 +14505,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -14653,211 +14639,211 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -14865,109 +14851,109 @@
         <v>290</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -14975,219 +14961,219 @@
         <v>389</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>759</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -15195,76 +15181,76 @@
         <v>9</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -15272,197 +15258,197 @@
         <v>133</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>1067</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -15497,114 +15483,114 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -15612,97 +15598,97 @@
         <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -15710,111 +15696,111 @@
         <v>128</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -15822,116 +15808,116 @@
         <v>351</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -15967,13 +15953,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -15984,62 +15970,62 @@
         <v>10</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16050,56 +16036,56 @@
         <v>129</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>386</v>
@@ -16107,51 +16093,51 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -16167,7 +16153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C4CAD2-851C-4D78-8B2D-D5100B32C514}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
@@ -16185,7 +16171,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -16194,10 +16180,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -16205,7 +16191,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>34</v>
@@ -16213,16 +16199,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16230,27 +16216,27 @@
         <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>1090</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>161</v>
@@ -16261,13 +16247,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">

--- a/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="925" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D7263FC-3790-44C2-B448-E847F3A166DE}"/>
+  <xr:revisionPtr revIDLastSave="934" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8543DCB2-E37D-4995-87CA-0270EBB6AD6A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -3324,9 +3324,6 @@
     <t>Sinclair</t>
   </si>
   <si>
-    <t>patricksinclair@yahoo.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Karen </t>
   </si>
   <si>
@@ -3381,13 +3378,16 @@
     <t>415 235-1375</t>
   </si>
   <si>
-    <t>jmnaughton1946@gmail.com</t>
-  </si>
-  <si>
     <t>02/12</t>
   </si>
   <si>
     <t>236 M</t>
+  </si>
+  <si>
+    <t>jimnaughton1946@gmail.com</t>
+  </si>
+  <si>
+    <t>patrickstclair@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -3775,35 +3775,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <b/>
@@ -4021,6 +3993,20 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D9D9"/>
           <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4264,8 +4250,8 @@
   <dimension ref="A1:I1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75:XFD75"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5010,7 +4996,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>163</v>
@@ -5330,7 +5316,7 @@
         <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>231</v>
@@ -5561,22 +5547,22 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>1096</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="D52" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="39" t="s">
         <v>1099</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="I52" s="53" t="s">
         <v>1100</v>
-      </c>
-      <c r="I52" s="53" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5584,19 +5570,19 @@
         <v>848</v>
       </c>
       <c r="B53" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>1098</v>
-      </c>
       <c r="E53" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I53" s="53" t="s">
         <v>1102</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I53" s="53" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -8917,7 +8903,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AA2 C3:H6 I3:AA17 C7:D8 F7:H8 C9:H10 C11:E11 G11:H11 C12:H17 C18:AA51 D52:E53 C54:AA75">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8928,7 +8914,7 @@
     <hyperlink ref="F13" r:id="rId4" xr:uid="{592A1B3B-B2F7-4CDC-BDAC-D1AD979F0536}"/>
     <hyperlink ref="F55" r:id="rId5" xr:uid="{EA80CD83-9791-49E5-9CC4-F2AA9892E575}"/>
     <hyperlink ref="F21" r:id="rId6" xr:uid="{DFF8D86C-B09F-4E2D-97B8-F45B63E33AAA}"/>
-    <hyperlink ref="F53" r:id="rId7" xr:uid="{A7FBD182-2FD6-410C-9DE6-4164C35EF8C5}"/>
+    <hyperlink ref="F53" r:id="rId7" display="jmnaughton1946@gmail.com" xr:uid="{A7FBD182-2FD6-410C-9DE6-4164C35EF8C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" fitToHeight="0" orientation="landscape" r:id="rId8"/>
@@ -9814,52 +9800,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8:AB8">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:AC10 A13:AC13 K38:AC38 A39:J39">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:AC18">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:AC23">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:E12 G12:AA12">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15 K15:AB15 A27:J27">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AA2">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:AA11">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:AA24">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:AA30">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9872,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4F1CA-A107-47E1-B61D-684F7BB5060E}">
   <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -10786,7 +10772,7 @@
         <v>415 235-1375</v>
       </c>
       <c r="D53" s="43" t="str">
-        <v>jmnaughton1946@gmail.com</v>
+        <v>jimnaughton1946@gmail.com</v>
       </c>
       <c r="E53" s="43" t="str">
         <v>02/12</v>
@@ -12404,12 +12390,12 @@
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="A2:E74">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13049,7 +13035,7 @@
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -14235,52 +14221,52 @@
     <sortCondition ref="E2:E100"/>
   </sortState>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D96">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98:D100">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14619,11 +14605,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71:XFD71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -15341,7 +15327,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>790</v>
       </c>
@@ -15352,7 +15338,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>728</v>
       </c>
@@ -15363,7 +15349,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>854</v>
       </c>
@@ -15374,7 +15360,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>734</v>
       </c>
@@ -15385,7 +15371,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>823</v>
       </c>
@@ -15396,7 +15382,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>1078</v>
       </c>
@@ -15407,40 +15393,40 @@
         <v>742</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>1063</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>1069</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>1066</v>
       </c>
@@ -15468,8 +15454,8 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33:E36"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -15938,7 +15924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16154,8 +16140,8 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -16199,13 +16185,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1089</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>1065</v>
@@ -16218,25 +16204,25 @@
       <c r="B4" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>1084</v>
+      <c r="C4" s="38" t="s">
+        <v>1105</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>658</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>161</v>
@@ -16247,13 +16233,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>1092</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -16267,6 +16253,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" xr:uid="{33405957-C986-435E-B4F7-B48E571E3812}"/>
+    <hyperlink ref="C4" r:id="rId2" display="patrickstclaire@yahoo.com" xr:uid="{CC05467B-C936-4890-9DCC-181A092DC390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="934" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8543DCB2-E37D-4995-87CA-0270EBB6AD6A}"/>
+  <xr:revisionPtr revIDLastSave="937" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6B93285-DEEC-468A-9B75-F839068EF26D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1109">
   <si>
     <t>First Name</t>
   </si>
@@ -3388,6 +3388,15 @@
   </si>
   <si>
     <t>patrickstclair@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pam </t>
+  </si>
+  <si>
+    <t>Tudor</t>
+  </si>
+  <si>
+    <t>patudor4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4041,10 +4050,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4254,20 +4259,20 @@
       <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="17"/>
-    <col min="2" max="2" width="12.3828125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.15234375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.4609375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.4609375" style="39" customWidth="1"/>
-    <col min="7" max="8" width="10.4609375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.15234375" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="11.15234375" style="17"/>
+    <col min="1" max="1" width="11.140625" style="17"/>
+    <col min="2" max="2" width="12.37890625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.47265625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.47265625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="26.47265625" style="39" customWidth="1"/>
+    <col min="7" max="8" width="10.47265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="11.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>1074</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -4323,7 +4328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -4350,7 +4355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -4377,7 +4382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>36</v>
       </c>
@@ -4400,7 +4405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
@@ -4447,7 +4452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>55</v>
       </c>
@@ -4473,7 +4478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
         <v>57</v>
       </c>
@@ -4500,7 +4505,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>63</v>
       </c>
@@ -4525,7 +4530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>75</v>
       </c>
@@ -4548,7 +4553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -4572,7 +4577,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>85</v>
       </c>
@@ -4599,7 +4604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
         <v>91</v>
       </c>
@@ -4626,7 +4631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>80</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
         <v>100</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>105</v>
       </c>
@@ -4699,7 +4704,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>111</v>
       </c>
@@ -4725,7 +4730,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
         <v>117</v>
       </c>
@@ -4752,7 +4757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>48</v>
       </c>
@@ -4779,7 +4784,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A21" s="17" t="s">
         <v>1014</v>
       </c>
@@ -4804,7 +4809,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>128</v>
       </c>
@@ -4827,7 +4832,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A23" s="17" t="s">
         <v>133</v>
       </c>
@@ -4854,7 +4859,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A24" s="17" t="s">
         <v>136</v>
       </c>
@@ -4883,7 +4888,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
         <v>142</v>
       </c>
@@ -4912,7 +4917,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A26" s="17" t="s">
         <v>148</v>
       </c>
@@ -4934,7 +4939,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A27" s="17" t="s">
         <v>153</v>
       </c>
@@ -4960,7 +4965,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>155</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A29" s="17" t="s">
         <v>161</v>
       </c>
@@ -5012,7 +5017,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
         <v>161</v>
       </c>
@@ -5039,7 +5044,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A31" s="17" t="s">
         <v>171</v>
       </c>
@@ -5061,7 +5066,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A32" s="17" t="s">
         <v>175</v>
       </c>
@@ -5088,7 +5093,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A33" s="17" t="s">
         <v>181</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A34" s="17" t="s">
         <v>187</v>
       </c>
@@ -5134,7 +5139,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A35" s="17" t="s">
         <v>193</v>
       </c>
@@ -5157,7 +5162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A36" s="17" t="s">
         <v>198</v>
       </c>
@@ -5184,7 +5189,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
         <v>204</v>
       </c>
@@ -5207,7 +5212,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A38" s="17" t="s">
         <v>209</v>
       </c>
@@ -5230,7 +5235,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A39" s="17" t="s">
         <v>214</v>
       </c>
@@ -5253,7 +5258,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A40" s="17" t="s">
         <v>220</v>
       </c>
@@ -5280,7 +5285,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A41" s="17" t="s">
         <v>223</v>
       </c>
@@ -5305,7 +5310,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A42" s="17" t="s">
         <v>229</v>
       </c>
@@ -5331,7 +5336,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A43" s="17" t="s">
         <v>1049</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
         <v>238</v>
       </c>
@@ -5383,7 +5388,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A45" s="17" t="s">
         <v>243</v>
       </c>
@@ -5406,7 +5411,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A46" s="17" t="s">
         <v>248</v>
       </c>
@@ -5427,7 +5432,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A47" s="17" t="s">
         <v>161</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A48" s="17" t="s">
         <v>258</v>
       </c>
@@ -5473,7 +5478,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A49" s="17" t="s">
         <v>263</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A50" s="17" t="s">
         <v>269</v>
       </c>
@@ -5524,7 +5529,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A51" s="17" t="s">
         <v>274</v>
       </c>
@@ -5545,7 +5550,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="17" t="s">
         <v>1095</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17" t="s">
         <v>848</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A54" s="17" t="s">
         <v>171</v>
       </c>
@@ -5614,7 +5619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A55" s="17" t="s">
         <v>287</v>
       </c>
@@ -5639,7 +5644,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A56" s="17" t="s">
         <v>290</v>
       </c>
@@ -5662,7 +5667,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A57" s="17" t="s">
         <v>296</v>
       </c>
@@ -5685,7 +5690,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A58" s="17" t="s">
         <v>302</v>
       </c>
@@ -5709,7 +5714,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A59" s="17" t="s">
         <v>9</v>
       </c>
@@ -5735,7 +5740,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A60" s="17" t="s">
         <v>313</v>
       </c>
@@ -5761,7 +5766,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A61" s="17" t="s">
         <v>128</v>
       </c>
@@ -5786,7 +5791,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A62" s="17" t="s">
         <v>328</v>
       </c>
@@ -5813,7 +5818,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A63" s="17" t="s">
         <v>333</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A64" s="17" t="s">
         <v>337</v>
       </c>
@@ -5864,7 +5869,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A65" s="17" t="s">
         <v>343</v>
       </c>
@@ -5888,7 +5893,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A66" s="17" t="s">
         <v>278</v>
       </c>
@@ -5913,7 +5918,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A67" s="17" t="s">
         <v>351</v>
       </c>
@@ -5936,7 +5941,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A68" s="17" t="s">
         <v>290</v>
       </c>
@@ -5959,7 +5964,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A69" s="17" t="s">
         <v>360</v>
       </c>
@@ -5982,7 +5987,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A70" s="17" t="s">
         <v>365</v>
       </c>
@@ -6005,7 +6010,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A71" s="17" t="s">
         <v>370</v>
       </c>
@@ -6029,7 +6034,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A72" s="17" t="s">
         <v>375</v>
       </c>
@@ -6056,7 +6061,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A73" s="17" t="s">
         <v>382</v>
       </c>
@@ -6081,7 +6086,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A74" s="17" t="s">
         <v>100</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -6114,2791 +6119,2791 @@
       <c r="H75" s="3"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I217" s="2"/>
     </row>
-    <row r="218" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I225" s="2"/>
     </row>
-    <row r="226" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I227" s="2"/>
     </row>
-    <row r="228" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I252" s="2"/>
     </row>
-    <row r="253" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I253" s="2"/>
     </row>
-    <row r="254" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I254" s="2"/>
     </row>
-    <row r="255" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I255" s="2"/>
     </row>
-    <row r="256" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I256" s="2"/>
     </row>
-    <row r="257" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I257" s="2"/>
     </row>
-    <row r="258" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I258" s="2"/>
     </row>
-    <row r="259" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I259" s="2"/>
     </row>
-    <row r="260" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I260" s="2"/>
     </row>
-    <row r="261" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I261" s="2"/>
     </row>
-    <row r="262" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I262" s="2"/>
     </row>
-    <row r="263" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I263" s="2"/>
     </row>
-    <row r="264" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I264" s="2"/>
     </row>
-    <row r="265" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I265" s="2"/>
     </row>
-    <row r="266" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I266" s="2"/>
     </row>
-    <row r="267" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I267" s="2"/>
     </row>
-    <row r="268" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I268" s="2"/>
     </row>
-    <row r="269" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I269" s="2"/>
     </row>
-    <row r="270" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I270" s="2"/>
     </row>
-    <row r="271" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I271" s="2"/>
     </row>
-    <row r="272" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I272" s="2"/>
     </row>
-    <row r="273" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I273" s="2"/>
     </row>
-    <row r="274" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I274" s="2"/>
     </row>
-    <row r="275" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I275" s="2"/>
     </row>
-    <row r="276" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I276" s="2"/>
     </row>
-    <row r="277" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I277" s="2"/>
     </row>
-    <row r="278" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I278" s="2"/>
     </row>
-    <row r="279" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I279" s="2"/>
     </row>
-    <row r="280" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I280" s="2"/>
     </row>
-    <row r="281" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I281" s="2"/>
     </row>
-    <row r="282" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I282" s="2"/>
     </row>
-    <row r="283" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I283" s="2"/>
     </row>
-    <row r="284" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I284" s="2"/>
     </row>
-    <row r="285" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I285" s="2"/>
     </row>
-    <row r="286" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I286" s="2"/>
     </row>
-    <row r="287" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I288" s="2"/>
     </row>
-    <row r="289" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I289" s="2"/>
     </row>
-    <row r="290" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I290" s="2"/>
     </row>
-    <row r="291" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I291" s="2"/>
     </row>
-    <row r="292" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I292" s="2"/>
     </row>
-    <row r="293" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I293" s="2"/>
     </row>
-    <row r="294" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I294" s="2"/>
     </row>
-    <row r="295" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I295" s="2"/>
     </row>
-    <row r="296" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I296" s="2"/>
     </row>
-    <row r="297" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I297" s="2"/>
     </row>
-    <row r="298" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I298" s="2"/>
     </row>
-    <row r="299" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I299" s="2"/>
     </row>
-    <row r="300" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I300" s="2"/>
     </row>
-    <row r="301" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I301" s="2"/>
     </row>
-    <row r="302" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I302" s="2"/>
     </row>
-    <row r="303" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I303" s="2"/>
     </row>
-    <row r="304" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I304" s="2"/>
     </row>
-    <row r="305" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I305" s="2"/>
     </row>
-    <row r="306" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I306" s="2"/>
     </row>
-    <row r="307" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I307" s="2"/>
     </row>
-    <row r="308" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I308" s="2"/>
     </row>
-    <row r="309" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I309" s="2"/>
     </row>
-    <row r="310" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I310" s="2"/>
     </row>
-    <row r="311" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I311" s="2"/>
     </row>
-    <row r="312" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I313" s="2"/>
     </row>
-    <row r="314" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I314" s="2"/>
     </row>
-    <row r="315" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I315" s="2"/>
     </row>
-    <row r="316" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I316" s="2"/>
     </row>
-    <row r="317" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I317" s="2"/>
     </row>
-    <row r="318" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I318" s="2"/>
     </row>
-    <row r="319" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I319" s="2"/>
     </row>
-    <row r="320" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I320" s="2"/>
     </row>
-    <row r="321" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I322" s="2"/>
     </row>
-    <row r="323" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I323" s="2"/>
     </row>
-    <row r="324" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I324" s="2"/>
     </row>
-    <row r="325" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I325" s="2"/>
     </row>
-    <row r="326" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I326" s="2"/>
     </row>
-    <row r="327" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I327" s="2"/>
     </row>
-    <row r="328" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I328" s="2"/>
     </row>
-    <row r="329" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I329" s="2"/>
     </row>
-    <row r="330" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I330" s="2"/>
     </row>
-    <row r="331" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I331" s="2"/>
     </row>
-    <row r="332" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I332" s="2"/>
     </row>
-    <row r="333" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I333" s="2"/>
     </row>
-    <row r="334" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I334" s="2"/>
     </row>
-    <row r="335" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I335" s="2"/>
     </row>
-    <row r="336" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I336" s="2"/>
     </row>
-    <row r="337" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I337" s="2"/>
     </row>
-    <row r="338" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I338" s="2"/>
     </row>
-    <row r="339" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I339" s="2"/>
     </row>
-    <row r="340" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I340" s="2"/>
     </row>
-    <row r="341" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I341" s="2"/>
     </row>
-    <row r="342" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I342" s="2"/>
     </row>
-    <row r="343" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I343" s="2"/>
     </row>
-    <row r="344" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I344" s="2"/>
     </row>
-    <row r="345" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I345" s="2"/>
     </row>
-    <row r="346" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I346" s="2"/>
     </row>
-    <row r="347" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I347" s="2"/>
     </row>
-    <row r="348" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I348" s="2"/>
     </row>
-    <row r="349" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="349" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I349" s="2"/>
     </row>
-    <row r="350" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="350" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I350" s="2"/>
     </row>
-    <row r="351" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="351" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I351" s="2"/>
     </row>
-    <row r="352" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="352" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I352" s="2"/>
     </row>
-    <row r="353" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="353" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I353" s="2"/>
     </row>
-    <row r="354" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="354" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I354" s="2"/>
     </row>
-    <row r="355" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="355" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I355" s="2"/>
     </row>
-    <row r="356" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="356" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I356" s="2"/>
     </row>
-    <row r="357" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="357" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I357" s="2"/>
     </row>
-    <row r="358" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="358" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I358" s="2"/>
     </row>
-    <row r="359" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="359" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I359" s="2"/>
     </row>
-    <row r="360" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="360" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I360" s="2"/>
     </row>
-    <row r="361" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="361" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I361" s="2"/>
     </row>
-    <row r="362" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="362" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I362" s="2"/>
     </row>
-    <row r="363" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="363" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I363" s="2"/>
     </row>
-    <row r="364" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="364" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I364" s="2"/>
     </row>
-    <row r="365" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="365" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I365" s="2"/>
     </row>
-    <row r="366" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="366" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I366" s="2"/>
     </row>
-    <row r="367" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="367" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I367" s="2"/>
     </row>
-    <row r="368" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="368" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I368" s="2"/>
     </row>
-    <row r="369" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="369" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I369" s="2"/>
     </row>
-    <row r="370" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="370" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I370" s="2"/>
     </row>
-    <row r="371" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="371" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I371" s="2"/>
     </row>
-    <row r="372" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="372" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I372" s="2"/>
     </row>
-    <row r="373" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="373" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I373" s="2"/>
     </row>
-    <row r="374" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="374" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I374" s="2"/>
     </row>
-    <row r="375" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="375" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I375" s="2"/>
     </row>
-    <row r="376" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="376" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I376" s="2"/>
     </row>
-    <row r="377" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="377" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I377" s="2"/>
     </row>
-    <row r="378" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="378" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I378" s="2"/>
     </row>
-    <row r="379" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="379" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I379" s="2"/>
     </row>
-    <row r="380" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="380" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I380" s="2"/>
     </row>
-    <row r="381" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="381" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I381" s="2"/>
     </row>
-    <row r="382" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="382" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I382" s="2"/>
     </row>
-    <row r="383" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="383" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I383" s="2"/>
     </row>
-    <row r="384" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="384" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I384" s="2"/>
     </row>
-    <row r="385" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="385" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I385" s="2"/>
     </row>
-    <row r="386" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="386" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I386" s="2"/>
     </row>
-    <row r="387" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="387" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I387" s="2"/>
     </row>
-    <row r="388" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="388" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I388" s="2"/>
     </row>
-    <row r="389" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="389" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I389" s="2"/>
     </row>
-    <row r="390" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="390" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I390" s="2"/>
     </row>
-    <row r="391" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="391" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I391" s="2"/>
     </row>
-    <row r="392" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="392" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I392" s="2"/>
     </row>
-    <row r="393" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="393" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I393" s="2"/>
     </row>
-    <row r="394" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="394" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I394" s="2"/>
     </row>
-    <row r="395" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="395" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I395" s="2"/>
     </row>
-    <row r="396" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="396" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I396" s="2"/>
     </row>
-    <row r="397" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="397" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I397" s="2"/>
     </row>
-    <row r="398" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="398" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I398" s="2"/>
     </row>
-    <row r="399" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="399" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I399" s="2"/>
     </row>
-    <row r="400" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="400" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I400" s="2"/>
     </row>
-    <row r="401" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="401" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I401" s="2"/>
     </row>
-    <row r="402" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="402" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I402" s="2"/>
     </row>
-    <row r="403" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="403" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I403" s="2"/>
     </row>
-    <row r="404" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="404" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I404" s="2"/>
     </row>
-    <row r="405" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="405" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I405" s="2"/>
     </row>
-    <row r="406" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="406" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I406" s="2"/>
     </row>
-    <row r="407" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="407" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I407" s="2"/>
     </row>
-    <row r="408" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="408" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I408" s="2"/>
     </row>
-    <row r="409" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="409" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I409" s="2"/>
     </row>
-    <row r="410" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="410" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I410" s="2"/>
     </row>
-    <row r="411" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="411" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I411" s="2"/>
     </row>
-    <row r="412" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="412" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I412" s="2"/>
     </row>
-    <row r="413" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="413" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I413" s="2"/>
     </row>
-    <row r="414" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="414" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I414" s="2"/>
     </row>
-    <row r="415" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="415" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I415" s="2"/>
     </row>
-    <row r="416" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="416" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I416" s="2"/>
     </row>
-    <row r="417" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="417" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I417" s="2"/>
     </row>
-    <row r="418" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="418" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I418" s="2"/>
     </row>
-    <row r="419" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="419" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I419" s="2"/>
     </row>
-    <row r="420" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="420" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I420" s="2"/>
     </row>
-    <row r="421" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="421" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I421" s="2"/>
     </row>
-    <row r="422" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="422" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I422" s="2"/>
     </row>
-    <row r="423" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="423" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I423" s="2"/>
     </row>
-    <row r="424" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="424" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I424" s="2"/>
     </row>
-    <row r="425" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="425" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I425" s="2"/>
     </row>
-    <row r="426" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="426" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I426" s="2"/>
     </row>
-    <row r="427" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="427" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I427" s="2"/>
     </row>
-    <row r="428" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="428" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I428" s="2"/>
     </row>
-    <row r="429" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="429" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I429" s="2"/>
     </row>
-    <row r="430" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="430" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I430" s="2"/>
     </row>
-    <row r="431" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="431" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I431" s="2"/>
     </row>
-    <row r="432" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="432" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I432" s="2"/>
     </row>
-    <row r="433" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="433" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I433" s="2"/>
     </row>
-    <row r="434" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="434" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I434" s="2"/>
     </row>
-    <row r="435" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="435" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I435" s="2"/>
     </row>
-    <row r="436" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="436" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I436" s="2"/>
     </row>
-    <row r="437" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="437" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I437" s="2"/>
     </row>
-    <row r="438" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="438" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I438" s="2"/>
     </row>
-    <row r="439" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="439" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I439" s="2"/>
     </row>
-    <row r="440" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="440" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I440" s="2"/>
     </row>
-    <row r="441" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="441" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I441" s="2"/>
     </row>
-    <row r="442" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="442" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I442" s="2"/>
     </row>
-    <row r="443" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="443" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I443" s="2"/>
     </row>
-    <row r="444" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="444" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I444" s="2"/>
     </row>
-    <row r="445" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="445" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I445" s="2"/>
     </row>
-    <row r="446" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="446" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I446" s="2"/>
     </row>
-    <row r="447" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="447" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I447" s="2"/>
     </row>
-    <row r="448" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="448" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I448" s="2"/>
     </row>
-    <row r="449" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="449" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I449" s="2"/>
     </row>
-    <row r="450" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="450" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I450" s="2"/>
     </row>
-    <row r="451" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="451" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I451" s="2"/>
     </row>
-    <row r="452" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="452" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I452" s="2"/>
     </row>
-    <row r="453" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="453" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I453" s="2"/>
     </row>
-    <row r="454" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="454" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I454" s="2"/>
     </row>
-    <row r="455" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="455" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I455" s="2"/>
     </row>
-    <row r="456" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="456" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I456" s="2"/>
     </row>
-    <row r="457" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="457" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I457" s="2"/>
     </row>
-    <row r="458" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="458" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I458" s="2"/>
     </row>
-    <row r="459" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="459" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I459" s="2"/>
     </row>
-    <row r="460" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="460" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I460" s="2"/>
     </row>
-    <row r="461" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="461" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I461" s="2"/>
     </row>
-    <row r="462" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="462" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I462" s="2"/>
     </row>
-    <row r="463" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="463" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I463" s="2"/>
     </row>
-    <row r="464" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="464" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I464" s="2"/>
     </row>
-    <row r="465" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="465" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I465" s="2"/>
     </row>
-    <row r="466" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="466" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I466" s="2"/>
     </row>
-    <row r="467" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="467" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I467" s="2"/>
     </row>
-    <row r="468" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="468" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I468" s="2"/>
     </row>
-    <row r="469" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="469" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I469" s="2"/>
     </row>
-    <row r="470" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="470" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I470" s="2"/>
     </row>
-    <row r="471" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="471" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I471" s="2"/>
     </row>
-    <row r="472" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="472" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I472" s="2"/>
     </row>
-    <row r="473" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="473" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I473" s="2"/>
     </row>
-    <row r="474" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="474" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I474" s="2"/>
     </row>
-    <row r="475" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="475" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I475" s="2"/>
     </row>
-    <row r="476" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="476" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I476" s="2"/>
     </row>
-    <row r="477" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="477" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I477" s="2"/>
     </row>
-    <row r="478" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="478" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I478" s="2"/>
     </row>
-    <row r="479" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="479" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I479" s="2"/>
     </row>
-    <row r="480" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="480" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I480" s="2"/>
     </row>
-    <row r="481" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="481" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I481" s="2"/>
     </row>
-    <row r="482" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="482" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I482" s="2"/>
     </row>
-    <row r="483" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="483" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I483" s="2"/>
     </row>
-    <row r="484" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="484" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I484" s="2"/>
     </row>
-    <row r="485" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="485" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I485" s="2"/>
     </row>
-    <row r="486" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="486" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I486" s="2"/>
     </row>
-    <row r="487" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="487" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I487" s="2"/>
     </row>
-    <row r="488" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="488" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I488" s="2"/>
     </row>
-    <row r="489" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="489" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I489" s="2"/>
     </row>
-    <row r="490" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="490" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I490" s="2"/>
     </row>
-    <row r="491" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="491" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I491" s="2"/>
     </row>
-    <row r="492" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="492" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I492" s="2"/>
     </row>
-    <row r="493" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="493" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I493" s="2"/>
     </row>
-    <row r="494" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="494" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I494" s="2"/>
     </row>
-    <row r="495" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="495" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I495" s="2"/>
     </row>
-    <row r="496" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="496" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I496" s="2"/>
     </row>
-    <row r="497" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="497" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I497" s="2"/>
     </row>
-    <row r="498" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="498" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I498" s="2"/>
     </row>
-    <row r="499" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="499" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I499" s="2"/>
     </row>
-    <row r="500" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="500" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I500" s="2"/>
     </row>
-    <row r="501" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="501" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I501" s="2"/>
     </row>
-    <row r="502" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="502" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I502" s="2"/>
     </row>
-    <row r="503" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="503" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I503" s="2"/>
     </row>
-    <row r="504" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="504" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I504" s="2"/>
     </row>
-    <row r="505" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="505" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I505" s="2"/>
     </row>
-    <row r="506" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="506" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I506" s="2"/>
     </row>
-    <row r="507" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="507" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I507" s="2"/>
     </row>
-    <row r="508" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="508" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I508" s="2"/>
     </row>
-    <row r="509" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="509" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I509" s="2"/>
     </row>
-    <row r="510" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="510" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I510" s="2"/>
     </row>
-    <row r="511" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="511" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I511" s="2"/>
     </row>
-    <row r="512" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="512" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I512" s="2"/>
     </row>
-    <row r="513" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="513" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I513" s="2"/>
     </row>
-    <row r="514" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="514" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I514" s="2"/>
     </row>
-    <row r="515" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="515" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I515" s="2"/>
     </row>
-    <row r="516" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="516" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I516" s="2"/>
     </row>
-    <row r="517" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="517" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I517" s="2"/>
     </row>
-    <row r="518" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="518" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I518" s="2"/>
     </row>
-    <row r="519" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="519" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I519" s="2"/>
     </row>
-    <row r="520" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="520" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I520" s="2"/>
     </row>
-    <row r="521" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="521" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I521" s="2"/>
     </row>
-    <row r="522" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="522" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I522" s="2"/>
     </row>
-    <row r="523" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="523" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I523" s="2"/>
     </row>
-    <row r="524" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="524" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I524" s="2"/>
     </row>
-    <row r="525" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="525" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I525" s="2"/>
     </row>
-    <row r="526" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="526" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I526" s="2"/>
     </row>
-    <row r="527" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="527" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I527" s="2"/>
     </row>
-    <row r="528" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="528" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I528" s="2"/>
     </row>
-    <row r="529" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="529" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I529" s="2"/>
     </row>
-    <row r="530" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="530" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I530" s="2"/>
     </row>
-    <row r="531" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="531" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I531" s="2"/>
     </row>
-    <row r="532" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="532" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I532" s="2"/>
     </row>
-    <row r="533" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="533" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I533" s="2"/>
     </row>
-    <row r="534" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="534" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I534" s="2"/>
     </row>
-    <row r="535" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="535" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I535" s="2"/>
     </row>
-    <row r="536" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="536" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I536" s="2"/>
     </row>
-    <row r="537" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="537" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I537" s="2"/>
     </row>
-    <row r="538" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="538" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I538" s="2"/>
     </row>
-    <row r="539" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="539" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I539" s="2"/>
     </row>
-    <row r="540" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="540" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I540" s="2"/>
     </row>
-    <row r="541" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="541" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I541" s="2"/>
     </row>
-    <row r="542" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="542" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I542" s="2"/>
     </row>
-    <row r="543" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="543" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I543" s="2"/>
     </row>
-    <row r="544" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="544" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I544" s="2"/>
     </row>
-    <row r="545" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="545" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I545" s="2"/>
     </row>
-    <row r="546" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="546" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I546" s="2"/>
     </row>
-    <row r="547" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="547" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I547" s="2"/>
     </row>
-    <row r="548" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="548" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I548" s="2"/>
     </row>
-    <row r="549" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="549" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I549" s="2"/>
     </row>
-    <row r="550" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="550" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I550" s="2"/>
     </row>
-    <row r="551" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="551" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I551" s="2"/>
     </row>
-    <row r="552" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="552" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I552" s="2"/>
     </row>
-    <row r="553" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="553" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I553" s="2"/>
     </row>
-    <row r="554" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="554" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I554" s="2"/>
     </row>
-    <row r="555" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="555" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I555" s="2"/>
     </row>
-    <row r="556" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="556" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I556" s="2"/>
     </row>
-    <row r="557" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="557" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I557" s="2"/>
     </row>
-    <row r="558" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="558" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I558" s="2"/>
     </row>
-    <row r="559" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="559" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I559" s="2"/>
     </row>
-    <row r="560" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="560" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I560" s="2"/>
     </row>
-    <row r="561" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="561" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I561" s="2"/>
     </row>
-    <row r="562" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="562" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I562" s="2"/>
     </row>
-    <row r="563" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="563" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I563" s="2"/>
     </row>
-    <row r="564" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="564" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I564" s="2"/>
     </row>
-    <row r="565" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="565" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I565" s="2"/>
     </row>
-    <row r="566" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="566" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I566" s="2"/>
     </row>
-    <row r="567" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="567" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I567" s="2"/>
     </row>
-    <row r="568" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="568" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I568" s="2"/>
     </row>
-    <row r="569" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="569" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I569" s="2"/>
     </row>
-    <row r="570" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="570" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I570" s="2"/>
     </row>
-    <row r="571" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="571" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I571" s="2"/>
     </row>
-    <row r="572" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="572" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I572" s="2"/>
     </row>
-    <row r="573" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="573" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I573" s="2"/>
     </row>
-    <row r="574" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="574" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I574" s="2"/>
     </row>
-    <row r="575" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="575" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I575" s="2"/>
     </row>
-    <row r="576" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="576" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I576" s="2"/>
     </row>
-    <row r="577" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="577" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I577" s="2"/>
     </row>
-    <row r="578" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="578" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I578" s="2"/>
     </row>
-    <row r="579" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="579" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I579" s="2"/>
     </row>
-    <row r="580" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="580" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I580" s="2"/>
     </row>
-    <row r="581" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="581" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I581" s="2"/>
     </row>
-    <row r="582" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="582" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I582" s="2"/>
     </row>
-    <row r="583" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="583" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I583" s="2"/>
     </row>
-    <row r="584" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="584" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I584" s="2"/>
     </row>
-    <row r="585" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="585" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I585" s="2"/>
     </row>
-    <row r="586" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="586" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I586" s="2"/>
     </row>
-    <row r="587" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="587" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I587" s="2"/>
     </row>
-    <row r="588" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="588" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I588" s="2"/>
     </row>
-    <row r="589" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="589" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I589" s="2"/>
     </row>
-    <row r="590" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="590" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I590" s="2"/>
     </row>
-    <row r="591" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="591" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I591" s="2"/>
     </row>
-    <row r="592" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="592" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I592" s="2"/>
     </row>
-    <row r="593" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="593" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I593" s="2"/>
     </row>
-    <row r="594" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="594" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I594" s="2"/>
     </row>
-    <row r="595" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="595" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I595" s="2"/>
     </row>
-    <row r="596" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="596" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I596" s="2"/>
     </row>
-    <row r="597" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="597" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I597" s="2"/>
     </row>
-    <row r="598" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="598" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I598" s="2"/>
     </row>
-    <row r="599" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="599" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I599" s="2"/>
     </row>
-    <row r="600" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="600" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I600" s="2"/>
     </row>
-    <row r="601" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="601" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I601" s="2"/>
     </row>
-    <row r="602" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="602" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I602" s="2"/>
     </row>
-    <row r="603" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="603" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I603" s="2"/>
     </row>
-    <row r="604" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="604" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I604" s="2"/>
     </row>
-    <row r="605" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="605" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I605" s="2"/>
     </row>
-    <row r="606" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="606" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I606" s="2"/>
     </row>
-    <row r="607" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="607" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I607" s="2"/>
     </row>
-    <row r="608" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="608" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I608" s="2"/>
     </row>
-    <row r="609" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="609" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I609" s="2"/>
     </row>
-    <row r="610" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="610" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I610" s="2"/>
     </row>
-    <row r="611" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="611" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I611" s="2"/>
     </row>
-    <row r="612" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="612" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I612" s="2"/>
     </row>
-    <row r="613" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="613" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I613" s="2"/>
     </row>
-    <row r="614" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="614" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I614" s="2"/>
     </row>
-    <row r="615" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="615" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I615" s="2"/>
     </row>
-    <row r="616" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="616" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I616" s="2"/>
     </row>
-    <row r="617" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="617" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I617" s="2"/>
     </row>
-    <row r="618" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="618" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I618" s="2"/>
     </row>
-    <row r="619" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="619" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I619" s="2"/>
     </row>
-    <row r="620" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="620" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I620" s="2"/>
     </row>
-    <row r="621" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="621" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I621" s="2"/>
     </row>
-    <row r="622" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="622" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I622" s="2"/>
     </row>
-    <row r="623" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="623" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I623" s="2"/>
     </row>
-    <row r="624" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="624" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I624" s="2"/>
     </row>
-    <row r="625" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="625" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I625" s="2"/>
     </row>
-    <row r="626" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="626" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I626" s="2"/>
     </row>
-    <row r="627" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="627" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I627" s="2"/>
     </row>
-    <row r="628" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="628" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I628" s="2"/>
     </row>
-    <row r="629" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="629" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I629" s="2"/>
     </row>
-    <row r="630" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="630" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I630" s="2"/>
     </row>
-    <row r="631" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="631" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I631" s="2"/>
     </row>
-    <row r="632" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="632" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I632" s="2"/>
     </row>
-    <row r="633" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="633" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I633" s="2"/>
     </row>
-    <row r="634" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="634" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I634" s="2"/>
     </row>
-    <row r="635" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="635" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I635" s="2"/>
     </row>
-    <row r="636" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="636" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I636" s="2"/>
     </row>
-    <row r="637" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="637" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I637" s="2"/>
     </row>
-    <row r="638" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="638" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I638" s="2"/>
     </row>
-    <row r="639" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="639" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I639" s="2"/>
     </row>
-    <row r="640" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="640" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I640" s="2"/>
     </row>
-    <row r="641" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="641" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I641" s="2"/>
     </row>
-    <row r="642" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="642" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I642" s="2"/>
     </row>
-    <row r="643" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="643" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I643" s="2"/>
     </row>
-    <row r="644" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="644" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I644" s="2"/>
     </row>
-    <row r="645" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="645" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I645" s="2"/>
     </row>
-    <row r="646" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="646" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I646" s="2"/>
     </row>
-    <row r="647" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="647" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I647" s="2"/>
     </row>
-    <row r="648" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="648" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I648" s="2"/>
     </row>
-    <row r="649" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="649" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I649" s="2"/>
     </row>
-    <row r="650" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="650" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I650" s="2"/>
     </row>
-    <row r="651" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="651" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I651" s="2"/>
     </row>
-    <row r="652" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="652" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I652" s="2"/>
     </row>
-    <row r="653" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="653" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I653" s="2"/>
     </row>
-    <row r="654" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="654" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I654" s="2"/>
     </row>
-    <row r="655" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="655" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I655" s="2"/>
     </row>
-    <row r="656" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="656" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I656" s="2"/>
     </row>
-    <row r="657" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="657" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I657" s="2"/>
     </row>
-    <row r="658" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="658" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I658" s="2"/>
     </row>
-    <row r="659" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="659" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I659" s="2"/>
     </row>
-    <row r="660" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="660" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I660" s="2"/>
     </row>
-    <row r="661" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="661" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I661" s="2"/>
     </row>
-    <row r="662" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="662" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I662" s="2"/>
     </row>
-    <row r="663" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="663" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I663" s="2"/>
     </row>
-    <row r="664" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="664" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I664" s="2"/>
     </row>
-    <row r="665" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="665" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I665" s="2"/>
     </row>
-    <row r="666" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="666" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I666" s="2"/>
     </row>
-    <row r="667" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="667" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I667" s="2"/>
     </row>
-    <row r="668" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="668" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I668" s="2"/>
     </row>
-    <row r="669" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="669" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I669" s="2"/>
     </row>
-    <row r="670" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="670" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I670" s="2"/>
     </row>
-    <row r="671" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="671" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I671" s="2"/>
     </row>
-    <row r="672" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="672" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I672" s="2"/>
     </row>
-    <row r="673" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="673" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I673" s="2"/>
     </row>
-    <row r="674" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="674" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I674" s="2"/>
     </row>
-    <row r="675" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="675" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I675" s="2"/>
     </row>
-    <row r="676" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="676" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I676" s="2"/>
     </row>
-    <row r="677" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="677" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I677" s="2"/>
     </row>
-    <row r="678" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="678" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I678" s="2"/>
     </row>
-    <row r="679" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="679" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I679" s="2"/>
     </row>
-    <row r="680" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="680" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I680" s="2"/>
     </row>
-    <row r="681" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="681" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I681" s="2"/>
     </row>
-    <row r="682" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="682" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I682" s="2"/>
     </row>
-    <row r="683" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="683" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I683" s="2"/>
     </row>
-    <row r="684" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="684" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I684" s="2"/>
     </row>
-    <row r="685" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="685" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I685" s="2"/>
     </row>
-    <row r="686" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="686" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I686" s="2"/>
     </row>
-    <row r="687" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="687" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I687" s="2"/>
     </row>
-    <row r="688" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="688" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I688" s="2"/>
     </row>
-    <row r="689" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="689" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I689" s="2"/>
     </row>
-    <row r="690" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="690" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I690" s="2"/>
     </row>
-    <row r="691" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="691" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I691" s="2"/>
     </row>
-    <row r="692" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="692" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I692" s="2"/>
     </row>
-    <row r="693" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="693" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I693" s="2"/>
     </row>
-    <row r="694" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="694" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I694" s="2"/>
     </row>
-    <row r="695" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="695" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I695" s="2"/>
     </row>
-    <row r="696" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="696" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I696" s="2"/>
     </row>
-    <row r="697" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="697" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I697" s="2"/>
     </row>
-    <row r="698" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="698" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I698" s="2"/>
     </row>
-    <row r="699" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="699" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I699" s="2"/>
     </row>
-    <row r="700" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="700" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I700" s="2"/>
     </row>
-    <row r="701" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="701" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I701" s="2"/>
     </row>
-    <row r="702" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="702" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I702" s="2"/>
     </row>
-    <row r="703" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="703" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I703" s="2"/>
     </row>
-    <row r="704" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="704" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I704" s="2"/>
     </row>
-    <row r="705" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="705" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I705" s="2"/>
     </row>
-    <row r="706" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="706" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I706" s="2"/>
     </row>
-    <row r="707" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="707" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I707" s="2"/>
     </row>
-    <row r="708" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="708" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I708" s="2"/>
     </row>
-    <row r="709" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="709" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I709" s="2"/>
     </row>
-    <row r="710" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="710" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I710" s="2"/>
     </row>
-    <row r="711" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="711" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I711" s="2"/>
     </row>
-    <row r="712" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="712" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I712" s="2"/>
     </row>
-    <row r="713" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="713" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I713" s="2"/>
     </row>
-    <row r="714" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="714" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I714" s="2"/>
     </row>
-    <row r="715" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="715" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I715" s="2"/>
     </row>
-    <row r="716" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="716" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I716" s="2"/>
     </row>
-    <row r="717" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="717" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I717" s="2"/>
     </row>
-    <row r="718" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="718" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I718" s="2"/>
     </row>
-    <row r="719" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="719" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I719" s="2"/>
     </row>
-    <row r="720" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="720" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I720" s="2"/>
     </row>
-    <row r="721" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="721" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I721" s="2"/>
     </row>
-    <row r="722" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="722" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I722" s="2"/>
     </row>
-    <row r="723" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="723" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I723" s="2"/>
     </row>
-    <row r="724" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="724" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I724" s="2"/>
     </row>
-    <row r="725" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="725" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I725" s="2"/>
     </row>
-    <row r="726" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="726" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I726" s="2"/>
     </row>
-    <row r="727" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="727" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I727" s="2"/>
     </row>
-    <row r="728" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="728" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I728" s="2"/>
     </row>
-    <row r="729" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="729" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I729" s="2"/>
     </row>
-    <row r="730" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="730" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I730" s="2"/>
     </row>
-    <row r="731" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="731" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I731" s="2"/>
     </row>
-    <row r="732" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="732" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I732" s="2"/>
     </row>
-    <row r="733" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="733" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I733" s="2"/>
     </row>
-    <row r="734" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="734" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I734" s="2"/>
     </row>
-    <row r="735" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="735" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I735" s="2"/>
     </row>
-    <row r="736" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="736" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I736" s="2"/>
     </row>
-    <row r="737" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="737" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I737" s="2"/>
     </row>
-    <row r="738" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="738" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I738" s="2"/>
     </row>
-    <row r="739" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="739" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I739" s="2"/>
     </row>
-    <row r="740" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="740" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I740" s="2"/>
     </row>
-    <row r="741" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="741" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I741" s="2"/>
     </row>
-    <row r="742" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="742" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I742" s="2"/>
     </row>
-    <row r="743" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="743" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I743" s="2"/>
     </row>
-    <row r="744" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="744" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I744" s="2"/>
     </row>
-    <row r="745" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="745" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I745" s="2"/>
     </row>
-    <row r="746" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="746" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I746" s="2"/>
     </row>
-    <row r="747" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="747" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I747" s="2"/>
     </row>
-    <row r="748" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="748" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I748" s="2"/>
     </row>
-    <row r="749" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="749" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I749" s="2"/>
     </row>
-    <row r="750" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="750" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I750" s="2"/>
     </row>
-    <row r="751" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="751" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I751" s="2"/>
     </row>
-    <row r="752" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="752" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I752" s="2"/>
     </row>
-    <row r="753" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="753" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I753" s="2"/>
     </row>
-    <row r="754" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="754" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I754" s="2"/>
     </row>
-    <row r="755" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="755" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I755" s="2"/>
     </row>
-    <row r="756" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="756" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I756" s="2"/>
     </row>
-    <row r="757" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="757" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I757" s="2"/>
     </row>
-    <row r="758" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="758" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I758" s="2"/>
     </row>
-    <row r="759" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="759" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I759" s="2"/>
     </row>
-    <row r="760" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="760" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I760" s="2"/>
     </row>
-    <row r="761" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="761" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I761" s="2"/>
     </row>
-    <row r="762" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="762" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I762" s="2"/>
     </row>
-    <row r="763" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="763" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I763" s="2"/>
     </row>
-    <row r="764" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="764" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I764" s="2"/>
     </row>
-    <row r="765" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="765" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I765" s="2"/>
     </row>
-    <row r="766" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="766" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I766" s="2"/>
     </row>
-    <row r="767" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="767" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I767" s="2"/>
     </row>
-    <row r="768" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="768" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I768" s="2"/>
     </row>
-    <row r="769" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="769" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I769" s="2"/>
     </row>
-    <row r="770" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="770" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I770" s="2"/>
     </row>
-    <row r="771" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="771" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I771" s="2"/>
     </row>
-    <row r="772" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="772" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I772" s="2"/>
     </row>
-    <row r="773" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="773" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I773" s="2"/>
     </row>
-    <row r="774" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="774" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I774" s="2"/>
     </row>
-    <row r="775" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="775" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I775" s="2"/>
     </row>
-    <row r="776" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="776" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I776" s="2"/>
     </row>
-    <row r="777" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="777" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I777" s="2"/>
     </row>
-    <row r="778" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="778" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I778" s="2"/>
     </row>
-    <row r="779" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="779" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I779" s="2"/>
     </row>
-    <row r="780" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="780" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I780" s="2"/>
     </row>
-    <row r="781" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="781" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I781" s="2"/>
     </row>
-    <row r="782" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="782" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I782" s="2"/>
     </row>
-    <row r="783" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="783" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I783" s="2"/>
     </row>
-    <row r="784" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="784" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I784" s="2"/>
     </row>
-    <row r="785" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="785" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I785" s="2"/>
     </row>
-    <row r="786" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="786" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I786" s="2"/>
     </row>
-    <row r="787" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="787" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I787" s="2"/>
     </row>
-    <row r="788" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="788" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I788" s="2"/>
     </row>
-    <row r="789" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="789" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I789" s="2"/>
     </row>
-    <row r="790" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="790" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I790" s="2"/>
     </row>
-    <row r="791" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="791" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I791" s="2"/>
     </row>
-    <row r="792" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="792" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I792" s="2"/>
     </row>
-    <row r="793" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="793" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I793" s="2"/>
     </row>
-    <row r="794" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="794" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I794" s="2"/>
     </row>
-    <row r="795" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="795" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I795" s="2"/>
     </row>
-    <row r="796" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="796" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I796" s="2"/>
     </row>
-    <row r="797" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="797" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I797" s="2"/>
     </row>
-    <row r="798" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="798" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I798" s="2"/>
     </row>
-    <row r="799" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="799" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I799" s="2"/>
     </row>
-    <row r="800" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="800" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I800" s="2"/>
     </row>
-    <row r="801" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="801" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I801" s="2"/>
     </row>
-    <row r="802" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="802" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I802" s="2"/>
     </row>
-    <row r="803" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="803" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I803" s="2"/>
     </row>
-    <row r="804" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="804" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I804" s="2"/>
     </row>
-    <row r="805" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="805" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I805" s="2"/>
     </row>
-    <row r="806" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="806" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I806" s="2"/>
     </row>
-    <row r="807" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="807" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I807" s="2"/>
     </row>
-    <row r="808" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="808" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I808" s="2"/>
     </row>
-    <row r="809" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="809" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I809" s="2"/>
     </row>
-    <row r="810" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="810" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I810" s="2"/>
     </row>
-    <row r="811" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="811" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I811" s="2"/>
     </row>
-    <row r="812" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="812" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I812" s="2"/>
     </row>
-    <row r="813" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="813" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I813" s="2"/>
     </row>
-    <row r="814" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="814" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I814" s="2"/>
     </row>
-    <row r="815" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="815" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I815" s="2"/>
     </row>
-    <row r="816" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="816" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I816" s="2"/>
     </row>
-    <row r="817" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="817" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I817" s="2"/>
     </row>
-    <row r="818" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="818" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I818" s="2"/>
     </row>
-    <row r="819" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="819" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I819" s="2"/>
     </row>
-    <row r="820" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="820" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I820" s="2"/>
     </row>
-    <row r="821" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="821" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I821" s="2"/>
     </row>
-    <row r="822" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="822" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I822" s="2"/>
     </row>
-    <row r="823" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="823" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I823" s="2"/>
     </row>
-    <row r="824" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="824" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I824" s="2"/>
     </row>
-    <row r="825" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="825" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I825" s="2"/>
     </row>
-    <row r="826" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="826" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I826" s="2"/>
     </row>
-    <row r="827" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="827" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I827" s="2"/>
     </row>
-    <row r="828" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="828" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I828" s="2"/>
     </row>
-    <row r="829" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="829" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I829" s="2"/>
     </row>
-    <row r="830" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="830" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I830" s="2"/>
     </row>
-    <row r="831" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="831" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I831" s="2"/>
     </row>
-    <row r="832" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="832" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I832" s="2"/>
     </row>
-    <row r="833" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="833" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I833" s="2"/>
     </row>
-    <row r="834" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="834" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I834" s="2"/>
     </row>
-    <row r="835" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="835" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I835" s="2"/>
     </row>
-    <row r="836" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="836" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I836" s="2"/>
     </row>
-    <row r="837" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="837" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I837" s="2"/>
     </row>
-    <row r="838" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="838" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I838" s="2"/>
     </row>
-    <row r="839" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="839" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I839" s="2"/>
     </row>
-    <row r="840" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="840" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I840" s="2"/>
     </row>
-    <row r="841" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="841" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I841" s="2"/>
     </row>
-    <row r="842" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="842" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I842" s="2"/>
     </row>
-    <row r="843" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="843" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I843" s="2"/>
     </row>
-    <row r="844" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="844" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I844" s="2"/>
     </row>
-    <row r="845" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="845" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I845" s="2"/>
     </row>
-    <row r="846" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="846" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I846" s="2"/>
     </row>
-    <row r="847" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="847" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I847" s="2"/>
     </row>
-    <row r="848" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="848" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I848" s="2"/>
     </row>
-    <row r="849" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="849" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I849" s="2"/>
     </row>
-    <row r="850" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="850" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I850" s="2"/>
     </row>
-    <row r="851" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="851" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I851" s="2"/>
     </row>
-    <row r="852" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="852" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I852" s="2"/>
     </row>
-    <row r="853" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="853" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I853" s="2"/>
     </row>
-    <row r="854" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="854" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I854" s="2"/>
     </row>
-    <row r="855" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="855" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I855" s="2"/>
     </row>
-    <row r="856" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="856" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I856" s="2"/>
     </row>
-    <row r="857" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="857" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I857" s="2"/>
     </row>
-    <row r="858" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="858" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I858" s="2"/>
     </row>
-    <row r="859" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="859" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I859" s="2"/>
     </row>
-    <row r="860" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="860" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I860" s="2"/>
     </row>
-    <row r="861" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="861" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I861" s="2"/>
     </row>
-    <row r="862" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="862" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I862" s="2"/>
     </row>
-    <row r="863" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="863" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I863" s="2"/>
     </row>
-    <row r="864" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="864" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I864" s="2"/>
     </row>
-    <row r="865" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="865" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I865" s="2"/>
     </row>
-    <row r="866" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="866" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I866" s="2"/>
     </row>
-    <row r="867" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="867" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I867" s="2"/>
     </row>
-    <row r="868" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="868" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I868" s="2"/>
     </row>
-    <row r="869" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="869" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I869" s="2"/>
     </row>
-    <row r="870" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="870" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I870" s="2"/>
     </row>
-    <row r="871" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="871" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I871" s="2"/>
     </row>
-    <row r="872" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="872" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I872" s="2"/>
     </row>
-    <row r="873" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="873" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I873" s="2"/>
     </row>
-    <row r="874" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="874" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I874" s="2"/>
     </row>
-    <row r="875" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="875" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I875" s="2"/>
     </row>
-    <row r="876" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="876" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I876" s="2"/>
     </row>
-    <row r="877" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="877" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I877" s="2"/>
     </row>
-    <row r="878" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="878" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I878" s="2"/>
     </row>
-    <row r="879" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="879" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I879" s="2"/>
     </row>
-    <row r="880" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="880" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I880" s="2"/>
     </row>
-    <row r="881" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="881" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I881" s="2"/>
     </row>
-    <row r="882" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="882" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I882" s="2"/>
     </row>
-    <row r="883" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="883" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I883" s="2"/>
     </row>
-    <row r="884" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="884" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I884" s="2"/>
     </row>
-    <row r="885" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="885" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I885" s="2"/>
     </row>
-    <row r="886" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="886" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I886" s="2"/>
     </row>
-    <row r="887" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="887" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I887" s="2"/>
     </row>
-    <row r="888" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="888" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I888" s="2"/>
     </row>
-    <row r="889" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="889" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I889" s="2"/>
     </row>
-    <row r="890" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="890" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I890" s="2"/>
     </row>
-    <row r="891" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="891" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I891" s="2"/>
     </row>
-    <row r="892" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="892" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I892" s="2"/>
     </row>
-    <row r="893" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="893" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I893" s="2"/>
     </row>
-    <row r="894" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="894" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I894" s="2"/>
     </row>
-    <row r="895" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="895" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I895" s="2"/>
     </row>
-    <row r="896" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="896" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I896" s="2"/>
     </row>
-    <row r="897" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="897" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I897" s="2"/>
     </row>
-    <row r="898" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="898" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I898" s="2"/>
     </row>
-    <row r="899" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="899" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I899" s="2"/>
     </row>
-    <row r="900" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="900" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I900" s="2"/>
     </row>
-    <row r="901" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="901" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I901" s="2"/>
     </row>
-    <row r="902" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="902" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I902" s="2"/>
     </row>
-    <row r="903" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="903" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I903" s="2"/>
     </row>
-    <row r="904" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="904" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I904" s="2"/>
     </row>
-    <row r="905" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="905" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I905" s="2"/>
     </row>
-    <row r="906" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="906" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I906" s="2"/>
     </row>
-    <row r="907" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="907" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I907" s="2"/>
     </row>
-    <row r="908" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="908" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I908" s="2"/>
     </row>
-    <row r="909" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="909" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I909" s="2"/>
     </row>
-    <row r="910" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="910" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I910" s="2"/>
     </row>
-    <row r="911" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="911" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I911" s="2"/>
     </row>
-    <row r="912" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="912" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I912" s="2"/>
     </row>
-    <row r="913" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="913" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I913" s="2"/>
     </row>
-    <row r="914" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="914" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I914" s="2"/>
     </row>
-    <row r="915" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="915" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I915" s="2"/>
     </row>
-    <row r="916" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="916" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I916" s="2"/>
     </row>
-    <row r="917" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="917" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I917" s="2"/>
     </row>
-    <row r="918" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="918" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I918" s="2"/>
     </row>
-    <row r="919" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="919" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I919" s="2"/>
     </row>
-    <row r="920" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="920" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I920" s="2"/>
     </row>
-    <row r="921" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="921" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I921" s="2"/>
     </row>
-    <row r="922" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="922" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I922" s="2"/>
     </row>
-    <row r="923" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="923" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I923" s="2"/>
     </row>
-    <row r="924" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="924" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I924" s="2"/>
     </row>
-    <row r="925" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="925" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I925" s="2"/>
     </row>
-    <row r="926" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="926" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I926" s="2"/>
     </row>
-    <row r="927" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="927" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I927" s="2"/>
     </row>
-    <row r="928" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="928" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I928" s="2"/>
     </row>
-    <row r="929" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="929" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I929" s="2"/>
     </row>
-    <row r="930" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="930" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I930" s="2"/>
     </row>
-    <row r="931" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="931" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I931" s="2"/>
     </row>
-    <row r="932" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="932" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I932" s="2"/>
     </row>
-    <row r="933" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="933" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I933" s="2"/>
     </row>
-    <row r="934" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="934" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I934" s="2"/>
     </row>
-    <row r="935" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="935" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I935" s="2"/>
     </row>
-    <row r="936" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="936" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I936" s="2"/>
     </row>
-    <row r="937" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="937" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I937" s="2"/>
     </row>
-    <row r="938" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="938" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I938" s="2"/>
     </row>
-    <row r="939" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="939" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I939" s="2"/>
     </row>
-    <row r="940" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="940" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I940" s="2"/>
     </row>
-    <row r="941" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="941" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I941" s="2"/>
     </row>
-    <row r="942" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="942" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I942" s="2"/>
     </row>
-    <row r="943" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="943" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I943" s="2"/>
     </row>
-    <row r="944" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="944" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I944" s="2"/>
     </row>
-    <row r="945" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="945" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I945" s="2"/>
     </row>
-    <row r="946" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="946" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I946" s="2"/>
     </row>
-    <row r="947" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="947" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I947" s="2"/>
     </row>
-    <row r="948" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="948" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I948" s="2"/>
     </row>
-    <row r="949" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="949" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I949" s="2"/>
     </row>
-    <row r="950" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="950" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I950" s="2"/>
     </row>
-    <row r="951" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="951" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I951" s="2"/>
     </row>
-    <row r="952" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="952" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I952" s="2"/>
     </row>
-    <row r="953" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="953" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I953" s="2"/>
     </row>
-    <row r="954" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="954" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I954" s="2"/>
     </row>
-    <row r="955" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="955" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I955" s="2"/>
     </row>
-    <row r="956" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="956" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I956" s="2"/>
     </row>
-    <row r="957" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="957" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I957" s="2"/>
     </row>
-    <row r="958" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="958" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I958" s="2"/>
     </row>
-    <row r="959" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="959" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I959" s="2"/>
     </row>
-    <row r="960" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="960" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I960" s="2"/>
     </row>
-    <row r="961" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="961" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I961" s="2"/>
     </row>
-    <row r="962" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="962" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I962" s="2"/>
     </row>
-    <row r="963" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="963" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I963" s="2"/>
     </row>
-    <row r="964" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="964" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I964" s="2"/>
     </row>
-    <row r="965" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="965" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I965" s="2"/>
     </row>
-    <row r="966" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="966" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I966" s="2"/>
     </row>
-    <row r="967" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="967" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I967" s="2"/>
     </row>
-    <row r="968" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="968" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I968" s="2"/>
     </row>
-    <row r="969" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="969" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I969" s="2"/>
     </row>
-    <row r="970" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="970" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I970" s="2"/>
     </row>
-    <row r="971" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="971" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I971" s="2"/>
     </row>
-    <row r="972" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="972" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I972" s="2"/>
     </row>
-    <row r="973" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="973" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I973" s="2"/>
     </row>
-    <row r="974" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="974" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I974" s="2"/>
     </row>
-    <row r="975" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="975" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I975" s="2"/>
     </row>
-    <row r="976" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="976" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I976" s="2"/>
     </row>
-    <row r="977" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="977" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I977" s="2"/>
     </row>
-    <row r="978" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="978" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I978" s="2"/>
     </row>
-    <row r="979" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="979" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I979" s="2"/>
     </row>
-    <row r="980" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="980" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I980" s="2"/>
     </row>
-    <row r="981" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="981" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I981" s="2"/>
     </row>
-    <row r="982" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="982" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I982" s="2"/>
     </row>
-    <row r="983" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="983" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I983" s="2"/>
     </row>
-    <row r="984" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="984" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I984" s="2"/>
     </row>
-    <row r="985" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="985" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I985" s="2"/>
     </row>
-    <row r="986" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="986" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I986" s="2"/>
     </row>
-    <row r="987" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="987" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I987" s="2"/>
     </row>
-    <row r="988" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="988" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I988" s="2"/>
     </row>
-    <row r="989" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="989" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I989" s="2"/>
     </row>
-    <row r="990" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="990" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I990" s="2"/>
     </row>
-    <row r="991" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="991" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I991" s="2"/>
     </row>
-    <row r="992" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="992" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I992" s="2"/>
     </row>
-    <row r="993" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="993" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I993" s="2"/>
     </row>
-    <row r="994" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="994" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I994" s="2"/>
     </row>
-    <row r="995" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="995" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I995" s="2"/>
     </row>
-    <row r="996" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="996" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I996" s="2"/>
     </row>
-    <row r="997" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="997" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I997" s="2"/>
     </row>
-    <row r="998" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="998" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I998" s="2"/>
     </row>
-    <row r="999" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="999" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I999" s="2"/>
     </row>
-    <row r="1000" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="1000" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I1000" s="2"/>
     </row>
-    <row r="1001" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="1001" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I1001" s="2"/>
     </row>
-    <row r="1002" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="1002" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I1002" s="2"/>
     </row>
-    <row r="1003" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="1003" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I1003" s="2"/>
     </row>
-    <row r="1004" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="1004" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
       <c r="I1004" s="2"/>
     </row>
   </sheetData>
@@ -8932,16 +8937,16 @@
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="21.15234375" customWidth="1"/>
-    <col min="4" max="4" width="13.4609375" customWidth="1"/>
-    <col min="5" max="5" width="12.84375" customWidth="1"/>
-    <col min="6" max="6" width="21.4609375" customWidth="1"/>
-    <col min="8" max="8" width="8.23046875" customWidth="1"/>
+    <col min="1" max="2" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.47265625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.47265625" customWidth="1"/>
+    <col min="8" max="8" width="8.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
@@ -8968,7 +8973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1075</v>
       </c>
@@ -8988,7 +8993,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>493</v>
       </c>
@@ -9018,7 +9023,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>497</v>
       </c>
@@ -9037,7 +9042,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>500</v>
       </c>
@@ -9061,7 +9066,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>505</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>509</v>
       </c>
@@ -9118,7 +9123,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -9145,7 +9150,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>519</v>
       </c>
@@ -9172,7 +9177,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>523</v>
       </c>
@@ -9195,7 +9200,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>69</v>
       </c>
@@ -9220,7 +9225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>528</v>
       </c>
@@ -9245,7 +9250,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>533</v>
       </c>
@@ -9270,7 +9275,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>537</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>542</v>
       </c>
@@ -9317,7 +9322,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>546</v>
       </c>
@@ -9339,7 +9344,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>549</v>
       </c>
@@ -9362,7 +9367,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>554</v>
       </c>
@@ -9392,13 +9397,13 @@
         <v>559</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>561</v>
       </c>
@@ -9425,7 +9430,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>566</v>
       </c>
@@ -9453,7 +9458,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>572</v>
       </c>
@@ -9476,7 +9481,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A24" s="17" t="s">
         <v>278</v>
       </c>
@@ -9503,7 +9508,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>576</v>
       </c>
@@ -9525,7 +9530,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>579</v>
       </c>
@@ -9550,7 +9555,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A27" s="30" t="s">
         <v>583</v>
       </c>
@@ -9576,7 +9581,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>588</v>
       </c>
@@ -9597,7 +9602,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>591</v>
       </c>
@@ -9625,7 +9630,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
         <v>318</v>
       </c>
@@ -9649,7 +9654,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>596</v>
       </c>
@@ -9675,7 +9680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>601</v>
       </c>
@@ -9697,13 +9702,13 @@
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>604</v>
       </c>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>605</v>
       </c>
@@ -9726,7 +9731,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>611</v>
       </c>
@@ -9750,14 +9755,14 @@
         <v>615</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="12.3" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>616</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>617</v>
       </c>
@@ -9772,7 +9777,7 @@
       <c r="J38"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>618</v>
       </c>
@@ -9862,17 +9867,17 @@
       <selection activeCell="D2" sqref="D2:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.3828125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.84375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.3828125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="29.37890625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.47265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38.37890625" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.765625" style="11"/>
+    <col min="6" max="16384" width="8.76171875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="27" t="s">
         <v>390</v>
       </c>
@@ -9889,7 +9894,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="str" cm="1">
         <f t="array" ref="A2:A75">CONCATENATE(Residents!A2:A75, " ", Residents!B2:B75)</f>
         <v>Patrick Alexander</v>
@@ -9911,7 +9916,7 @@
         <v>07/27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="56" t="str">
         <v>Carmelita Arburua</v>
       </c>
@@ -9928,7 +9933,7 @@
         <v>08/12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="str">
         <v>Theo Armour</v>
       </c>
@@ -9945,7 +9950,7 @@
         <v>01/28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="str">
         <v>Martha Nell Beatty</v>
       </c>
@@ -9962,7 +9967,7 @@
         <v>10/29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="str">
         <v>Yvonne Benedict</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v>06/24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="str">
         <v>Bob Bledsoe</v>
       </c>
@@ -9996,7 +10001,7 @@
         <v>08/18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="str">
         <v>Pam Bledsoe</v>
       </c>
@@ -10013,7 +10018,7 @@
         <v>10/04</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19" t="str">
         <v>Eleanor Bissell</v>
       </c>
@@ -10030,7 +10035,7 @@
         <v>03/07</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="str">
         <v>Katherine Conley</v>
       </c>
@@ -10047,7 +10052,7 @@
         <v>07/15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="str">
         <v>Erika Coughlan</v>
       </c>
@@ -10064,7 +10069,7 @@
         <v>08/09</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="55" t="str">
         <v>Betty Dowell</v>
       </c>
@@ -10081,7 +10086,7 @@
         <v>05/12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="str">
         <v>Lucia Dugliss</v>
       </c>
@@ -10098,7 +10103,7 @@
         <v>12/21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="str">
         <v>Rod Dugliss</v>
       </c>
@@ -10115,7 +10120,7 @@
         <v>02/29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="str">
         <v>Betty Dy</v>
       </c>
@@ -10132,7 +10137,7 @@
         <v>12/17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="str">
         <v>Shirley Ertola</v>
       </c>
@@ -10149,7 +10154,7 @@
         <v>05/18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="str">
         <v>Pamela Fischer</v>
       </c>
@@ -10166,7 +10171,7 @@
         <v>01/04</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="str">
         <v>June Fraps</v>
       </c>
@@ -10183,7 +10188,7 @@
         <v>02/11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="str">
         <v>Gene Graham</v>
       </c>
@@ -10200,7 +10205,7 @@
         <v>10/28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="str">
         <v>Bob Granucci</v>
       </c>
@@ -10217,7 +10222,7 @@
         <v>02/05</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="str">
         <v>Cooby Greenway</v>
       </c>
@@ -10234,7 +10239,7 @@
         <v>02/06</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="str">
         <v>Linda Hanley</v>
       </c>
@@ -10251,7 +10256,7 @@
         <v>01/22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="19" t="str">
         <v>Tony Hanley</v>
       </c>
@@ -10268,7 +10273,7 @@
         <v>06/13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11" t="str">
         <v>Mary Liz Harris</v>
       </c>
@@ -10285,7 +10290,7 @@
         <v>09/24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11" t="str">
         <v>Dr Doris Howard</v>
       </c>
@@ -10302,7 +10307,7 @@
         <v>06/19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11" t="str">
         <v>Charmly Ingham</v>
       </c>
@@ -10319,7 +10324,7 @@
         <v>10/09</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="str">
         <v>Tucker Ingham</v>
       </c>
@@ -10336,7 +10341,7 @@
         <v>10/20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11" t="str">
         <v>Michele Jackson</v>
       </c>
@@ -10353,7 +10358,7 @@
         <v>01/17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11" t="str">
         <v>Margaret Jacobs</v>
       </c>
@@ -10370,7 +10375,7 @@
         <v>12/12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="19" t="str">
         <v>Margaret Johnson</v>
       </c>
@@ -10387,7 +10392,7 @@
         <v>04/02</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11" t="str">
         <v>Liz Jonson</v>
       </c>
@@ -10404,7 +10409,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11" t="str">
         <v>Elizabeth Jordan</v>
       </c>
@@ -10421,7 +10426,7 @@
         <v>05/09</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11" t="str">
         <v>Monique Kaufman</v>
       </c>
@@ -10438,7 +10443,7 @@
         <v>04/07</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11" t="str">
         <v>Tom King</v>
       </c>
@@ -10455,7 +10460,7 @@
         <v>08/16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="19" t="str">
         <v>Kathy Kirkpatrick</v>
       </c>
@@ -10472,7 +10477,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11" t="str">
         <v>Gloria Learned</v>
       </c>
@@ -10489,7 +10494,7 @@
         <v>09/25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="19" t="str">
         <v>Ivy Lee</v>
       </c>
@@ -10506,7 +10511,7 @@
         <v>02/10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11" t="str">
         <v>Enid Leff</v>
       </c>
@@ -10523,7 +10528,7 @@
         <v>07/05</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11" t="str">
         <v>Karl Leichum</v>
       </c>
@@ -10540,7 +10545,7 @@
         <v>06/29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11" t="str">
         <v>Lillemor Leichum</v>
       </c>
@@ -10557,7 +10562,7 @@
         <v>01/26</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="19" t="str">
         <v>Katie Loo</v>
       </c>
@@ -10574,7 +10579,7 @@
         <v>02/09</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="19" t="str">
         <v>Jay Ludwig</v>
       </c>
@@ -10591,7 +10596,7 @@
         <v>06/19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11" t="str">
         <v>Sisi Luopajarvi</v>
       </c>
@@ -10608,7 +10613,7 @@
         <v>12/13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="19" t="str">
         <v>Midge Mansouri</v>
       </c>
@@ -10625,7 +10630,7 @@
         <v>07/15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11" t="str">
         <v>Rita McEvoy</v>
       </c>
@@ -10642,7 +10647,7 @@
         <v>12/29</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11" t="str">
         <v>Gerry Miller</v>
       </c>
@@ -10659,7 +10664,7 @@
         <v>07/26</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="str">
         <v>Margaret Missiaen</v>
       </c>
@@ -10676,7 +10681,7 @@
         <v>11/24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="19" t="str">
         <v>Sheila Moore</v>
       </c>
@@ -10693,7 +10698,7 @@
         <v>12/12</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11" t="str">
         <v>Anne Morris</v>
       </c>
@@ -10710,7 +10715,7 @@
         <v>06/27</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11" t="str">
         <v>Atilio "Til" Mossi</v>
       </c>
@@ -10727,7 +10732,7 @@
         <v>08/08</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="19" t="str">
         <v>Terry Moughan</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>10/06</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="43" t="str">
         <v>Candy  Naughton</v>
       </c>
@@ -10761,7 +10766,7 @@
         <v>02/03</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="43" t="str">
         <v>Jim Naughton</v>
       </c>
@@ -10778,7 +10783,7 @@
         <v>02/12</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="54" t="str">
         <v>Liz Nolan</v>
       </c>
@@ -10795,7 +10800,7 @@
         <v>08/18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11" t="str">
         <v>Marty Nolan</v>
       </c>
@@ -10812,7 +10817,7 @@
         <v>03/28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11" t="str">
         <v>Nancy Ozsogomonyan</v>
       </c>
@@ -10829,7 +10834,7 @@
         <v>02/21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11" t="str">
         <v>Maureen Perron</v>
       </c>
@@ -10846,7 +10851,7 @@
         <v>01/24</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11" t="str">
         <v>Genevieve Plusa</v>
       </c>
@@ -10863,7 +10868,7 @@
         <v>11/03</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11" t="str">
         <v>Patrick Rush</v>
       </c>
@@ -10880,7 +10885,7 @@
         <v>03/10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11" t="str">
         <v>Ernie Sabini</v>
       </c>
@@ -10897,7 +10902,7 @@
         <v>03/22</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11" t="str">
         <v>Linda Sharp</v>
       </c>
@@ -10914,7 +10919,7 @@
         <v>03/23</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="55" t="str">
         <v>Gary Skootsky</v>
       </c>
@@ -10931,7 +10936,7 @@
         <v>07/22</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11" t="str">
         <v>Kristine Skootsky</v>
       </c>
@@ -10948,7 +10953,7 @@
         <v>06/07</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11" t="str">
         <v>Jane Standing</v>
       </c>
@@ -10965,7 +10970,7 @@
         <v>02/06</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11" t="str">
         <v>Val Szigeti</v>
       </c>
@@ -10982,7 +10987,7 @@
         <v>02/05</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="19" t="str">
         <v>Kay Tim</v>
       </c>
@@ -10999,7 +11004,7 @@
         <v>11/24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="19" t="str">
         <v>Martha Torres</v>
       </c>
@@ -11016,7 +11021,7 @@
         <v>03/13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="19" t="str">
         <v>Nancy Trogman</v>
       </c>
@@ -11033,7 +11038,7 @@
         <v>01/26</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="19" t="str">
         <v>Mercedes Van Den Berg</v>
       </c>
@@ -11050,7 +11055,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11" t="str">
         <v>Stela Voyles</v>
       </c>
@@ -11067,7 +11072,7 @@
         <v>05/01</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11" t="str">
         <v>Marion Wake</v>
       </c>
@@ -11084,7 +11089,7 @@
         <v>08/15</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11" t="str">
         <v>Fred Wentker</v>
       </c>
@@ -11101,7 +11106,7 @@
         <v>06/22</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11" t="str">
         <v>Jo Ann Wentker</v>
       </c>
@@ -11118,7 +11123,7 @@
         <v>11/02</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11" t="str">
         <v>Shirley Yawitz</v>
       </c>
@@ -11135,7 +11140,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11" t="str">
         <v xml:space="preserve"> </v>
       </c>
@@ -11152,31 +11157,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="51"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="51"/>
       <c r="E76" s="51"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="52"/>
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
       <c r="E77" s="52"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="24" t="s">
         <v>393</v>
       </c>
@@ -11185,7 +11190,7 @@
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="52" t="s">
         <v>1082</v>
       </c>
@@ -11194,7 +11199,7 @@
       <c r="D82" s="52"/>
       <c r="E82" s="52"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="13" t="s">
         <v>394</v>
       </c>
@@ -11205,7 +11210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="19" t="s">
         <v>396</v>
       </c>
@@ -11216,7 +11221,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="19" t="s">
         <v>399</v>
       </c>
@@ -11228,7 +11233,7 @@
       </c>
       <c r="D86" s="19"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="19" t="s">
         <v>402</v>
       </c>
@@ -11240,7 +11245,7 @@
       </c>
       <c r="D87" s="19"/>
     </row>
-    <row r="88" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="27" t="s">
         <v>404</v>
       </c>
@@ -11273,7 +11278,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8" t="s">
         <v>405</v>
       </c>
@@ -11305,7 +11310,7 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
     </row>
-    <row r="90" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8" t="s">
         <v>407</v>
       </c>
@@ -11339,7 +11344,7 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
     </row>
-    <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="19" t="s">
         <v>410</v>
       </c>
@@ -11371,7 +11376,7 @@
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
     </row>
-    <row r="92" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="19" t="s">
         <v>412</v>
       </c>
@@ -11403,7 +11408,7 @@
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
     </row>
-    <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="19" t="s">
         <v>414</v>
       </c>
@@ -11435,7 +11440,7 @@
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
     </row>
-    <row r="94" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="19" t="s">
         <v>416</v>
       </c>
@@ -11467,7 +11472,7 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
     </row>
-    <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="27" t="s">
         <v>418</v>
       </c>
@@ -11499,7 +11504,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="19" t="s">
         <v>420</v>
       </c>
@@ -11535,7 +11540,7 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
     </row>
-    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8" t="s">
         <v>424</v>
       </c>
@@ -11571,7 +11576,7 @@
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
     </row>
-    <row r="98" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8" t="s">
         <v>428</v>
       </c>
@@ -11607,7 +11612,7 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
     </row>
-    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8" t="s">
         <v>432</v>
       </c>
@@ -11643,7 +11648,7 @@
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
     </row>
-    <row r="100" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="19" t="s">
         <v>436</v>
       </c>
@@ -11679,7 +11684,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="19" t="s">
         <v>440</v>
       </c>
@@ -11715,7 +11720,7 @@
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
     </row>
-    <row r="102" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="19" t="s">
         <v>444</v>
       </c>
@@ -11751,7 +11756,7 @@
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
     </row>
-    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="19" t="s">
         <v>448</v>
       </c>
@@ -11787,7 +11792,7 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
     </row>
-    <row r="104" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="19" t="s">
         <v>452</v>
       </c>
@@ -11823,7 +11828,7 @@
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
     </row>
-    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="19" t="s">
         <v>456</v>
       </c>
@@ -11859,7 +11864,7 @@
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
     </row>
-    <row r="106" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="19" t="s">
         <v>460</v>
       </c>
@@ -11895,7 +11900,7 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="19" t="s">
         <v>464</v>
       </c>
@@ -11929,7 +11934,7 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="19" t="s">
         <v>467</v>
       </c>
@@ -11965,7 +11970,7 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
     </row>
-    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="19" t="s">
         <v>471</v>
       </c>
@@ -12001,7 +12006,7 @@
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
     </row>
-    <row r="110" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="19" t="s">
         <v>475</v>
       </c>
@@ -12037,7 +12042,7 @@
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
     </row>
-    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="19" t="s">
         <v>479</v>
       </c>
@@ -12073,7 +12078,7 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
     </row>
-    <row r="112" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="35" t="s">
         <v>483</v>
       </c>
@@ -12103,7 +12108,7 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
     </row>
-    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="34" t="s">
         <v>484</v>
       </c>
@@ -12133,7 +12138,7 @@
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
     </row>
-    <row r="114" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="19" t="s">
         <v>485</v>
       </c>
@@ -12164,7 +12169,7 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8" t="s">
         <v>486</v>
       </c>
@@ -12194,7 +12199,7 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
     </row>
-    <row r="116" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8" t="s">
         <v>488</v>
       </c>
@@ -12226,7 +12231,7 @@
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
     </row>
-    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -12254,7 +12259,7 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
     </row>
-    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -12282,7 +12287,7 @@
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
     </row>
-    <row r="119" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -12310,7 +12315,7 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
     </row>
-    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="28"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -12338,53 +12343,53 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="18"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="19"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="19"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="19"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="20"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="19"/>
       <c r="B150" s="23"/>
       <c r="E150" s="23"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="13"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="21"/>
       <c r="E155" s="21"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="13"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="29"/>
       <c r="C158" s="26"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="13"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="22"/>
     </row>
   </sheetData>
@@ -12417,12 +12422,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:B74">_xlfn.LET(
     _xlpm.data, Residents!A2:I75,
@@ -12439,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <v>Liz Jonson</v>
       </c>
@@ -12447,7 +12452,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <v>Kathy Kirkpatrick</v>
       </c>
@@ -12455,7 +12460,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <v>Mercedes Van Den Berg</v>
       </c>
@@ -12463,7 +12468,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <v>Shirley Yawitz</v>
       </c>
@@ -12471,7 +12476,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <v>Pamela Fischer</v>
       </c>
@@ -12479,7 +12484,7 @@
         <v>01/04</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <v>Michele Jackson</v>
       </c>
@@ -12487,7 +12492,7 @@
         <v>01/17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <v>Linda Hanley</v>
       </c>
@@ -12495,7 +12500,7 @@
         <v>01/22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <v>Maureen Perron</v>
       </c>
@@ -12503,7 +12508,7 @@
         <v>01/24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <v>Lillemor Leichum</v>
       </c>
@@ -12511,7 +12516,7 @@
         <v>01/26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <v>Nancy Trogman</v>
       </c>
@@ -12519,7 +12524,7 @@
         <v>01/26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <v>Theo Armour</v>
       </c>
@@ -12527,7 +12532,7 @@
         <v>01/28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <v>Candy  Naughton</v>
       </c>
@@ -12535,7 +12540,7 @@
         <v>02/03</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <v>Bob Granucci</v>
       </c>
@@ -12543,7 +12548,7 @@
         <v>02/05</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <v>Val Szigeti</v>
       </c>
@@ -12551,7 +12556,7 @@
         <v>02/05</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <v>Cooby Greenway</v>
       </c>
@@ -12559,7 +12564,7 @@
         <v>02/06</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <v>Jane Standing</v>
       </c>
@@ -12567,7 +12572,7 @@
         <v>02/06</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <v>Katie Loo</v>
       </c>
@@ -12575,7 +12580,7 @@
         <v>02/09</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <v>Ivy Lee</v>
       </c>
@@ -12583,7 +12588,7 @@
         <v>02/10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <v>June Fraps</v>
       </c>
@@ -12591,7 +12596,7 @@
         <v>02/11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <v>Jim Naughton</v>
       </c>
@@ -12599,7 +12604,7 @@
         <v>02/12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <v>Nancy Ozsogomonyan</v>
       </c>
@@ -12607,7 +12612,7 @@
         <v>02/21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <v>Rod Dugliss</v>
       </c>
@@ -12615,7 +12620,7 @@
         <v>02/29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <v>Eleanor Bissell</v>
       </c>
@@ -12623,7 +12628,7 @@
         <v>03/07</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <v>Patrick Rush</v>
       </c>
@@ -12631,7 +12636,7 @@
         <v>03/10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
         <v>Martha Torres</v>
       </c>
@@ -12639,7 +12644,7 @@
         <v>03/13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <v>Ernie Sabini</v>
       </c>
@@ -12647,7 +12652,7 @@
         <v>03/22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <v>Linda Sharp</v>
       </c>
@@ -12655,7 +12660,7 @@
         <v>03/23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <v>Marty Nolan</v>
       </c>
@@ -12663,7 +12668,7 @@
         <v>03/28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <v>Margaret Johnson</v>
       </c>
@@ -12671,7 +12676,7 @@
         <v>04/02</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <v>Monique Kaufman</v>
       </c>
@@ -12679,7 +12684,7 @@
         <v>04/07</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <v>Stela Voyles</v>
       </c>
@@ -12687,7 +12692,7 @@
         <v>05/01</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
         <v>Elizabeth Jordan</v>
       </c>
@@ -12695,7 +12700,7 @@
         <v>05/09</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <v>Betty Dowell</v>
       </c>
@@ -12703,7 +12708,7 @@
         <v>05/12</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
         <v>Shirley Ertola</v>
       </c>
@@ -12711,7 +12716,7 @@
         <v>05/18</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
         <v>Kristine Skootsky</v>
       </c>
@@ -12719,7 +12724,7 @@
         <v>06/07</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
         <v>Tony Hanley</v>
       </c>
@@ -12727,7 +12732,7 @@
         <v>06/13</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
         <v>Dr Doris Howard</v>
       </c>
@@ -12735,7 +12740,7 @@
         <v>06/19</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
         <v>Jay Ludwig</v>
       </c>
@@ -12743,7 +12748,7 @@
         <v>06/19</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
         <v>Fred Wentker</v>
       </c>
@@ -12751,7 +12756,7 @@
         <v>06/22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
         <v>Yvonne Benedict</v>
       </c>
@@ -12759,7 +12764,7 @@
         <v>06/24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
         <v>Anne Morris</v>
       </c>
@@ -12767,7 +12772,7 @@
         <v>06/27</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
         <v>Karl Leichum</v>
       </c>
@@ -12775,7 +12780,7 @@
         <v>06/29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
         <v>Enid Leff</v>
       </c>
@@ -12783,7 +12788,7 @@
         <v>07/05</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
         <v>Katherine Conley</v>
       </c>
@@ -12791,7 +12796,7 @@
         <v>07/15</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
         <v>Midge Mansouri</v>
       </c>
@@ -12799,7 +12804,7 @@
         <v>07/15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
         <v>Gary Skootsky</v>
       </c>
@@ -12807,7 +12812,7 @@
         <v>07/22</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
         <v>Gerry Miller</v>
       </c>
@@ -12815,7 +12820,7 @@
         <v>07/26</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
         <v>Patrick Alexander</v>
       </c>
@@ -12823,7 +12828,7 @@
         <v>07/27</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
         <v>Atilio "Til" Mossi</v>
       </c>
@@ -12831,7 +12836,7 @@
         <v>08/08</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
         <v>Erika Coughlan</v>
       </c>
@@ -12839,7 +12844,7 @@
         <v>08/09</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
         <v>Carmelita Arburua</v>
       </c>
@@ -12847,7 +12852,7 @@
         <v>08/12</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="str">
         <v>Marion Wake</v>
       </c>
@@ -12855,7 +12860,7 @@
         <v>08/15</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
         <v>Tom King</v>
       </c>
@@ -12863,7 +12868,7 @@
         <v>08/16</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
         <v>Bob Bledsoe</v>
       </c>
@@ -12871,7 +12876,7 @@
         <v>08/18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="str">
         <v>Liz Nolan</v>
       </c>
@@ -12879,7 +12884,7 @@
         <v>08/18</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
         <v>Mary Liz Harris</v>
       </c>
@@ -12887,7 +12892,7 @@
         <v>09/24</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
         <v>Gloria Learned</v>
       </c>
@@ -12895,7 +12900,7 @@
         <v>09/25</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="str">
         <v>Pam Bledsoe</v>
       </c>
@@ -12903,7 +12908,7 @@
         <v>10/04</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
         <v>Terry Moughan</v>
       </c>
@@ -12911,7 +12916,7 @@
         <v>10/06</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
         <v>Charmly Ingham</v>
       </c>
@@ -12919,7 +12924,7 @@
         <v>10/09</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="str">
         <v>Tucker Ingham</v>
       </c>
@@ -12927,7 +12932,7 @@
         <v>10/20</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
         <v>Gene Graham</v>
       </c>
@@ -12935,7 +12940,7 @@
         <v>10/28</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="str">
         <v>Martha Nell Beatty</v>
       </c>
@@ -12943,7 +12948,7 @@
         <v>10/29</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="str">
         <v>Jo Ann Wentker</v>
       </c>
@@ -12951,7 +12956,7 @@
         <v>11/02</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="str">
         <v>Genevieve Plusa</v>
       </c>
@@ -12959,7 +12964,7 @@
         <v>11/03</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="str">
         <v>Margaret Missiaen</v>
       </c>
@@ -12967,7 +12972,7 @@
         <v>11/24</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="str">
         <v>Kay Tim</v>
       </c>
@@ -12975,7 +12980,7 @@
         <v>11/24</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="str">
         <v>Margaret Jacobs</v>
       </c>
@@ -12983,7 +12988,7 @@
         <v>12/12</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="str">
         <v>Sheila Moore</v>
       </c>
@@ -12991,7 +12996,7 @@
         <v>12/12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="str">
         <v>Sisi Luopajarvi</v>
       </c>
@@ -12999,7 +13004,7 @@
         <v>12/13</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="str">
         <v>Betty Dy</v>
       </c>
@@ -13007,7 +13012,7 @@
         <v>12/17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="str">
         <v>Lucia Dugliss</v>
       </c>
@@ -13015,7 +13020,7 @@
         <v>12/21</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="str">
         <v>Rita McEvoy</v>
       </c>
@@ -13038,17 +13043,17 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.07421875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.84375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.23046875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.3046875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.921875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.23046875" style="11"/>
+    <col min="1" max="1" width="13.09375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.234375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.90234375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.234375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="27" t="s">
         <v>1074</v>
       </c>
@@ -13065,7 +13070,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>625</v>
       </c>
@@ -13082,7 +13087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>748</v>
       </c>
@@ -13099,7 +13104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>634</v>
       </c>
@@ -13116,7 +13121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>637</v>
       </c>
@@ -13133,7 +13138,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
         <v>187</v>
       </c>
@@ -13150,7 +13155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>641</v>
       </c>
@@ -13167,7 +13172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>643</v>
       </c>
@@ -13184,7 +13189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>645</v>
       </c>
@@ -13201,7 +13206,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
         <v>647</v>
       </c>
@@ -13218,7 +13223,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
         <v>649</v>
       </c>
@@ -13235,7 +13240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>651</v>
       </c>
@@ -13252,7 +13257,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
         <v>723</v>
       </c>
@@ -13269,7 +13274,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
         <v>731</v>
       </c>
@@ -13286,7 +13291,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>726</v>
       </c>
@@ -13303,7 +13308,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
         <v>175</v>
       </c>
@@ -13320,7 +13325,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
         <v>1033</v>
       </c>
@@ -13337,7 +13342,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
         <v>654</v>
       </c>
@@ -13354,7 +13359,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
         <v>187</v>
       </c>
@@ -13371,7 +13376,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
         <v>728</v>
       </c>
@@ -13388,7 +13393,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>720</v>
       </c>
@@ -13405,7 +13410,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
         <v>657</v>
       </c>
@@ -13422,7 +13427,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11" t="s">
         <v>661</v>
       </c>
@@ -13439,7 +13444,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11" t="s">
         <v>662</v>
       </c>
@@ -13456,7 +13461,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="38" t="s">
         <v>1050</v>
       </c>
@@ -13473,7 +13478,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="38" t="s">
         <v>755</v>
       </c>
@@ -13490,7 +13495,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>664</v>
       </c>
@@ -13507,7 +13512,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11" t="s">
         <v>666</v>
       </c>
@@ -13524,7 +13529,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11" t="s">
         <v>755</v>
       </c>
@@ -13541,7 +13546,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11" t="s">
         <v>669</v>
       </c>
@@ -13558,7 +13563,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11" t="s">
         <v>671</v>
       </c>
@@ -13575,7 +13580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11" t="s">
         <v>1057</v>
       </c>
@@ -13592,7 +13597,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11" t="s">
         <v>1062</v>
       </c>
@@ -13609,7 +13614,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11" t="s">
         <v>672</v>
       </c>
@@ -13626,7 +13631,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11" t="s">
         <v>674</v>
       </c>
@@ -13643,7 +13648,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11" t="s">
         <v>1058</v>
       </c>
@@ -13660,7 +13665,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11" t="s">
         <v>223</v>
       </c>
@@ -13677,7 +13682,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11" t="s">
         <v>677</v>
       </c>
@@ -13694,7 +13699,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11" t="s">
         <v>679</v>
       </c>
@@ -13711,7 +13716,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11" t="s">
         <v>684</v>
       </c>
@@ -13728,7 +13733,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11" t="s">
         <v>649</v>
       </c>
@@ -13745,7 +13750,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11" t="s">
         <v>681</v>
       </c>
@@ -13762,7 +13767,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11" t="s">
         <v>193</v>
       </c>
@@ -13779,7 +13784,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11" t="s">
         <v>677</v>
       </c>
@@ -13796,7 +13801,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11" t="s">
         <v>687</v>
       </c>
@@ -13813,7 +13818,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11" t="s">
         <v>687</v>
       </c>
@@ -13830,7 +13835,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
         <v>691</v>
       </c>
@@ -13847,7 +13852,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11" t="s">
         <v>693</v>
       </c>
@@ -13864,7 +13869,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11" t="s">
         <v>695</v>
       </c>
@@ -13881,7 +13886,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11" t="s">
         <v>697</v>
       </c>
@@ -13898,7 +13903,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>698</v>
       </c>
@@ -13915,7 +13920,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11" t="s">
         <v>701</v>
       </c>
@@ -13932,7 +13937,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11" t="s">
         <v>1043</v>
       </c>
@@ -13949,7 +13954,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11" t="s">
         <v>687</v>
       </c>
@@ -13966,7 +13971,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11" t="s">
         <v>684</v>
       </c>
@@ -13983,7 +13988,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11" t="s">
         <v>706</v>
       </c>
@@ -14000,7 +14005,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11" t="s">
         <v>806</v>
       </c>
@@ -14017,7 +14022,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11" t="s">
         <v>710</v>
       </c>
@@ -14034,7 +14039,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11" t="s">
         <v>713</v>
       </c>
@@ -14051,7 +14056,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11" t="s">
         <v>718</v>
       </c>
@@ -14068,7 +14073,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11" t="s">
         <v>716</v>
       </c>
@@ -14085,7 +14090,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11" t="s">
         <v>755</v>
       </c>
@@ -14102,118 +14107,118 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D93" s="8"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" s="8"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D99" s="8"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" s="8"/>
     </row>
   </sheetData>
@@ -14295,14 +14300,14 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.765625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.53515625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="9.23046875" style="11"/>
+    <col min="1" max="1" width="18.76171875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.5234375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9.234375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -14310,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="48" t="s">
         <v>43</v>
       </c>
@@ -14318,7 +14323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="48" t="s">
         <v>58</v>
       </c>
@@ -14326,7 +14331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="48" t="s">
         <v>49</v>
       </c>
@@ -14334,7 +14339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="48" t="s">
         <v>64</v>
       </c>
@@ -14342,7 +14347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="48" t="s">
         <v>86</v>
       </c>
@@ -14350,7 +14355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="48" t="s">
         <v>86</v>
       </c>
@@ -14358,7 +14363,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="48" t="s">
         <v>95</v>
       </c>
@@ -14366,7 +14371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="48" t="s">
         <v>106</v>
       </c>
@@ -14374,7 +14379,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="48" t="s">
         <v>118</v>
       </c>
@@ -14382,7 +14387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="48" t="s">
         <v>129</v>
       </c>
@@ -14390,7 +14395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="48" t="s">
         <v>129</v>
       </c>
@@ -14398,7 +14403,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="48" t="s">
         <v>137</v>
       </c>
@@ -14406,7 +14411,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="48" t="s">
         <v>149</v>
       </c>
@@ -14414,7 +14419,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="48" t="s">
         <v>149</v>
       </c>
@@ -14422,7 +14427,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="48" t="s">
         <v>156</v>
       </c>
@@ -14430,7 +14435,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="48" t="s">
         <v>162</v>
       </c>
@@ -14438,7 +14443,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="48" t="s">
         <v>176</v>
       </c>
@@ -14446,7 +14451,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="48" t="s">
         <v>182</v>
       </c>
@@ -14454,7 +14459,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="48" t="s">
         <v>194</v>
       </c>
@@ -14462,7 +14467,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="48" t="s">
         <v>215</v>
       </c>
@@ -14470,7 +14475,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="48" t="s">
         <v>215</v>
       </c>
@@ -14478,7 +14483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="48" t="s">
         <v>224</v>
       </c>
@@ -14486,7 +14491,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="48" t="s">
         <v>233</v>
       </c>
@@ -14494,7 +14499,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="48" t="s">
         <v>239</v>
       </c>
@@ -14502,7 +14507,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="48" t="s">
         <v>244</v>
       </c>
@@ -14510,7 +14515,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="48" t="s">
         <v>279</v>
       </c>
@@ -14518,7 +14523,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="48" t="s">
         <v>291</v>
       </c>
@@ -14526,7 +14531,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="48" t="s">
         <v>307</v>
       </c>
@@ -14534,7 +14539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="48" t="s">
         <v>323</v>
       </c>
@@ -14542,7 +14547,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="48" t="s">
         <v>329</v>
       </c>
@@ -14550,7 +14555,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="48" t="s">
         <v>329</v>
       </c>
@@ -14558,7 +14563,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="48" t="s">
         <v>347</v>
       </c>
@@ -14566,7 +14571,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="48" t="s">
         <v>352</v>
       </c>
@@ -14574,7 +14579,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="48" t="s">
         <v>366</v>
       </c>
@@ -14582,7 +14587,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="48" t="s">
         <v>376</v>
       </c>
@@ -14590,7 +14595,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="48" t="s">
         <v>386</v>
       </c>
@@ -14605,25 +14610,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.61328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.4609375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.921875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.15234375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.4609375" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="11"/>
+    <col min="1" max="1" width="17.6171875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.47265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.47265625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.90234375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.47265625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.234375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>1074</v>
       </c>
@@ -14634,7 +14639,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>860</v>
       </c>
@@ -14645,7 +14650,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>868</v>
       </c>
@@ -14656,7 +14661,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>627</v>
       </c>
@@ -14667,7 +14672,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>739</v>
       </c>
@@ -14678,7 +14683,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
         <v>629</v>
       </c>
@@ -14689,7 +14694,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
         <v>1047</v>
       </c>
@@ -14700,7 +14705,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>632</v>
       </c>
@@ -14711,7 +14716,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>785</v>
       </c>
@@ -14722,7 +14727,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
         <v>1048</v>
       </c>
@@ -14733,7 +14738,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
         <v>832</v>
       </c>
@@ -14744,7 +14749,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>842</v>
       </c>
@@ -14755,7 +14760,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
         <v>755</v>
       </c>
@@ -14766,7 +14771,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
         <v>777</v>
       </c>
@@ -14777,7 +14782,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>728</v>
       </c>
@@ -14788,7 +14793,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
         <v>792</v>
       </c>
@@ -14799,7 +14804,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
         <v>629</v>
       </c>
@@ -14810,7 +14815,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
         <v>826</v>
       </c>
@@ -14821,7 +14826,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
         <v>829</v>
       </c>
@@ -14832,7 +14837,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
         <v>290</v>
       </c>
@@ -14843,7 +14848,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>835</v>
       </c>
@@ -14854,7 +14859,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
         <v>883</v>
       </c>
@@ -14865,7 +14870,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11" t="s">
         <v>1005</v>
       </c>
@@ -14876,7 +14881,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11" t="s">
         <v>768</v>
       </c>
@@ -14887,7 +14892,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11" t="s">
         <v>817</v>
       </c>
@@ -14898,7 +14903,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11" t="s">
         <v>845</v>
       </c>
@@ -14909,7 +14914,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>774</v>
       </c>
@@ -14920,7 +14925,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11" t="s">
         <v>813</v>
       </c>
@@ -14931,7 +14936,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11" t="s">
         <v>851</v>
       </c>
@@ -14942,7 +14947,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11" t="s">
         <v>389</v>
       </c>
@@ -14953,7 +14958,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11" t="s">
         <v>782</v>
       </c>
@@ -14964,7 +14969,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11" t="s">
         <v>795</v>
       </c>
@@ -14975,7 +14980,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11" t="s">
         <v>795</v>
       </c>
@@ -14986,7 +14991,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11" t="s">
         <v>780</v>
       </c>
@@ -14997,7 +15002,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11" t="s">
         <v>765</v>
       </c>
@@ -15008,7 +15013,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11" t="s">
         <v>803</v>
       </c>
@@ -15019,7 +15024,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11" t="s">
         <v>760</v>
       </c>
@@ -15030,7 +15035,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11" t="s">
         <v>748</v>
       </c>
@@ -15041,7 +15046,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11" t="s">
         <v>745</v>
       </c>
@@ -15052,7 +15057,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11" t="s">
         <v>865</v>
       </c>
@@ -15063,7 +15068,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11" t="s">
         <v>880</v>
       </c>
@@ -15074,7 +15079,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11" t="s">
         <v>672</v>
       </c>
@@ -15085,7 +15090,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11" t="s">
         <v>651</v>
       </c>
@@ -15096,7 +15101,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11" t="s">
         <v>629</v>
       </c>
@@ -15107,7 +15112,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11" t="s">
         <v>848</v>
       </c>
@@ -15118,7 +15123,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11" t="s">
         <v>811</v>
       </c>
@@ -15129,7 +15134,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
         <v>886</v>
       </c>
@@ -15140,7 +15145,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11" t="s">
         <v>755</v>
       </c>
@@ -15151,7 +15156,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11" t="s">
         <v>815</v>
       </c>
@@ -15162,7 +15167,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11" t="s">
         <v>9</v>
       </c>
@@ -15173,7 +15178,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>771</v>
       </c>
@@ -15184,7 +15189,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11" t="s">
         <v>806</v>
       </c>
@@ -15195,7 +15200,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11" t="s">
         <v>840</v>
       </c>
@@ -15206,7 +15211,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11" t="s">
         <v>627</v>
       </c>
@@ -15217,7 +15222,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11" t="s">
         <v>878</v>
       </c>
@@ -15228,7 +15233,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11" t="s">
         <v>755</v>
       </c>
@@ -15239,7 +15244,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11" t="s">
         <v>133</v>
       </c>
@@ -15250,7 +15255,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11" t="s">
         <v>837</v>
       </c>
@@ -15261,7 +15266,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11" t="s">
         <v>817</v>
       </c>
@@ -15272,7 +15277,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11" t="s">
         <v>873</v>
       </c>
@@ -15283,7 +15288,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11" t="s">
         <v>798</v>
       </c>
@@ -15294,7 +15299,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11" t="s">
         <v>857</v>
       </c>
@@ -15305,7 +15310,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11" t="s">
         <v>1000</v>
       </c>
@@ -15316,7 +15321,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11" t="s">
         <v>787</v>
       </c>
@@ -15327,7 +15332,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11" t="s">
         <v>790</v>
       </c>
@@ -15338,7 +15343,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11" t="s">
         <v>728</v>
       </c>
@@ -15349,7 +15354,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11" t="s">
         <v>854</v>
       </c>
@@ -15360,7 +15365,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11" t="s">
         <v>734</v>
       </c>
@@ -15371,7 +15376,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11" t="s">
         <v>823</v>
       </c>
@@ -15382,7 +15387,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11" t="s">
         <v>1078</v>
       </c>
@@ -15393,7 +15398,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11" t="s">
         <v>1063</v>
       </c>
@@ -15404,7 +15409,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11" t="s">
         <v>1069</v>
       </c>
@@ -15415,7 +15420,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11" t="s">
         <v>1064</v>
       </c>
@@ -15426,7 +15431,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11" t="s">
         <v>1066</v>
       </c>
@@ -15435,6 +15440,17 @@
       </c>
       <c r="C74" s="11" t="s">
         <v>1080</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -15458,16 +15474,16 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.4609375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.15234375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.921875" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="11"/>
+    <col min="1" max="1" width="11.47265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.90234375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.90234375" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.234375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>1074</v>
       </c>
@@ -15481,7 +15497,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>902</v>
       </c>
@@ -15495,7 +15511,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>892</v>
       </c>
@@ -15509,7 +15525,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>748</v>
       </c>
@@ -15523,7 +15539,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>829</v>
       </c>
@@ -15537,7 +15553,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
         <v>873</v>
       </c>
@@ -15551,7 +15567,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>915</v>
       </c>
@@ -15565,7 +15581,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>918</v>
       </c>
@@ -15579,7 +15595,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>48</v>
       </c>
@@ -15593,7 +15609,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
         <v>923</v>
       </c>
@@ -15607,7 +15623,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
         <v>926</v>
       </c>
@@ -15621,7 +15637,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>929</v>
       </c>
@@ -15635,7 +15651,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
         <v>755</v>
       </c>
@@ -15649,7 +15665,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
         <v>934</v>
       </c>
@@ -15663,7 +15679,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>936</v>
       </c>
@@ -15677,7 +15693,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
         <v>128</v>
       </c>
@@ -15691,7 +15707,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
         <v>941</v>
       </c>
@@ -15705,7 +15721,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
         <v>907</v>
       </c>
@@ -15719,7 +15735,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
         <v>944</v>
       </c>
@@ -15733,7 +15749,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
         <v>947</v>
       </c>
@@ -15747,7 +15763,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>950</v>
       </c>
@@ -15761,7 +15777,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
         <v>1045</v>
       </c>
@@ -15775,7 +15791,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11" t="s">
         <v>953</v>
       </c>
@@ -15789,7 +15805,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11" t="s">
         <v>351</v>
       </c>
@@ -15803,7 +15819,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11" t="s">
         <v>958</v>
       </c>
@@ -15817,7 +15833,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11" t="s">
         <v>964</v>
       </c>
@@ -15831,7 +15847,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>967</v>
       </c>
@@ -15845,12 +15861,12 @@
         <v>895</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="13" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11" t="s">
         <v>651</v>
       </c>
@@ -15864,7 +15880,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11" t="s">
         <v>899</v>
       </c>
@@ -15878,7 +15894,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11" t="s">
         <v>910</v>
       </c>
@@ -15892,7 +15908,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11" t="s">
         <v>961</v>
       </c>
@@ -15927,17 +15943,17 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="14.4609375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="35.4609375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="14.234375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="14.47265625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="35.47265625" style="44" customWidth="1"/>
     <col min="4" max="4" width="38" style="44" customWidth="1"/>
-    <col min="5" max="5" width="15.07421875" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="9.23046875" style="44"/>
+    <col min="5" max="5" width="15.09375" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9.234375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="45" t="s">
         <v>1074</v>
       </c>
@@ -15948,7 +15964,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="44" t="s">
         <v>9</v>
       </c>
@@ -15959,7 +15975,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="44" t="s">
         <v>978</v>
       </c>
@@ -15970,7 +15986,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="44" t="s">
         <v>629</v>
       </c>
@@ -15981,7 +15997,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="44" t="s">
         <v>981</v>
       </c>
@@ -15992,7 +16008,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="44" t="s">
         <v>899</v>
       </c>
@@ -16003,7 +16019,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="44" t="s">
         <v>815</v>
       </c>
@@ -16014,7 +16030,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="44" t="s">
         <v>133</v>
       </c>
@@ -16025,7 +16041,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="44" t="s">
         <v>974</v>
       </c>
@@ -16036,7 +16052,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="44" t="s">
         <v>974</v>
       </c>
@@ -16047,7 +16063,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="44" t="s">
         <v>992</v>
       </c>
@@ -16058,7 +16074,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="44" t="s">
         <v>647</v>
       </c>
@@ -16069,7 +16085,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="44" t="s">
         <v>1044</v>
       </c>
@@ -16077,12 +16093,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="45" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="44" t="s">
         <v>637</v>
       </c>
@@ -16093,7 +16109,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="44" t="s">
         <v>992</v>
       </c>
@@ -16104,7 +16120,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="44" t="s">
         <v>755</v>
       </c>
@@ -16115,7 +16131,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="44" t="s">
         <v>997</v>
       </c>
@@ -16144,18 +16160,18 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.15234375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.07421875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.90234375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.09375" style="11" customWidth="1"/>
     <col min="4" max="4" width="19" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.53515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.765625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="11"/>
+    <col min="5" max="5" width="16.5234375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.76171875" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.234375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>1074</v>
       </c>
@@ -16172,7 +16188,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
@@ -16183,7 +16199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>1087</v>
       </c>
@@ -16197,7 +16213,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -16214,7 +16230,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>1084</v>
       </c>
@@ -16231,7 +16247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>1090</v>
       </c>
@@ -16242,7 +16258,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>

--- a/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/2025-03-heritage-resident-directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/03-march-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="937" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6B93285-DEEC-468A-9B75-F839068EF26D}"/>
+  <xr:revisionPtr revIDLastSave="952" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B57A1DC0-E244-4D48-8B93-E7D51C47509A}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1182">
   <si>
     <t>First Name</t>
   </si>
@@ -3397,6 +3397,225 @@
   </si>
   <si>
     <t>patudor4@gmail.com</t>
+  </si>
+  <si>
+    <t>Patrick Alexander</t>
+  </si>
+  <si>
+    <t>Carmelita Arburua</t>
+  </si>
+  <si>
+    <t>Theo Armour</t>
+  </si>
+  <si>
+    <t>Martha Nell Beatty</t>
+  </si>
+  <si>
+    <t>Yvonne Benedict</t>
+  </si>
+  <si>
+    <t>Bob Bledsoe</t>
+  </si>
+  <si>
+    <t>Pam Bledsoe</t>
+  </si>
+  <si>
+    <t>Eleanor Bissell</t>
+  </si>
+  <si>
+    <t>Katherine Conley</t>
+  </si>
+  <si>
+    <t>Erika Coughlan</t>
+  </si>
+  <si>
+    <t>Betty Dowell</t>
+  </si>
+  <si>
+    <t>Lucia Dugliss</t>
+  </si>
+  <si>
+    <t>Rod Dugliss</t>
+  </si>
+  <si>
+    <t>Betty Dy</t>
+  </si>
+  <si>
+    <t>Shirley Ertola</t>
+  </si>
+  <si>
+    <t>Pamela Fischer</t>
+  </si>
+  <si>
+    <t>June Fraps</t>
+  </si>
+  <si>
+    <t>Gene Graham</t>
+  </si>
+  <si>
+    <t>Bob Granucci</t>
+  </si>
+  <si>
+    <t>Cooby Greenway</t>
+  </si>
+  <si>
+    <t>Linda Hanley</t>
+  </si>
+  <si>
+    <t>Tony Hanley</t>
+  </si>
+  <si>
+    <t>Mary Liz Harris</t>
+  </si>
+  <si>
+    <t>Dr Doris Howard</t>
+  </si>
+  <si>
+    <t>Charmly Ingham</t>
+  </si>
+  <si>
+    <t>Tucker Ingham</t>
+  </si>
+  <si>
+    <t>Michele Jackson</t>
+  </si>
+  <si>
+    <t>Margaret Jacobs</t>
+  </si>
+  <si>
+    <t>Margaret Johnson</t>
+  </si>
+  <si>
+    <t>Liz Jonson</t>
+  </si>
+  <si>
+    <t>Elizabeth Jordan</t>
+  </si>
+  <si>
+    <t>Monique Kaufman</t>
+  </si>
+  <si>
+    <t>Tom King</t>
+  </si>
+  <si>
+    <t>Kathy Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Gloria Learned</t>
+  </si>
+  <si>
+    <t>Ivy Lee</t>
+  </si>
+  <si>
+    <t>Enid Leff</t>
+  </si>
+  <si>
+    <t>Karl Leichum</t>
+  </si>
+  <si>
+    <t>Lillemor Leichum</t>
+  </si>
+  <si>
+    <t>Katie Loo</t>
+  </si>
+  <si>
+    <t>Jay Ludwig</t>
+  </si>
+  <si>
+    <t>Sisi Luopajarvi</t>
+  </si>
+  <si>
+    <t>Midge Mansouri</t>
+  </si>
+  <si>
+    <t>Rita McEvoy</t>
+  </si>
+  <si>
+    <t>Gerry Miller</t>
+  </si>
+  <si>
+    <t>Margaret Missiaen</t>
+  </si>
+  <si>
+    <t>Sheila Moore</t>
+  </si>
+  <si>
+    <t>Anne Morris</t>
+  </si>
+  <si>
+    <t>Atilio "Til" Mossi</t>
+  </si>
+  <si>
+    <t>Terry Moughan</t>
+  </si>
+  <si>
+    <t>Candy  Naughton</t>
+  </si>
+  <si>
+    <t>Jim Naughton</t>
+  </si>
+  <si>
+    <t>Liz Nolan</t>
+  </si>
+  <si>
+    <t>Marty Nolan</t>
+  </si>
+  <si>
+    <t>Nancy Ozsogomonyan</t>
+  </si>
+  <si>
+    <t>Maureen Perron</t>
+  </si>
+  <si>
+    <t>Genevieve Plusa</t>
+  </si>
+  <si>
+    <t>Patrick Rush</t>
+  </si>
+  <si>
+    <t>Ernie Sabini</t>
+  </si>
+  <si>
+    <t>Linda Sharp</t>
+  </si>
+  <si>
+    <t>Gary Skootsky</t>
+  </si>
+  <si>
+    <t>Kristine Skootsky</t>
+  </si>
+  <si>
+    <t>Jane Standing</t>
+  </si>
+  <si>
+    <t>Val Szigeti</t>
+  </si>
+  <si>
+    <t>Kay Tim</t>
+  </si>
+  <si>
+    <t>Martha Torres</t>
+  </si>
+  <si>
+    <t>Nancy Trogman</t>
+  </si>
+  <si>
+    <t>Mercedes Van Den Berg</t>
+  </si>
+  <si>
+    <t>Stela Voyles</t>
+  </si>
+  <si>
+    <t>Marion Wake</t>
+  </si>
+  <si>
+    <t>Fred Wentker</t>
+  </si>
+  <si>
+    <t>Jo Ann Wentker</t>
+  </si>
+  <si>
+    <t>Shirley Yawitz</t>
   </si>
 </sst>
 </file>
@@ -3784,7 +4003,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4050,6 +4283,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4255,24 +4492,24 @@
   <dimension ref="A1:I1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="17"/>
-    <col min="2" max="2" width="12.37890625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.47265625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.47265625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.47265625" style="39" customWidth="1"/>
-    <col min="7" max="8" width="10.47265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="11.140625" style="17"/>
+    <col min="1" max="1" width="11.15234375" style="17"/>
+    <col min="2" max="2" width="12.3828125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.4609375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="26.4609375" style="39" customWidth="1"/>
+    <col min="7" max="8" width="10.4609375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="7.15234375" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="11.15234375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1074</v>
       </c>
@@ -4301,7 +4538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -4355,7 +4592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -4382,7 +4619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>36</v>
       </c>
@@ -4405,7 +4642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -4428,7 +4665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
@@ -4452,7 +4689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>55</v>
       </c>
@@ -4478,7 +4715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>57</v>
       </c>
@@ -4505,7 +4742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>63</v>
       </c>
@@ -4530,7 +4767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>75</v>
       </c>
@@ -4553,7 +4790,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -4577,7 +4814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>85</v>
       </c>
@@ -4604,7 +4841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>91</v>
       </c>
@@ -4631,7 +4868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>80</v>
       </c>
@@ -4658,7 +4895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>100</v>
       </c>
@@ -4681,7 +4918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>105</v>
       </c>
@@ -4704,7 +4941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>111</v>
       </c>
@@ -4730,7 +4967,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>117</v>
       </c>
@@ -4757,7 +4994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>48</v>
       </c>
@@ -4784,7 +5021,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>1014</v>
       </c>
@@ -4809,7 +5046,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>128</v>
       </c>
@@ -4832,7 +5069,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>133</v>
       </c>
@@ -4859,7 +5096,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>136</v>
       </c>
@@ -4888,7 +5125,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>142</v>
       </c>
@@ -4917,7 +5154,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>148</v>
       </c>
@@ -4939,7 +5176,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>153</v>
       </c>
@@ -4965,7 +5202,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>155</v>
       </c>
@@ -4990,7 +5227,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>161</v>
       </c>
@@ -5017,7 +5254,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>161</v>
       </c>
@@ -5044,7 +5281,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>171</v>
       </c>
@@ -5066,7 +5303,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>175</v>
       </c>
@@ -5093,7 +5330,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>181</v>
       </c>
@@ -5116,7 +5353,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>187</v>
       </c>
@@ -5139,7 +5376,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>193</v>
       </c>
@@ -5162,7 +5399,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>198</v>
       </c>
@@ -5189,7 +5426,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>204</v>
       </c>
@@ -5212,7 +5449,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>209</v>
       </c>
@@ -5235,7 +5472,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>214</v>
       </c>
@@ -5258,7 +5495,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>220</v>
       </c>
@@ -5285,7 +5522,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>223</v>
       </c>
@@ -5310,7 +5547,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>229</v>
       </c>
@@ -5336,7 +5573,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>1049</v>
       </c>
@@ -5361,7 +5598,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>238</v>
       </c>
@@ -5388,7 +5625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>243</v>
       </c>
@@ -5411,7 +5648,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>248</v>
       </c>
@@ -5432,7 +5669,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>161</v>
       </c>
@@ -5455,7 +5692,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>258</v>
       </c>
@@ -5478,7 +5715,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>263</v>
       </c>
@@ -5503,7 +5740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>269</v>
       </c>
@@ -5529,7 +5766,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>274</v>
       </c>
@@ -5550,7 +5787,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>1095</v>
       </c>
@@ -5570,7 +5807,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>848</v>
       </c>
@@ -5590,7 +5827,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>171</v>
       </c>
@@ -5619,7 +5856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>287</v>
       </c>
@@ -5644,7 +5881,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>290</v>
       </c>
@@ -5667,7 +5904,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>296</v>
       </c>
@@ -5690,7 +5927,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>302</v>
       </c>
@@ -5714,7 +5951,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>9</v>
       </c>
@@ -5740,7 +5977,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>313</v>
       </c>
@@ -5766,7 +6003,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>128</v>
       </c>
@@ -5791,7 +6028,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>328</v>
       </c>
@@ -5818,7 +6055,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>333</v>
       </c>
@@ -5843,7 +6080,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
         <v>337</v>
       </c>
@@ -5869,7 +6106,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>343</v>
       </c>
@@ -5893,7 +6130,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>278</v>
       </c>
@@ -5918,7 +6155,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>351</v>
       </c>
@@ -5941,7 +6178,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>290</v>
       </c>
@@ -5964,7 +6201,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>360</v>
       </c>
@@ -5987,7 +6224,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>365</v>
       </c>
@@ -6010,7 +6247,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>370</v>
       </c>
@@ -6034,7 +6271,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>375</v>
       </c>
@@ -6061,7 +6298,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>382</v>
       </c>
@@ -6086,7 +6323,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>100</v>
       </c>
@@ -6111,7 +6348,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -6119,2796 +6356,2796 @@
       <c r="H75" s="3"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="81" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="82" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="83" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="84" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="85" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="86" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="87" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="88" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="89" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="90" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="91" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="92" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="93" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="94" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="95" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="96" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="97" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="98" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="99" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="100" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="101" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="102" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="103" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="104" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="105" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="106" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="107" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="108" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="109" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="110" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="111" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="112" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="113" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="114" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="115" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="116" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="117" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="118" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="119" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="120" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="121" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="122" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="123" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="124" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="125" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="126" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="127" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="128" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="129" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="130" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="131" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="132" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="133" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="134" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="135" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="136" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="137" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="138" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="139" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="140" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="141" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="142" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="143" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="144" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="145" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="146" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="147" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="148" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="149" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="150" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="151" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="152" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="153" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="154" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="155" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="156" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="157" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="158" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="159" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="160" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="161" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="162" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="163" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="164" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="165" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="166" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="167" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="168" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="169" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="170" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="171" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="172" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="173" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="174" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="175" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="176" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="177" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="178" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="179" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="180" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="181" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="182" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="183" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="184" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="185" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="186" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="187" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="188" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="189" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="190" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="191" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="192" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="193" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="194" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="195" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="196" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="197" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="198" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="199" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="200" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="201" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="202" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="203" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="204" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="205" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="206" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="207" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="208" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="209" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="210" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="211" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="212" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="213" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="214" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="215" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="216" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="217" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I217" s="2"/>
     </row>
-    <row r="218" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="218" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="219" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="220" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="221" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="222" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="223" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="224" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="225" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I225" s="2"/>
     </row>
-    <row r="226" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="226" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="227" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I227" s="2"/>
     </row>
-    <row r="228" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="228" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="229" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="230" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="231" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="232" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="233" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="234" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="235" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="236" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="237" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="238" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="239" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="240" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="241" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="242" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="243" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="244" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="245" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="246" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="247" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="248" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="249" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="250" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="251" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="252" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I252" s="2"/>
     </row>
-    <row r="253" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="253" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I253" s="2"/>
     </row>
-    <row r="254" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="254" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I254" s="2"/>
     </row>
-    <row r="255" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="255" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I255" s="2"/>
     </row>
-    <row r="256" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="256" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I256" s="2"/>
     </row>
-    <row r="257" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="257" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I257" s="2"/>
     </row>
-    <row r="258" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="258" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I258" s="2"/>
     </row>
-    <row r="259" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="259" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I259" s="2"/>
     </row>
-    <row r="260" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="260" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I260" s="2"/>
     </row>
-    <row r="261" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="261" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I261" s="2"/>
     </row>
-    <row r="262" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="262" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I262" s="2"/>
     </row>
-    <row r="263" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="263" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I263" s="2"/>
     </row>
-    <row r="264" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="264" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I264" s="2"/>
     </row>
-    <row r="265" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="265" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I265" s="2"/>
     </row>
-    <row r="266" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="266" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I266" s="2"/>
     </row>
-    <row r="267" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="267" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I267" s="2"/>
     </row>
-    <row r="268" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="268" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I268" s="2"/>
     </row>
-    <row r="269" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="269" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I269" s="2"/>
     </row>
-    <row r="270" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="270" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I270" s="2"/>
     </row>
-    <row r="271" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="271" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I271" s="2"/>
     </row>
-    <row r="272" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="272" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I272" s="2"/>
     </row>
-    <row r="273" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="273" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I273" s="2"/>
     </row>
-    <row r="274" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="274" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I274" s="2"/>
     </row>
-    <row r="275" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="275" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I275" s="2"/>
     </row>
-    <row r="276" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="276" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I276" s="2"/>
     </row>
-    <row r="277" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="277" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I277" s="2"/>
     </row>
-    <row r="278" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="278" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I278" s="2"/>
     </row>
-    <row r="279" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="279" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I279" s="2"/>
     </row>
-    <row r="280" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="280" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I280" s="2"/>
     </row>
-    <row r="281" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="281" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I281" s="2"/>
     </row>
-    <row r="282" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="282" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I282" s="2"/>
     </row>
-    <row r="283" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="283" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I283" s="2"/>
     </row>
-    <row r="284" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="284" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I284" s="2"/>
     </row>
-    <row r="285" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="285" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I285" s="2"/>
     </row>
-    <row r="286" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="286" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I286" s="2"/>
     </row>
-    <row r="287" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="287" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="288" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I288" s="2"/>
     </row>
-    <row r="289" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="289" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I289" s="2"/>
     </row>
-    <row r="290" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="290" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I290" s="2"/>
     </row>
-    <row r="291" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="291" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I291" s="2"/>
     </row>
-    <row r="292" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="292" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I292" s="2"/>
     </row>
-    <row r="293" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="293" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I293" s="2"/>
     </row>
-    <row r="294" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="294" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I294" s="2"/>
     </row>
-    <row r="295" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="295" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I295" s="2"/>
     </row>
-    <row r="296" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="296" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I296" s="2"/>
     </row>
-    <row r="297" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="297" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I297" s="2"/>
     </row>
-    <row r="298" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="298" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I298" s="2"/>
     </row>
-    <row r="299" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="299" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I299" s="2"/>
     </row>
-    <row r="300" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="300" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I300" s="2"/>
     </row>
-    <row r="301" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="301" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I301" s="2"/>
     </row>
-    <row r="302" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="302" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I302" s="2"/>
     </row>
-    <row r="303" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="303" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I303" s="2"/>
     </row>
-    <row r="304" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="304" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I304" s="2"/>
     </row>
-    <row r="305" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="305" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I305" s="2"/>
     </row>
-    <row r="306" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="306" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I306" s="2"/>
     </row>
-    <row r="307" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="307" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I307" s="2"/>
     </row>
-    <row r="308" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="308" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I308" s="2"/>
     </row>
-    <row r="309" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="309" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I309" s="2"/>
     </row>
-    <row r="310" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="310" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I310" s="2"/>
     </row>
-    <row r="311" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="311" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I311" s="2"/>
     </row>
-    <row r="312" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="312" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="313" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I313" s="2"/>
     </row>
-    <row r="314" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="314" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I314" s="2"/>
     </row>
-    <row r="315" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="315" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I315" s="2"/>
     </row>
-    <row r="316" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="316" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I316" s="2"/>
     </row>
-    <row r="317" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="317" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I317" s="2"/>
     </row>
-    <row r="318" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="318" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I318" s="2"/>
     </row>
-    <row r="319" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="319" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I319" s="2"/>
     </row>
-    <row r="320" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="320" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I320" s="2"/>
     </row>
-    <row r="321" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="321" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="322" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I322" s="2"/>
     </row>
-    <row r="323" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="323" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I323" s="2"/>
     </row>
-    <row r="324" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="324" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I324" s="2"/>
     </row>
-    <row r="325" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="325" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I325" s="2"/>
     </row>
-    <row r="326" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="326" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I326" s="2"/>
     </row>
-    <row r="327" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="327" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I327" s="2"/>
     </row>
-    <row r="328" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="328" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I328" s="2"/>
     </row>
-    <row r="329" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="329" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I329" s="2"/>
     </row>
-    <row r="330" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="330" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I330" s="2"/>
     </row>
-    <row r="331" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="331" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I331" s="2"/>
     </row>
-    <row r="332" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="332" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I332" s="2"/>
     </row>
-    <row r="333" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="333" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I333" s="2"/>
     </row>
-    <row r="334" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="334" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I334" s="2"/>
     </row>
-    <row r="335" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="335" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I335" s="2"/>
     </row>
-    <row r="336" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="336" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I336" s="2"/>
     </row>
-    <row r="337" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="337" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I337" s="2"/>
     </row>
-    <row r="338" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="338" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I338" s="2"/>
     </row>
-    <row r="339" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="339" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I339" s="2"/>
     </row>
-    <row r="340" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="340" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I340" s="2"/>
     </row>
-    <row r="341" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="341" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I341" s="2"/>
     </row>
-    <row r="342" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="342" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I342" s="2"/>
     </row>
-    <row r="343" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="343" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I343" s="2"/>
     </row>
-    <row r="344" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="344" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I344" s="2"/>
     </row>
-    <row r="345" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="345" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I345" s="2"/>
     </row>
-    <row r="346" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="346" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I346" s="2"/>
     </row>
-    <row r="347" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="347" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I347" s="2"/>
     </row>
-    <row r="348" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="348" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I348" s="2"/>
     </row>
-    <row r="349" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="349" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I349" s="2"/>
     </row>
-    <row r="350" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="350" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I350" s="2"/>
     </row>
-    <row r="351" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="351" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I351" s="2"/>
     </row>
-    <row r="352" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="352" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I352" s="2"/>
     </row>
-    <row r="353" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="353" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I353" s="2"/>
     </row>
-    <row r="354" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="354" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I354" s="2"/>
     </row>
-    <row r="355" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="355" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I355" s="2"/>
     </row>
-    <row r="356" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="356" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I356" s="2"/>
     </row>
-    <row r="357" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="357" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I357" s="2"/>
     </row>
-    <row r="358" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="358" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I358" s="2"/>
     </row>
-    <row r="359" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="359" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I359" s="2"/>
     </row>
-    <row r="360" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="360" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I360" s="2"/>
     </row>
-    <row r="361" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="361" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I361" s="2"/>
     </row>
-    <row r="362" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="362" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I362" s="2"/>
     </row>
-    <row r="363" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="363" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I363" s="2"/>
     </row>
-    <row r="364" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="364" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I364" s="2"/>
     </row>
-    <row r="365" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="365" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I365" s="2"/>
     </row>
-    <row r="366" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="366" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I366" s="2"/>
     </row>
-    <row r="367" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="367" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I367" s="2"/>
     </row>
-    <row r="368" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="368" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I368" s="2"/>
     </row>
-    <row r="369" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="369" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I369" s="2"/>
     </row>
-    <row r="370" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="370" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I370" s="2"/>
     </row>
-    <row r="371" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="371" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I371" s="2"/>
     </row>
-    <row r="372" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="372" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I372" s="2"/>
     </row>
-    <row r="373" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="373" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I373" s="2"/>
     </row>
-    <row r="374" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="374" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I374" s="2"/>
     </row>
-    <row r="375" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="375" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I375" s="2"/>
     </row>
-    <row r="376" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="376" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I376" s="2"/>
     </row>
-    <row r="377" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="377" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I377" s="2"/>
     </row>
-    <row r="378" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="378" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I378" s="2"/>
     </row>
-    <row r="379" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="379" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I379" s="2"/>
     </row>
-    <row r="380" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="380" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I380" s="2"/>
     </row>
-    <row r="381" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="381" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I381" s="2"/>
     </row>
-    <row r="382" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="382" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I382" s="2"/>
     </row>
-    <row r="383" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="383" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I383" s="2"/>
     </row>
-    <row r="384" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="384" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I384" s="2"/>
     </row>
-    <row r="385" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="385" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I385" s="2"/>
     </row>
-    <row r="386" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="386" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I386" s="2"/>
     </row>
-    <row r="387" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="387" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I387" s="2"/>
     </row>
-    <row r="388" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="388" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I388" s="2"/>
     </row>
-    <row r="389" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="389" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I389" s="2"/>
     </row>
-    <row r="390" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="390" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I390" s="2"/>
     </row>
-    <row r="391" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="391" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I391" s="2"/>
     </row>
-    <row r="392" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="392" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I392" s="2"/>
     </row>
-    <row r="393" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="393" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I393" s="2"/>
     </row>
-    <row r="394" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="394" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I394" s="2"/>
     </row>
-    <row r="395" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="395" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I395" s="2"/>
     </row>
-    <row r="396" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="396" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I396" s="2"/>
     </row>
-    <row r="397" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="397" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I397" s="2"/>
     </row>
-    <row r="398" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="398" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I398" s="2"/>
     </row>
-    <row r="399" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="399" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I399" s="2"/>
     </row>
-    <row r="400" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="400" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I400" s="2"/>
     </row>
-    <row r="401" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="401" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I401" s="2"/>
     </row>
-    <row r="402" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="402" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I402" s="2"/>
     </row>
-    <row r="403" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="403" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I403" s="2"/>
     </row>
-    <row r="404" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="404" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I404" s="2"/>
     </row>
-    <row r="405" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="405" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I405" s="2"/>
     </row>
-    <row r="406" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="406" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I406" s="2"/>
     </row>
-    <row r="407" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="407" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I407" s="2"/>
     </row>
-    <row r="408" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="408" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I408" s="2"/>
     </row>
-    <row r="409" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="409" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I409" s="2"/>
     </row>
-    <row r="410" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="410" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I410" s="2"/>
     </row>
-    <row r="411" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="411" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I411" s="2"/>
     </row>
-    <row r="412" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="412" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I412" s="2"/>
     </row>
-    <row r="413" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="413" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I413" s="2"/>
     </row>
-    <row r="414" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="414" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I414" s="2"/>
     </row>
-    <row r="415" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="415" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I415" s="2"/>
     </row>
-    <row r="416" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="416" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I416" s="2"/>
     </row>
-    <row r="417" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="417" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I417" s="2"/>
     </row>
-    <row r="418" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="418" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I418" s="2"/>
     </row>
-    <row r="419" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="419" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I419" s="2"/>
     </row>
-    <row r="420" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="420" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I420" s="2"/>
     </row>
-    <row r="421" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="421" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I421" s="2"/>
     </row>
-    <row r="422" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="422" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I422" s="2"/>
     </row>
-    <row r="423" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="423" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I423" s="2"/>
     </row>
-    <row r="424" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="424" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I424" s="2"/>
     </row>
-    <row r="425" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="425" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I425" s="2"/>
     </row>
-    <row r="426" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="426" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I426" s="2"/>
     </row>
-    <row r="427" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="427" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I427" s="2"/>
     </row>
-    <row r="428" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="428" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I428" s="2"/>
     </row>
-    <row r="429" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="429" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I429" s="2"/>
     </row>
-    <row r="430" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="430" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I430" s="2"/>
     </row>
-    <row r="431" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="431" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I431" s="2"/>
     </row>
-    <row r="432" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="432" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I432" s="2"/>
     </row>
-    <row r="433" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="433" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I433" s="2"/>
     </row>
-    <row r="434" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="434" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I434" s="2"/>
     </row>
-    <row r="435" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="435" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I435" s="2"/>
     </row>
-    <row r="436" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="436" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I436" s="2"/>
     </row>
-    <row r="437" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="437" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I437" s="2"/>
     </row>
-    <row r="438" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="438" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I438" s="2"/>
     </row>
-    <row r="439" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="439" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I439" s="2"/>
     </row>
-    <row r="440" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="440" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I440" s="2"/>
     </row>
-    <row r="441" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="441" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I441" s="2"/>
     </row>
-    <row r="442" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="442" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I442" s="2"/>
     </row>
-    <row r="443" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="443" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I443" s="2"/>
     </row>
-    <row r="444" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="444" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I444" s="2"/>
     </row>
-    <row r="445" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="445" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I445" s="2"/>
     </row>
-    <row r="446" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="446" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I446" s="2"/>
     </row>
-    <row r="447" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="447" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I447" s="2"/>
     </row>
-    <row r="448" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="448" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I448" s="2"/>
     </row>
-    <row r="449" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="449" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I449" s="2"/>
     </row>
-    <row r="450" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="450" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I450" s="2"/>
     </row>
-    <row r="451" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="451" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I451" s="2"/>
     </row>
-    <row r="452" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="452" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I452" s="2"/>
     </row>
-    <row r="453" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="453" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I453" s="2"/>
     </row>
-    <row r="454" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="454" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I454" s="2"/>
     </row>
-    <row r="455" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="455" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I455" s="2"/>
     </row>
-    <row r="456" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="456" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I456" s="2"/>
     </row>
-    <row r="457" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="457" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I457" s="2"/>
     </row>
-    <row r="458" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="458" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I458" s="2"/>
     </row>
-    <row r="459" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="459" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I459" s="2"/>
     </row>
-    <row r="460" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="460" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I460" s="2"/>
     </row>
-    <row r="461" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="461" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I461" s="2"/>
     </row>
-    <row r="462" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="462" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I462" s="2"/>
     </row>
-    <row r="463" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="463" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I463" s="2"/>
     </row>
-    <row r="464" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="464" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I464" s="2"/>
     </row>
-    <row r="465" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="465" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I465" s="2"/>
     </row>
-    <row r="466" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="466" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I466" s="2"/>
     </row>
-    <row r="467" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="467" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I467" s="2"/>
     </row>
-    <row r="468" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="468" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I468" s="2"/>
     </row>
-    <row r="469" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="469" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I469" s="2"/>
     </row>
-    <row r="470" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="470" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I470" s="2"/>
     </row>
-    <row r="471" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="471" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I471" s="2"/>
     </row>
-    <row r="472" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="472" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I472" s="2"/>
     </row>
-    <row r="473" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="473" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I473" s="2"/>
     </row>
-    <row r="474" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="474" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I474" s="2"/>
     </row>
-    <row r="475" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="475" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I475" s="2"/>
     </row>
-    <row r="476" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="476" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I476" s="2"/>
     </row>
-    <row r="477" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="477" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I477" s="2"/>
     </row>
-    <row r="478" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="478" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I478" s="2"/>
     </row>
-    <row r="479" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="479" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I479" s="2"/>
     </row>
-    <row r="480" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="480" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I480" s="2"/>
     </row>
-    <row r="481" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="481" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I481" s="2"/>
     </row>
-    <row r="482" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="482" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I482" s="2"/>
     </row>
-    <row r="483" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="483" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I483" s="2"/>
     </row>
-    <row r="484" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="484" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I484" s="2"/>
     </row>
-    <row r="485" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="485" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I485" s="2"/>
     </row>
-    <row r="486" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="486" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I486" s="2"/>
     </row>
-    <row r="487" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="487" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I487" s="2"/>
     </row>
-    <row r="488" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="488" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I488" s="2"/>
     </row>
-    <row r="489" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="489" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I489" s="2"/>
     </row>
-    <row r="490" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="490" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I490" s="2"/>
     </row>
-    <row r="491" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="491" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I491" s="2"/>
     </row>
-    <row r="492" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="492" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I492" s="2"/>
     </row>
-    <row r="493" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="493" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I493" s="2"/>
     </row>
-    <row r="494" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="494" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I494" s="2"/>
     </row>
-    <row r="495" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="495" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I495" s="2"/>
     </row>
-    <row r="496" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="496" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I496" s="2"/>
     </row>
-    <row r="497" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="497" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I497" s="2"/>
     </row>
-    <row r="498" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="498" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I498" s="2"/>
     </row>
-    <row r="499" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="499" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I499" s="2"/>
     </row>
-    <row r="500" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="500" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I500" s="2"/>
     </row>
-    <row r="501" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="501" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I501" s="2"/>
     </row>
-    <row r="502" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="502" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I502" s="2"/>
     </row>
-    <row r="503" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="503" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I503" s="2"/>
     </row>
-    <row r="504" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="504" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I504" s="2"/>
     </row>
-    <row r="505" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="505" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I505" s="2"/>
     </row>
-    <row r="506" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="506" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I506" s="2"/>
     </row>
-    <row r="507" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="507" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I507" s="2"/>
     </row>
-    <row r="508" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="508" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I508" s="2"/>
     </row>
-    <row r="509" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="509" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I509" s="2"/>
     </row>
-    <row r="510" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="510" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I510" s="2"/>
     </row>
-    <row r="511" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="511" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I511" s="2"/>
     </row>
-    <row r="512" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="512" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I512" s="2"/>
     </row>
-    <row r="513" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="513" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I513" s="2"/>
     </row>
-    <row r="514" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="514" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I514" s="2"/>
     </row>
-    <row r="515" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="515" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I515" s="2"/>
     </row>
-    <row r="516" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="516" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I516" s="2"/>
     </row>
-    <row r="517" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="517" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I517" s="2"/>
     </row>
-    <row r="518" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="518" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I518" s="2"/>
     </row>
-    <row r="519" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="519" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I519" s="2"/>
     </row>
-    <row r="520" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="520" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I520" s="2"/>
     </row>
-    <row r="521" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="521" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I521" s="2"/>
     </row>
-    <row r="522" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="522" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I522" s="2"/>
     </row>
-    <row r="523" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="523" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I523" s="2"/>
     </row>
-    <row r="524" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="524" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I524" s="2"/>
     </row>
-    <row r="525" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="525" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I525" s="2"/>
     </row>
-    <row r="526" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="526" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I526" s="2"/>
     </row>
-    <row r="527" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="527" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I527" s="2"/>
     </row>
-    <row r="528" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="528" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I528" s="2"/>
     </row>
-    <row r="529" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="529" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I529" s="2"/>
     </row>
-    <row r="530" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="530" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I530" s="2"/>
     </row>
-    <row r="531" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="531" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I531" s="2"/>
     </row>
-    <row r="532" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="532" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I532" s="2"/>
     </row>
-    <row r="533" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="533" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I533" s="2"/>
     </row>
-    <row r="534" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="534" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I534" s="2"/>
     </row>
-    <row r="535" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="535" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I535" s="2"/>
     </row>
-    <row r="536" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="536" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I536" s="2"/>
     </row>
-    <row r="537" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="537" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I537" s="2"/>
     </row>
-    <row r="538" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="538" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I538" s="2"/>
     </row>
-    <row r="539" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="539" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I539" s="2"/>
     </row>
-    <row r="540" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="540" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I540" s="2"/>
     </row>
-    <row r="541" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="541" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I541" s="2"/>
     </row>
-    <row r="542" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="542" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I542" s="2"/>
     </row>
-    <row r="543" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="543" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I543" s="2"/>
     </row>
-    <row r="544" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="544" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I544" s="2"/>
     </row>
-    <row r="545" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="545" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I545" s="2"/>
     </row>
-    <row r="546" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="546" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I546" s="2"/>
     </row>
-    <row r="547" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="547" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I547" s="2"/>
     </row>
-    <row r="548" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="548" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I548" s="2"/>
     </row>
-    <row r="549" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="549" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I549" s="2"/>
     </row>
-    <row r="550" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="550" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I550" s="2"/>
     </row>
-    <row r="551" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="551" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I551" s="2"/>
     </row>
-    <row r="552" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="552" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I552" s="2"/>
     </row>
-    <row r="553" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="553" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I553" s="2"/>
     </row>
-    <row r="554" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="554" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I554" s="2"/>
     </row>
-    <row r="555" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="555" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I555" s="2"/>
     </row>
-    <row r="556" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="556" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I556" s="2"/>
     </row>
-    <row r="557" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="557" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I557" s="2"/>
     </row>
-    <row r="558" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="558" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I558" s="2"/>
     </row>
-    <row r="559" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="559" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I559" s="2"/>
     </row>
-    <row r="560" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="560" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I560" s="2"/>
     </row>
-    <row r="561" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="561" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I561" s="2"/>
     </row>
-    <row r="562" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="562" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I562" s="2"/>
     </row>
-    <row r="563" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="563" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I563" s="2"/>
     </row>
-    <row r="564" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="564" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I564" s="2"/>
     </row>
-    <row r="565" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="565" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I565" s="2"/>
     </row>
-    <row r="566" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="566" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I566" s="2"/>
     </row>
-    <row r="567" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="567" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I567" s="2"/>
     </row>
-    <row r="568" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="568" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I568" s="2"/>
     </row>
-    <row r="569" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="569" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I569" s="2"/>
     </row>
-    <row r="570" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="570" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I570" s="2"/>
     </row>
-    <row r="571" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="571" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I571" s="2"/>
     </row>
-    <row r="572" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="572" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I572" s="2"/>
     </row>
-    <row r="573" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="573" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I573" s="2"/>
     </row>
-    <row r="574" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="574" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I574" s="2"/>
     </row>
-    <row r="575" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="575" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I575" s="2"/>
     </row>
-    <row r="576" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="576" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I576" s="2"/>
     </row>
-    <row r="577" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="577" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I577" s="2"/>
     </row>
-    <row r="578" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="578" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I578" s="2"/>
     </row>
-    <row r="579" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="579" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I579" s="2"/>
     </row>
-    <row r="580" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="580" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I580" s="2"/>
     </row>
-    <row r="581" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="581" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I581" s="2"/>
     </row>
-    <row r="582" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="582" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I582" s="2"/>
     </row>
-    <row r="583" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="583" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I583" s="2"/>
     </row>
-    <row r="584" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="584" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I584" s="2"/>
     </row>
-    <row r="585" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="585" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I585" s="2"/>
     </row>
-    <row r="586" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="586" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I586" s="2"/>
     </row>
-    <row r="587" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="587" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I587" s="2"/>
     </row>
-    <row r="588" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="588" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I588" s="2"/>
     </row>
-    <row r="589" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="589" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I589" s="2"/>
     </row>
-    <row r="590" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="590" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I590" s="2"/>
     </row>
-    <row r="591" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="591" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I591" s="2"/>
     </row>
-    <row r="592" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="592" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I592" s="2"/>
     </row>
-    <row r="593" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="593" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I593" s="2"/>
     </row>
-    <row r="594" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="594" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I594" s="2"/>
     </row>
-    <row r="595" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="595" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I595" s="2"/>
     </row>
-    <row r="596" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="596" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I596" s="2"/>
     </row>
-    <row r="597" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="597" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I597" s="2"/>
     </row>
-    <row r="598" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="598" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I598" s="2"/>
     </row>
-    <row r="599" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="599" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I599" s="2"/>
     </row>
-    <row r="600" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="600" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I600" s="2"/>
     </row>
-    <row r="601" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="601" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I601" s="2"/>
     </row>
-    <row r="602" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="602" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I602" s="2"/>
     </row>
-    <row r="603" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="603" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I603" s="2"/>
     </row>
-    <row r="604" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="604" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I604" s="2"/>
     </row>
-    <row r="605" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="605" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I605" s="2"/>
     </row>
-    <row r="606" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="606" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I606" s="2"/>
     </row>
-    <row r="607" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="607" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I607" s="2"/>
     </row>
-    <row r="608" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="608" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I608" s="2"/>
     </row>
-    <row r="609" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="609" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I609" s="2"/>
     </row>
-    <row r="610" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="610" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I610" s="2"/>
     </row>
-    <row r="611" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="611" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I611" s="2"/>
     </row>
-    <row r="612" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="612" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I612" s="2"/>
     </row>
-    <row r="613" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="613" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I613" s="2"/>
     </row>
-    <row r="614" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="614" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I614" s="2"/>
     </row>
-    <row r="615" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="615" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I615" s="2"/>
     </row>
-    <row r="616" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="616" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I616" s="2"/>
     </row>
-    <row r="617" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="617" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I617" s="2"/>
     </row>
-    <row r="618" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="618" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I618" s="2"/>
     </row>
-    <row r="619" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="619" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I619" s="2"/>
     </row>
-    <row r="620" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="620" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I620" s="2"/>
     </row>
-    <row r="621" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="621" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I621" s="2"/>
     </row>
-    <row r="622" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="622" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I622" s="2"/>
     </row>
-    <row r="623" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="623" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I623" s="2"/>
     </row>
-    <row r="624" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="624" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I624" s="2"/>
     </row>
-    <row r="625" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="625" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I625" s="2"/>
     </row>
-    <row r="626" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="626" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I626" s="2"/>
     </row>
-    <row r="627" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="627" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I627" s="2"/>
     </row>
-    <row r="628" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="628" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I628" s="2"/>
     </row>
-    <row r="629" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="629" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I629" s="2"/>
     </row>
-    <row r="630" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="630" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I630" s="2"/>
     </row>
-    <row r="631" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="631" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I631" s="2"/>
     </row>
-    <row r="632" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="632" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I632" s="2"/>
     </row>
-    <row r="633" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="633" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I633" s="2"/>
     </row>
-    <row r="634" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="634" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I634" s="2"/>
     </row>
-    <row r="635" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="635" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I635" s="2"/>
     </row>
-    <row r="636" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="636" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I636" s="2"/>
     </row>
-    <row r="637" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="637" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I637" s="2"/>
     </row>
-    <row r="638" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="638" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I638" s="2"/>
     </row>
-    <row r="639" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="639" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I639" s="2"/>
     </row>
-    <row r="640" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="640" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I640" s="2"/>
     </row>
-    <row r="641" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="641" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I641" s="2"/>
     </row>
-    <row r="642" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="642" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I642" s="2"/>
     </row>
-    <row r="643" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="643" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I643" s="2"/>
     </row>
-    <row r="644" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="644" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I644" s="2"/>
     </row>
-    <row r="645" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="645" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I645" s="2"/>
     </row>
-    <row r="646" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="646" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I646" s="2"/>
     </row>
-    <row r="647" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="647" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I647" s="2"/>
     </row>
-    <row r="648" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="648" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I648" s="2"/>
     </row>
-    <row r="649" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="649" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I649" s="2"/>
     </row>
-    <row r="650" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="650" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I650" s="2"/>
     </row>
-    <row r="651" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="651" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I651" s="2"/>
     </row>
-    <row r="652" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="652" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I652" s="2"/>
     </row>
-    <row r="653" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="653" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I653" s="2"/>
     </row>
-    <row r="654" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="654" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I654" s="2"/>
     </row>
-    <row r="655" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="655" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I655" s="2"/>
     </row>
-    <row r="656" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="656" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I656" s="2"/>
     </row>
-    <row r="657" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="657" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I657" s="2"/>
     </row>
-    <row r="658" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="658" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I658" s="2"/>
     </row>
-    <row r="659" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="659" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I659" s="2"/>
     </row>
-    <row r="660" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="660" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I660" s="2"/>
     </row>
-    <row r="661" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="661" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I661" s="2"/>
     </row>
-    <row r="662" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="662" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I662" s="2"/>
     </row>
-    <row r="663" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="663" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I663" s="2"/>
     </row>
-    <row r="664" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="664" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I664" s="2"/>
     </row>
-    <row r="665" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="665" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I665" s="2"/>
     </row>
-    <row r="666" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="666" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I666" s="2"/>
     </row>
-    <row r="667" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="667" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I667" s="2"/>
     </row>
-    <row r="668" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="668" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I668" s="2"/>
     </row>
-    <row r="669" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="669" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I669" s="2"/>
     </row>
-    <row r="670" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="670" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I670" s="2"/>
     </row>
-    <row r="671" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="671" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I671" s="2"/>
     </row>
-    <row r="672" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="672" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I672" s="2"/>
     </row>
-    <row r="673" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="673" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I673" s="2"/>
     </row>
-    <row r="674" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="674" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I674" s="2"/>
     </row>
-    <row r="675" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="675" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I675" s="2"/>
     </row>
-    <row r="676" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="676" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I676" s="2"/>
     </row>
-    <row r="677" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="677" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I677" s="2"/>
     </row>
-    <row r="678" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="678" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I678" s="2"/>
     </row>
-    <row r="679" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="679" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I679" s="2"/>
     </row>
-    <row r="680" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="680" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I680" s="2"/>
     </row>
-    <row r="681" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="681" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I681" s="2"/>
     </row>
-    <row r="682" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="682" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I682" s="2"/>
     </row>
-    <row r="683" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="683" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I683" s="2"/>
     </row>
-    <row r="684" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="684" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I684" s="2"/>
     </row>
-    <row r="685" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="685" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I685" s="2"/>
     </row>
-    <row r="686" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="686" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I686" s="2"/>
     </row>
-    <row r="687" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="687" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I687" s="2"/>
     </row>
-    <row r="688" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="688" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I688" s="2"/>
     </row>
-    <row r="689" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="689" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I689" s="2"/>
     </row>
-    <row r="690" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="690" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I690" s="2"/>
     </row>
-    <row r="691" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="691" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I691" s="2"/>
     </row>
-    <row r="692" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="692" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I692" s="2"/>
     </row>
-    <row r="693" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="693" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I693" s="2"/>
     </row>
-    <row r="694" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="694" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I694" s="2"/>
     </row>
-    <row r="695" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="695" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I695" s="2"/>
     </row>
-    <row r="696" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="696" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I696" s="2"/>
     </row>
-    <row r="697" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="697" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I697" s="2"/>
     </row>
-    <row r="698" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="698" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I698" s="2"/>
     </row>
-    <row r="699" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="699" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I699" s="2"/>
     </row>
-    <row r="700" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="700" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I700" s="2"/>
     </row>
-    <row r="701" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="701" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I701" s="2"/>
     </row>
-    <row r="702" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="702" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I702" s="2"/>
     </row>
-    <row r="703" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="703" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I703" s="2"/>
     </row>
-    <row r="704" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="704" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I704" s="2"/>
     </row>
-    <row r="705" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="705" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I705" s="2"/>
     </row>
-    <row r="706" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="706" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I706" s="2"/>
     </row>
-    <row r="707" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="707" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I707" s="2"/>
     </row>
-    <row r="708" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="708" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I708" s="2"/>
     </row>
-    <row r="709" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="709" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I709" s="2"/>
     </row>
-    <row r="710" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="710" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I710" s="2"/>
     </row>
-    <row r="711" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="711" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I711" s="2"/>
     </row>
-    <row r="712" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="712" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I712" s="2"/>
     </row>
-    <row r="713" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="713" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I713" s="2"/>
     </row>
-    <row r="714" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="714" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I714" s="2"/>
     </row>
-    <row r="715" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="715" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I715" s="2"/>
     </row>
-    <row r="716" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="716" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I716" s="2"/>
     </row>
-    <row r="717" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="717" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I717" s="2"/>
     </row>
-    <row r="718" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="718" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I718" s="2"/>
     </row>
-    <row r="719" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="719" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I719" s="2"/>
     </row>
-    <row r="720" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="720" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I720" s="2"/>
     </row>
-    <row r="721" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="721" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I721" s="2"/>
     </row>
-    <row r="722" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="722" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I722" s="2"/>
     </row>
-    <row r="723" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="723" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I723" s="2"/>
     </row>
-    <row r="724" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="724" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I724" s="2"/>
     </row>
-    <row r="725" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="725" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I725" s="2"/>
     </row>
-    <row r="726" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="726" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I726" s="2"/>
     </row>
-    <row r="727" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="727" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I727" s="2"/>
     </row>
-    <row r="728" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="728" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I728" s="2"/>
     </row>
-    <row r="729" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="729" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I729" s="2"/>
     </row>
-    <row r="730" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="730" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I730" s="2"/>
     </row>
-    <row r="731" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="731" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I731" s="2"/>
     </row>
-    <row r="732" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="732" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I732" s="2"/>
     </row>
-    <row r="733" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="733" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I733" s="2"/>
     </row>
-    <row r="734" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="734" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I734" s="2"/>
     </row>
-    <row r="735" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="735" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I735" s="2"/>
     </row>
-    <row r="736" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="736" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I736" s="2"/>
     </row>
-    <row r="737" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="737" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I737" s="2"/>
     </row>
-    <row r="738" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="738" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I738" s="2"/>
     </row>
-    <row r="739" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="739" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I739" s="2"/>
     </row>
-    <row r="740" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="740" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I740" s="2"/>
     </row>
-    <row r="741" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="741" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I741" s="2"/>
     </row>
-    <row r="742" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="742" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I742" s="2"/>
     </row>
-    <row r="743" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="743" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I743" s="2"/>
     </row>
-    <row r="744" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="744" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I744" s="2"/>
     </row>
-    <row r="745" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="745" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I745" s="2"/>
     </row>
-    <row r="746" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="746" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I746" s="2"/>
     </row>
-    <row r="747" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="747" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I747" s="2"/>
     </row>
-    <row r="748" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="748" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I748" s="2"/>
     </row>
-    <row r="749" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="749" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I749" s="2"/>
     </row>
-    <row r="750" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="750" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I750" s="2"/>
     </row>
-    <row r="751" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="751" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I751" s="2"/>
     </row>
-    <row r="752" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="752" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I752" s="2"/>
     </row>
-    <row r="753" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="753" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I753" s="2"/>
     </row>
-    <row r="754" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="754" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I754" s="2"/>
     </row>
-    <row r="755" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="755" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I755" s="2"/>
     </row>
-    <row r="756" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="756" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I756" s="2"/>
     </row>
-    <row r="757" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="757" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I757" s="2"/>
     </row>
-    <row r="758" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="758" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I758" s="2"/>
     </row>
-    <row r="759" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="759" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I759" s="2"/>
     </row>
-    <row r="760" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="760" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I760" s="2"/>
     </row>
-    <row r="761" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="761" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I761" s="2"/>
     </row>
-    <row r="762" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="762" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I762" s="2"/>
     </row>
-    <row r="763" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="763" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I763" s="2"/>
     </row>
-    <row r="764" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="764" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I764" s="2"/>
     </row>
-    <row r="765" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="765" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I765" s="2"/>
     </row>
-    <row r="766" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="766" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I766" s="2"/>
     </row>
-    <row r="767" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="767" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I767" s="2"/>
     </row>
-    <row r="768" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="768" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I768" s="2"/>
     </row>
-    <row r="769" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="769" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I769" s="2"/>
     </row>
-    <row r="770" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="770" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I770" s="2"/>
     </row>
-    <row r="771" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="771" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I771" s="2"/>
     </row>
-    <row r="772" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="772" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I772" s="2"/>
     </row>
-    <row r="773" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="773" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I773" s="2"/>
     </row>
-    <row r="774" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="774" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I774" s="2"/>
     </row>
-    <row r="775" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="775" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I775" s="2"/>
     </row>
-    <row r="776" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="776" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I776" s="2"/>
     </row>
-    <row r="777" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="777" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I777" s="2"/>
     </row>
-    <row r="778" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="778" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I778" s="2"/>
     </row>
-    <row r="779" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="779" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I779" s="2"/>
     </row>
-    <row r="780" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="780" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I780" s="2"/>
     </row>
-    <row r="781" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="781" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I781" s="2"/>
     </row>
-    <row r="782" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="782" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I782" s="2"/>
     </row>
-    <row r="783" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="783" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I783" s="2"/>
     </row>
-    <row r="784" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="784" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I784" s="2"/>
     </row>
-    <row r="785" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="785" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I785" s="2"/>
     </row>
-    <row r="786" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="786" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I786" s="2"/>
     </row>
-    <row r="787" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="787" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I787" s="2"/>
     </row>
-    <row r="788" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="788" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I788" s="2"/>
     </row>
-    <row r="789" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="789" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I789" s="2"/>
     </row>
-    <row r="790" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="790" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I790" s="2"/>
     </row>
-    <row r="791" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="791" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I791" s="2"/>
     </row>
-    <row r="792" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="792" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I792" s="2"/>
     </row>
-    <row r="793" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="793" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I793" s="2"/>
     </row>
-    <row r="794" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="794" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I794" s="2"/>
     </row>
-    <row r="795" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="795" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I795" s="2"/>
     </row>
-    <row r="796" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="796" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I796" s="2"/>
     </row>
-    <row r="797" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="797" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I797" s="2"/>
     </row>
-    <row r="798" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="798" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I798" s="2"/>
     </row>
-    <row r="799" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="799" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I799" s="2"/>
     </row>
-    <row r="800" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="800" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I800" s="2"/>
     </row>
-    <row r="801" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="801" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I801" s="2"/>
     </row>
-    <row r="802" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="802" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I802" s="2"/>
     </row>
-    <row r="803" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="803" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I803" s="2"/>
     </row>
-    <row r="804" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="804" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I804" s="2"/>
     </row>
-    <row r="805" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="805" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I805" s="2"/>
     </row>
-    <row r="806" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="806" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I806" s="2"/>
     </row>
-    <row r="807" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="807" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I807" s="2"/>
     </row>
-    <row r="808" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="808" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I808" s="2"/>
     </row>
-    <row r="809" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="809" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I809" s="2"/>
     </row>
-    <row r="810" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="810" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I810" s="2"/>
     </row>
-    <row r="811" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="811" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I811" s="2"/>
     </row>
-    <row r="812" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="812" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I812" s="2"/>
     </row>
-    <row r="813" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="813" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I813" s="2"/>
     </row>
-    <row r="814" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="814" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I814" s="2"/>
     </row>
-    <row r="815" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="815" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I815" s="2"/>
     </row>
-    <row r="816" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="816" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I816" s="2"/>
     </row>
-    <row r="817" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="817" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I817" s="2"/>
     </row>
-    <row r="818" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="818" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I818" s="2"/>
     </row>
-    <row r="819" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="819" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I819" s="2"/>
     </row>
-    <row r="820" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="820" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I820" s="2"/>
     </row>
-    <row r="821" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="821" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I821" s="2"/>
     </row>
-    <row r="822" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="822" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I822" s="2"/>
     </row>
-    <row r="823" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="823" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I823" s="2"/>
     </row>
-    <row r="824" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="824" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I824" s="2"/>
     </row>
-    <row r="825" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="825" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I825" s="2"/>
     </row>
-    <row r="826" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="826" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I826" s="2"/>
     </row>
-    <row r="827" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="827" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I827" s="2"/>
     </row>
-    <row r="828" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="828" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I828" s="2"/>
     </row>
-    <row r="829" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="829" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I829" s="2"/>
     </row>
-    <row r="830" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="830" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I830" s="2"/>
     </row>
-    <row r="831" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="831" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I831" s="2"/>
     </row>
-    <row r="832" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="832" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I832" s="2"/>
     </row>
-    <row r="833" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="833" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I833" s="2"/>
     </row>
-    <row r="834" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="834" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I834" s="2"/>
     </row>
-    <row r="835" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="835" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I835" s="2"/>
     </row>
-    <row r="836" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="836" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I836" s="2"/>
     </row>
-    <row r="837" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="837" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I837" s="2"/>
     </row>
-    <row r="838" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="838" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I838" s="2"/>
     </row>
-    <row r="839" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="839" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I839" s="2"/>
     </row>
-    <row r="840" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="840" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I840" s="2"/>
     </row>
-    <row r="841" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="841" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I841" s="2"/>
     </row>
-    <row r="842" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="842" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I842" s="2"/>
     </row>
-    <row r="843" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="843" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I843" s="2"/>
     </row>
-    <row r="844" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="844" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I844" s="2"/>
     </row>
-    <row r="845" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="845" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I845" s="2"/>
     </row>
-    <row r="846" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="846" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I846" s="2"/>
     </row>
-    <row r="847" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="847" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I847" s="2"/>
     </row>
-    <row r="848" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="848" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I848" s="2"/>
     </row>
-    <row r="849" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="849" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I849" s="2"/>
     </row>
-    <row r="850" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="850" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I850" s="2"/>
     </row>
-    <row r="851" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="851" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I851" s="2"/>
     </row>
-    <row r="852" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="852" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I852" s="2"/>
     </row>
-    <row r="853" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="853" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I853" s="2"/>
     </row>
-    <row r="854" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="854" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I854" s="2"/>
     </row>
-    <row r="855" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="855" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I855" s="2"/>
     </row>
-    <row r="856" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="856" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I856" s="2"/>
     </row>
-    <row r="857" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="857" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I857" s="2"/>
     </row>
-    <row r="858" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="858" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I858" s="2"/>
     </row>
-    <row r="859" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="859" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I859" s="2"/>
     </row>
-    <row r="860" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="860" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I860" s="2"/>
     </row>
-    <row r="861" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="861" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I861" s="2"/>
     </row>
-    <row r="862" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="862" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I862" s="2"/>
     </row>
-    <row r="863" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="863" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I863" s="2"/>
     </row>
-    <row r="864" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="864" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I864" s="2"/>
     </row>
-    <row r="865" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="865" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I865" s="2"/>
     </row>
-    <row r="866" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="866" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I866" s="2"/>
     </row>
-    <row r="867" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="867" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I867" s="2"/>
     </row>
-    <row r="868" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="868" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I868" s="2"/>
     </row>
-    <row r="869" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="869" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I869" s="2"/>
     </row>
-    <row r="870" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="870" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I870" s="2"/>
     </row>
-    <row r="871" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="871" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I871" s="2"/>
     </row>
-    <row r="872" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="872" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I872" s="2"/>
     </row>
-    <row r="873" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="873" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I873" s="2"/>
     </row>
-    <row r="874" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="874" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I874" s="2"/>
     </row>
-    <row r="875" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="875" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I875" s="2"/>
     </row>
-    <row r="876" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="876" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I876" s="2"/>
     </row>
-    <row r="877" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="877" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I877" s="2"/>
     </row>
-    <row r="878" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="878" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I878" s="2"/>
     </row>
-    <row r="879" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="879" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I879" s="2"/>
     </row>
-    <row r="880" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="880" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I880" s="2"/>
     </row>
-    <row r="881" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="881" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I881" s="2"/>
     </row>
-    <row r="882" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="882" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I882" s="2"/>
     </row>
-    <row r="883" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="883" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I883" s="2"/>
     </row>
-    <row r="884" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="884" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I884" s="2"/>
     </row>
-    <row r="885" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="885" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I885" s="2"/>
     </row>
-    <row r="886" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="886" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I886" s="2"/>
     </row>
-    <row r="887" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="887" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I887" s="2"/>
     </row>
-    <row r="888" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="888" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I888" s="2"/>
     </row>
-    <row r="889" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="889" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I889" s="2"/>
     </row>
-    <row r="890" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="890" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I890" s="2"/>
     </row>
-    <row r="891" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="891" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I891" s="2"/>
     </row>
-    <row r="892" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="892" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I892" s="2"/>
     </row>
-    <row r="893" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="893" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I893" s="2"/>
     </row>
-    <row r="894" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="894" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I894" s="2"/>
     </row>
-    <row r="895" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="895" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I895" s="2"/>
     </row>
-    <row r="896" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="896" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I896" s="2"/>
     </row>
-    <row r="897" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="897" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I897" s="2"/>
     </row>
-    <row r="898" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="898" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I898" s="2"/>
     </row>
-    <row r="899" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="899" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I899" s="2"/>
     </row>
-    <row r="900" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="900" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I900" s="2"/>
     </row>
-    <row r="901" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="901" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I901" s="2"/>
     </row>
-    <row r="902" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="902" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I902" s="2"/>
     </row>
-    <row r="903" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="903" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I903" s="2"/>
     </row>
-    <row r="904" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="904" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I904" s="2"/>
     </row>
-    <row r="905" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="905" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I905" s="2"/>
     </row>
-    <row r="906" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="906" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I906" s="2"/>
     </row>
-    <row r="907" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="907" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I907" s="2"/>
     </row>
-    <row r="908" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="908" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I908" s="2"/>
     </row>
-    <row r="909" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="909" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I909" s="2"/>
     </row>
-    <row r="910" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="910" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I910" s="2"/>
     </row>
-    <row r="911" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="911" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I911" s="2"/>
     </row>
-    <row r="912" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="912" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I912" s="2"/>
     </row>
-    <row r="913" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="913" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I913" s="2"/>
     </row>
-    <row r="914" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="914" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I914" s="2"/>
     </row>
-    <row r="915" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="915" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I915" s="2"/>
     </row>
-    <row r="916" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="916" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I916" s="2"/>
     </row>
-    <row r="917" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="917" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I917" s="2"/>
     </row>
-    <row r="918" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="918" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I918" s="2"/>
     </row>
-    <row r="919" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="919" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I919" s="2"/>
     </row>
-    <row r="920" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="920" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I920" s="2"/>
     </row>
-    <row r="921" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="921" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I921" s="2"/>
     </row>
-    <row r="922" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="922" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I922" s="2"/>
     </row>
-    <row r="923" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="923" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I923" s="2"/>
     </row>
-    <row r="924" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="924" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I924" s="2"/>
     </row>
-    <row r="925" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="925" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I925" s="2"/>
     </row>
-    <row r="926" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="926" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I926" s="2"/>
     </row>
-    <row r="927" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="927" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I927" s="2"/>
     </row>
-    <row r="928" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="928" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I928" s="2"/>
     </row>
-    <row r="929" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="929" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I929" s="2"/>
     </row>
-    <row r="930" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="930" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I930" s="2"/>
     </row>
-    <row r="931" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="931" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I931" s="2"/>
     </row>
-    <row r="932" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="932" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I932" s="2"/>
     </row>
-    <row r="933" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="933" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I933" s="2"/>
     </row>
-    <row r="934" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="934" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I934" s="2"/>
     </row>
-    <row r="935" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="935" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I935" s="2"/>
     </row>
-    <row r="936" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="936" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I936" s="2"/>
     </row>
-    <row r="937" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="937" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I937" s="2"/>
     </row>
-    <row r="938" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="938" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I938" s="2"/>
     </row>
-    <row r="939" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="939" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I939" s="2"/>
     </row>
-    <row r="940" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="940" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I940" s="2"/>
     </row>
-    <row r="941" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="941" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I941" s="2"/>
     </row>
-    <row r="942" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="942" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I942" s="2"/>
     </row>
-    <row r="943" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="943" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I943" s="2"/>
     </row>
-    <row r="944" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="944" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I944" s="2"/>
     </row>
-    <row r="945" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="945" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I945" s="2"/>
     </row>
-    <row r="946" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="946" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I946" s="2"/>
     </row>
-    <row r="947" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="947" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I947" s="2"/>
     </row>
-    <row r="948" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="948" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I948" s="2"/>
     </row>
-    <row r="949" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="949" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I949" s="2"/>
     </row>
-    <row r="950" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="950" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I950" s="2"/>
     </row>
-    <row r="951" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="951" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I951" s="2"/>
     </row>
-    <row r="952" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="952" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I952" s="2"/>
     </row>
-    <row r="953" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="953" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I953" s="2"/>
     </row>
-    <row r="954" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="954" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I954" s="2"/>
     </row>
-    <row r="955" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="955" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I955" s="2"/>
     </row>
-    <row r="956" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="956" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I956" s="2"/>
     </row>
-    <row r="957" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="957" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I957" s="2"/>
     </row>
-    <row r="958" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="958" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I958" s="2"/>
     </row>
-    <row r="959" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="959" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I959" s="2"/>
     </row>
-    <row r="960" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="960" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I960" s="2"/>
     </row>
-    <row r="961" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="961" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I961" s="2"/>
     </row>
-    <row r="962" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="962" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I962" s="2"/>
     </row>
-    <row r="963" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="963" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I963" s="2"/>
     </row>
-    <row r="964" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="964" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I964" s="2"/>
     </row>
-    <row r="965" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="965" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I965" s="2"/>
     </row>
-    <row r="966" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="966" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I966" s="2"/>
     </row>
-    <row r="967" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="967" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I967" s="2"/>
     </row>
-    <row r="968" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="968" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I968" s="2"/>
     </row>
-    <row r="969" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="969" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I969" s="2"/>
     </row>
-    <row r="970" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="970" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I970" s="2"/>
     </row>
-    <row r="971" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="971" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I971" s="2"/>
     </row>
-    <row r="972" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="972" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I972" s="2"/>
     </row>
-    <row r="973" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="973" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I973" s="2"/>
     </row>
-    <row r="974" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="974" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I974" s="2"/>
     </row>
-    <row r="975" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="975" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I975" s="2"/>
     </row>
-    <row r="976" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="976" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I976" s="2"/>
     </row>
-    <row r="977" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="977" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I977" s="2"/>
     </row>
-    <row r="978" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="978" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I978" s="2"/>
     </row>
-    <row r="979" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="979" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I979" s="2"/>
     </row>
-    <row r="980" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="980" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I980" s="2"/>
     </row>
-    <row r="981" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="981" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I981" s="2"/>
     </row>
-    <row r="982" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="982" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I982" s="2"/>
     </row>
-    <row r="983" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="983" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I983" s="2"/>
     </row>
-    <row r="984" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="984" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I984" s="2"/>
     </row>
-    <row r="985" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="985" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I985" s="2"/>
     </row>
-    <row r="986" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="986" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I986" s="2"/>
     </row>
-    <row r="987" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="987" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I987" s="2"/>
     </row>
-    <row r="988" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="988" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I988" s="2"/>
     </row>
-    <row r="989" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="989" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I989" s="2"/>
     </row>
-    <row r="990" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="990" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I990" s="2"/>
     </row>
-    <row r="991" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="991" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I991" s="2"/>
     </row>
-    <row r="992" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="992" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I992" s="2"/>
     </row>
-    <row r="993" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="993" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I993" s="2"/>
     </row>
-    <row r="994" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="994" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I994" s="2"/>
     </row>
-    <row r="995" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="995" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I995" s="2"/>
     </row>
-    <row r="996" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="996" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I996" s="2"/>
     </row>
-    <row r="997" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="997" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I997" s="2"/>
     </row>
-    <row r="998" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="998" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I998" s="2"/>
     </row>
-    <row r="999" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="999" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I999" s="2"/>
     </row>
-    <row r="1000" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1000" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I1000" s="2"/>
     </row>
-    <row r="1001" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1001" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I1001" s="2"/>
     </row>
-    <row r="1002" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1002" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I1002" s="2"/>
     </row>
-    <row r="1003" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1003" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I1003" s="2"/>
     </row>
-    <row r="1004" spans="9:9" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1004" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="I1004" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AA2 C3:H6 I3:AA17 C7:D8 F7:H8 C9:H10 C11:E11 G11:H11 C12:H17 C18:AA51 D52:E53 C54:AA75">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8937,16 +9174,16 @@
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.47265625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.47265625" customWidth="1"/>
-    <col min="8" max="8" width="8.234375" customWidth="1"/>
+    <col min="1" max="2" width="21.15234375" customWidth="1"/>
+    <col min="4" max="4" width="13.4609375" customWidth="1"/>
+    <col min="5" max="5" width="12.84375" customWidth="1"/>
+    <col min="6" max="6" width="21.4609375" customWidth="1"/>
+    <col min="8" max="8" width="8.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
@@ -8973,7 +9210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1075</v>
       </c>
@@ -8993,7 +9230,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>493</v>
       </c>
@@ -9023,7 +9260,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>497</v>
       </c>
@@ -9042,7 +9279,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>500</v>
       </c>
@@ -9066,7 +9303,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>505</v>
       </c>
@@ -9093,7 +9330,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>509</v>
       </c>
@@ -9123,7 +9360,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
@@ -9150,7 +9387,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>519</v>
       </c>
@@ -9177,7 +9414,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>523</v>
       </c>
@@ -9200,7 +9437,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>69</v>
       </c>
@@ -9225,7 +9462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>528</v>
       </c>
@@ -9250,7 +9487,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>533</v>
       </c>
@@ -9275,7 +9512,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>537</v>
       </c>
@@ -9304,7 +9541,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>542</v>
       </c>
@@ -9322,7 +9559,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>546</v>
       </c>
@@ -9344,7 +9581,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>549</v>
       </c>
@@ -9367,7 +9604,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>554</v>
       </c>
@@ -9397,13 +9634,13 @@
         <v>559</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>561</v>
       </c>
@@ -9430,7 +9667,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>566</v>
       </c>
@@ -9458,7 +9695,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>572</v>
       </c>
@@ -9481,7 +9718,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>278</v>
       </c>
@@ -9508,7 +9745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>576</v>
       </c>
@@ -9530,7 +9767,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>579</v>
       </c>
@@ -9555,7 +9792,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>583</v>
       </c>
@@ -9581,7 +9818,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>588</v>
       </c>
@@ -9602,7 +9839,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>591</v>
       </c>
@@ -9630,7 +9867,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>318</v>
       </c>
@@ -9654,7 +9891,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>596</v>
       </c>
@@ -9680,7 +9917,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>601</v>
       </c>
@@ -9702,13 +9939,13 @@
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>604</v>
       </c>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>605</v>
       </c>
@@ -9731,7 +9968,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>611</v>
       </c>
@@ -9755,14 +9992,14 @@
         <v>615</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.3" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>616</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:11" s="17" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>617</v>
       </c>
@@ -9777,7 +10014,7 @@
       <c r="J38"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>618</v>
       </c>
@@ -9805,52 +10042,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8:AB8">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:AC10 A13:AC13 K38:AC38 A39:J39">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:AC18">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:AC23">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:E12 G12:AA12">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15 K15:AB15 A27:J27">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AA2">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:AA11">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:AA24">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:AA30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9863,21 +10100,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4F1CA-A107-47E1-B61D-684F7BB5060E}">
   <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D56"/>
+    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A2:A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.37890625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.47265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.37890625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="29.3828125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.84375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38.3828125" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.76171875" style="11"/>
+    <col min="6" max="16384" width="8.765625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>390</v>
       </c>
@@ -9894,7 +10131,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str" cm="1">
         <f t="array" ref="A2:A75">CONCATENATE(Residents!A2:A75, " ", Residents!B2:B75)</f>
         <v>Patrick Alexander</v>
@@ -9916,7 +10153,7 @@
         <v>07/27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="str">
         <v>Carmelita Arburua</v>
       </c>
@@ -9933,7 +10170,7 @@
         <v>08/12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="str">
         <v>Theo Armour</v>
       </c>
@@ -9950,7 +10187,7 @@
         <v>01/28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="str">
         <v>Martha Nell Beatty</v>
       </c>
@@ -9967,7 +10204,7 @@
         <v>10/29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="str">
         <v>Yvonne Benedict</v>
       </c>
@@ -9984,7 +10221,7 @@
         <v>06/24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="str">
         <v>Bob Bledsoe</v>
       </c>
@@ -10001,7 +10238,7 @@
         <v>08/18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="str">
         <v>Pam Bledsoe</v>
       </c>
@@ -10018,7 +10255,7 @@
         <v>10/04</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="str">
         <v>Eleanor Bissell</v>
       </c>
@@ -10035,7 +10272,7 @@
         <v>03/07</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="str">
         <v>Katherine Conley</v>
       </c>
@@ -10052,7 +10289,7 @@
         <v>07/15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="str">
         <v>Erika Coughlan</v>
       </c>
@@ -10069,7 +10306,7 @@
         <v>08/09</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="str">
         <v>Betty Dowell</v>
       </c>
@@ -10086,7 +10323,7 @@
         <v>05/12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <v>Lucia Dugliss</v>
       </c>
@@ -10103,7 +10340,7 @@
         <v>12/21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
         <v>Rod Dugliss</v>
       </c>
@@ -10120,7 +10357,7 @@
         <v>02/29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <v>Betty Dy</v>
       </c>
@@ -10137,7 +10374,7 @@
         <v>12/17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
         <v>Shirley Ertola</v>
       </c>
@@ -10154,7 +10391,7 @@
         <v>05/18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="str">
         <v>Pamela Fischer</v>
       </c>
@@ -10171,7 +10408,7 @@
         <v>01/04</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
         <v>June Fraps</v>
       </c>
@@ -10188,7 +10425,7 @@
         <v>02/11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="str">
         <v>Gene Graham</v>
       </c>
@@ -10205,7 +10442,7 @@
         <v>10/28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="str">
         <v>Bob Granucci</v>
       </c>
@@ -10222,7 +10459,7 @@
         <v>02/05</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="str">
         <v>Cooby Greenway</v>
       </c>
@@ -10239,7 +10476,7 @@
         <v>02/06</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="str">
         <v>Linda Hanley</v>
       </c>
@@ -10256,7 +10493,7 @@
         <v>01/22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="str">
         <v>Tony Hanley</v>
       </c>
@@ -10273,7 +10510,7 @@
         <v>06/13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="str">
         <v>Mary Liz Harris</v>
       </c>
@@ -10290,7 +10527,7 @@
         <v>09/24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="str">
         <v>Dr Doris Howard</v>
       </c>
@@ -10307,7 +10544,7 @@
         <v>06/19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="str">
         <v>Charmly Ingham</v>
       </c>
@@ -10324,7 +10561,7 @@
         <v>10/09</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="str">
         <v>Tucker Ingham</v>
       </c>
@@ -10341,7 +10578,7 @@
         <v>10/20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="str">
         <v>Michele Jackson</v>
       </c>
@@ -10358,7 +10595,7 @@
         <v>01/17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="str">
         <v>Margaret Jacobs</v>
       </c>
@@ -10375,7 +10612,7 @@
         <v>12/12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="str">
         <v>Margaret Johnson</v>
       </c>
@@ -10392,7 +10629,7 @@
         <v>04/02</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="str">
         <v>Liz Jonson</v>
       </c>
@@ -10409,7 +10646,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
         <v>Elizabeth Jordan</v>
       </c>
@@ -10426,7 +10663,7 @@
         <v>05/09</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
         <v>Monique Kaufman</v>
       </c>
@@ -10443,7 +10680,7 @@
         <v>04/07</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
         <v>Tom King</v>
       </c>
@@ -10460,7 +10697,7 @@
         <v>08/16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="str">
         <v>Kathy Kirkpatrick</v>
       </c>
@@ -10477,7 +10714,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
         <v>Gloria Learned</v>
       </c>
@@ -10494,7 +10731,7 @@
         <v>09/25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="str">
         <v>Ivy Lee</v>
       </c>
@@ -10511,7 +10748,7 @@
         <v>02/10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
         <v>Enid Leff</v>
       </c>
@@ -10528,7 +10765,7 @@
         <v>07/05</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <v>Karl Leichum</v>
       </c>
@@ -10545,7 +10782,7 @@
         <v>06/29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
         <v>Lillemor Leichum</v>
       </c>
@@ -10562,7 +10799,7 @@
         <v>01/26</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="str">
         <v>Katie Loo</v>
       </c>
@@ -10579,7 +10816,7 @@
         <v>02/09</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="str">
         <v>Jay Ludwig</v>
       </c>
@@ -10596,7 +10833,7 @@
         <v>06/19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <v>Sisi Luopajarvi</v>
       </c>
@@ -10613,7 +10850,7 @@
         <v>12/13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="str">
         <v>Midge Mansouri</v>
       </c>
@@ -10630,7 +10867,7 @@
         <v>07/15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <v>Rita McEvoy</v>
       </c>
@@ -10647,7 +10884,7 @@
         <v>12/29</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <v>Gerry Miller</v>
       </c>
@@ -10664,7 +10901,7 @@
         <v>07/26</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <v>Margaret Missiaen</v>
       </c>
@@ -10681,7 +10918,7 @@
         <v>11/24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="str">
         <v>Sheila Moore</v>
       </c>
@@ -10698,7 +10935,7 @@
         <v>12/12</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <v>Anne Morris</v>
       </c>
@@ -10715,7 +10952,7 @@
         <v>06/27</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <v>Atilio "Til" Mossi</v>
       </c>
@@ -10732,7 +10969,7 @@
         <v>08/08</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="str">
         <v>Terry Moughan</v>
       </c>
@@ -10749,7 +10986,7 @@
         <v>10/06</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="43" t="str">
         <v>Candy  Naughton</v>
       </c>
@@ -10766,7 +11003,7 @@
         <v>02/03</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="43" t="str">
         <v>Jim Naughton</v>
       </c>
@@ -10783,7 +11020,7 @@
         <v>02/12</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="54" t="str">
         <v>Liz Nolan</v>
       </c>
@@ -10800,7 +11037,7 @@
         <v>08/18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="str">
         <v>Marty Nolan</v>
       </c>
@@ -10817,7 +11054,7 @@
         <v>03/28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="str">
         <v>Nancy Ozsogomonyan</v>
       </c>
@@ -10834,7 +11071,7 @@
         <v>02/21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="str">
         <v>Maureen Perron</v>
       </c>
@@ -10851,7 +11088,7 @@
         <v>01/24</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="str">
         <v>Genevieve Plusa</v>
       </c>
@@ -10868,7 +11105,7 @@
         <v>11/03</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="str">
         <v>Patrick Rush</v>
       </c>
@@ -10885,7 +11122,7 @@
         <v>03/10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="str">
         <v>Ernie Sabini</v>
       </c>
@@ -10902,7 +11139,7 @@
         <v>03/22</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="str">
         <v>Linda Sharp</v>
       </c>
@@ -10919,7 +11156,7 @@
         <v>03/23</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="str">
         <v>Gary Skootsky</v>
       </c>
@@ -10936,7 +11173,7 @@
         <v>07/22</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="str">
         <v>Kristine Skootsky</v>
       </c>
@@ -10953,7 +11190,7 @@
         <v>06/07</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="str">
         <v>Jane Standing</v>
       </c>
@@ -10970,7 +11207,7 @@
         <v>02/06</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="str">
         <v>Val Szigeti</v>
       </c>
@@ -10987,7 +11224,7 @@
         <v>02/05</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="str">
         <v>Kay Tim</v>
       </c>
@@ -11004,7 +11241,7 @@
         <v>11/24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="str">
         <v>Martha Torres</v>
       </c>
@@ -11021,7 +11258,7 @@
         <v>03/13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="19" t="str">
         <v>Nancy Trogman</v>
       </c>
@@ -11038,7 +11275,7 @@
         <v>01/26</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="19" t="str">
         <v>Mercedes Van Den Berg</v>
       </c>
@@ -11055,7 +11292,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="str">
         <v>Stela Voyles</v>
       </c>
@@ -11072,7 +11309,7 @@
         <v>05/01</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="str">
         <v>Marion Wake</v>
       </c>
@@ -11089,7 +11326,7 @@
         <v>08/15</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="str">
         <v>Fred Wentker</v>
       </c>
@@ -11106,7 +11343,7 @@
         <v>06/22</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="str">
         <v>Jo Ann Wentker</v>
       </c>
@@ -11123,7 +11360,7 @@
         <v>11/02</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="str">
         <v>Shirley Yawitz</v>
       </c>
@@ -11140,7 +11377,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
         <v xml:space="preserve"> </v>
       </c>
@@ -11157,31 +11394,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="51"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="51"/>
       <c r="E76" s="51"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="52"/>
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
       <c r="E77" s="52"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="s">
         <v>393</v>
       </c>
@@ -11190,7 +11427,7 @@
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="52" t="s">
         <v>1082</v>
       </c>
@@ -11199,7 +11436,7 @@
       <c r="D82" s="52"/>
       <c r="E82" s="52"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
         <v>394</v>
       </c>
@@ -11210,7 +11447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
         <v>396</v>
       </c>
@@ -11221,7 +11458,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
         <v>399</v>
       </c>
@@ -11233,7 +11470,7 @@
       </c>
       <c r="D86" s="19"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
         <v>402</v>
       </c>
@@ -11245,7 +11482,7 @@
       </c>
       <c r="D87" s="19"/>
     </row>
-    <row r="88" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
         <v>404</v>
       </c>
@@ -11278,7 +11515,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>405</v>
       </c>
@@ -11310,7 +11547,7 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
     </row>
-    <row r="90" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>407</v>
       </c>
@@ -11344,7 +11581,7 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
     </row>
-    <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
         <v>410</v>
       </c>
@@ -11376,7 +11613,7 @@
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
     </row>
-    <row r="92" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
         <v>412</v>
       </c>
@@ -11408,7 +11645,7 @@
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
     </row>
-    <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>414</v>
       </c>
@@ -11440,7 +11677,7 @@
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
     </row>
-    <row r="94" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
         <v>416</v>
       </c>
@@ -11472,7 +11709,7 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
     </row>
-    <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
         <v>418</v>
       </c>
@@ -11504,7 +11741,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
         <v>420</v>
       </c>
@@ -11540,7 +11777,7 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
     </row>
-    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>424</v>
       </c>
@@ -11576,7 +11813,7 @@
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
     </row>
-    <row r="98" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>428</v>
       </c>
@@ -11612,7 +11849,7 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
     </row>
-    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>432</v>
       </c>
@@ -11648,7 +11885,7 @@
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
     </row>
-    <row r="100" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>436</v>
       </c>
@@ -11684,7 +11921,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
         <v>440</v>
       </c>
@@ -11720,7 +11957,7 @@
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
     </row>
-    <row r="102" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
         <v>444</v>
       </c>
@@ -11756,7 +11993,7 @@
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
     </row>
-    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>448</v>
       </c>
@@ -11792,7 +12029,7 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
     </row>
-    <row r="104" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
         <v>452</v>
       </c>
@@ -11828,7 +12065,7 @@
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
     </row>
-    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
         <v>456</v>
       </c>
@@ -11864,7 +12101,7 @@
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
     </row>
-    <row r="106" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
         <v>460</v>
       </c>
@@ -11900,7 +12137,7 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
         <v>464</v>
       </c>
@@ -11934,7 +12171,7 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
         <v>467</v>
       </c>
@@ -11970,7 +12207,7 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
     </row>
-    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
         <v>471</v>
       </c>
@@ -12006,7 +12243,7 @@
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
     </row>
-    <row r="110" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
         <v>475</v>
       </c>
@@ -12042,7 +12279,7 @@
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
     </row>
-    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
         <v>479</v>
       </c>
@@ -12078,7 +12315,7 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
     </row>
-    <row r="112" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
         <v>483</v>
       </c>
@@ -12108,7 +12345,7 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
     </row>
-    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="34" t="s">
         <v>484</v>
       </c>
@@ -12138,7 +12375,7 @@
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
     </row>
-    <row r="114" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
         <v>485</v>
       </c>
@@ -12169,7 +12406,7 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>486</v>
       </c>
@@ -12199,7 +12436,7 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
     </row>
-    <row r="116" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>488</v>
       </c>
@@ -12231,7 +12468,7 @@
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
     </row>
-    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -12259,7 +12496,7 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
     </row>
-    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -12287,7 +12524,7 @@
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
     </row>
-    <row r="119" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -12315,7 +12552,7 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
     </row>
-    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="28"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -12343,64 +12580,64 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="18"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="19"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="19"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="19"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="20"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="19"/>
       <c r="B150" s="23"/>
       <c r="E150" s="23"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="13"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B155" s="21"/>
       <c r="E155" s="21"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="13"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="29"/>
       <c r="C158" s="26"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="13"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="A2:E74">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12418,617 +12655,605 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6607607A-1D03-4DF1-ADDE-DAB7CE4E5761}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A2:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:B74">_xlfn.LET(
-    _xlpm.data, Residents!A2:I75,
-    _xlpm.firstNames, INDEX(_xlpm.data, _xlfn.SEQUENCE(ROWS(_xlpm.data)), 1),
-    _xlpm.lastNames, INDEX(_xlpm.data, _xlfn.SEQUENCE(ROWS(_xlpm.data)), 2),
-    _xlpm.dates, INDEX(_xlpm.data, _xlfn.SEQUENCE(ROWS(_xlpm.data)), 9),
-    _xlpm.fullNames, _xlfn.MAP(_xlpm.firstNames, _xlpm.lastNames, _xlfn.LAMBDA(_xlpm.f,_xlpm.l, _xlpm.f &amp; " " &amp; _xlpm.l)),
-    _xlpm.sortedData, _xlfn._xlws.SORT(CHOOSE({1,2}, _xlpm.fullNames, _xlpm.dates), 2, 1),
-    _xlpm.sortedData
-)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="str">
-        <v>Liz Jonson</v>
-      </c>
-      <c r="B2" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="str">
-        <v>Kathy Kirkpatrick</v>
-      </c>
-      <c r="B3" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="str">
-        <v>Mercedes Van Den Berg</v>
-      </c>
-      <c r="B4" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="str">
-        <v>Shirley Yawitz</v>
-      </c>
-      <c r="B5" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="str">
-        <v>Pamela Fischer</v>
-      </c>
-      <c r="B6" t="str">
-        <v>01/04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="str">
-        <v>Michele Jackson</v>
-      </c>
-      <c r="B7" t="str">
-        <v>01/17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="str">
-        <v>Linda Hanley</v>
-      </c>
-      <c r="B8" t="str">
-        <v>01/22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="str">
-        <v>Maureen Perron</v>
-      </c>
-      <c r="B9" t="str">
-        <v>01/24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="str">
-        <v>Lillemor Leichum</v>
-      </c>
-      <c r="B10" t="str">
-        <v>01/26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="str">
-        <v>Nancy Trogman</v>
-      </c>
-      <c r="B11" t="str">
-        <v>01/26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="str">
-        <v>Theo Armour</v>
-      </c>
-      <c r="B12" t="str">
-        <v>01/28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="str">
-        <v>Candy  Naughton</v>
-      </c>
-      <c r="B13" t="str">
-        <v>02/03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="str">
-        <v>Bob Granucci</v>
-      </c>
-      <c r="B14" t="str">
-        <v>02/05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="str">
-        <v>Val Szigeti</v>
-      </c>
-      <c r="B15" t="str">
-        <v>02/05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="str">
-        <v>Cooby Greenway</v>
-      </c>
-      <c r="B16" t="str">
-        <v>02/06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="str">
-        <v>Jane Standing</v>
-      </c>
-      <c r="B17" t="str">
-        <v>02/06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="str">
-        <v>Katie Loo</v>
-      </c>
-      <c r="B18" t="str">
-        <v>02/09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="str">
-        <v>Ivy Lee</v>
-      </c>
-      <c r="B19" t="str">
-        <v>02/10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="str">
-        <v>June Fraps</v>
-      </c>
-      <c r="B20" t="str">
-        <v>02/11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="str">
-        <v>Jim Naughton</v>
-      </c>
-      <c r="B21" t="str">
-        <v>02/12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="str">
-        <v>Nancy Ozsogomonyan</v>
-      </c>
-      <c r="B22" t="str">
-        <v>02/21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="str">
-        <v>Rod Dugliss</v>
-      </c>
-      <c r="B23" t="str">
-        <v>02/29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="str">
-        <v>Eleanor Bissell</v>
-      </c>
-      <c r="B24" t="str">
-        <v>03/07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="str">
-        <v>Patrick Rush</v>
-      </c>
-      <c r="B25" t="str">
-        <v>03/10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="str">
-        <v>Martha Torres</v>
-      </c>
-      <c r="B26" t="str">
-        <v>03/13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="str">
-        <v>Ernie Sabini</v>
-      </c>
-      <c r="B27" t="str">
-        <v>03/22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="str">
-        <v>Linda Sharp</v>
-      </c>
-      <c r="B28" t="str">
-        <v>03/23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="str">
-        <v>Marty Nolan</v>
-      </c>
-      <c r="B29" t="str">
-        <v>03/28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="str">
-        <v>Margaret Johnson</v>
-      </c>
-      <c r="B30" t="str">
-        <v>04/02</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="str">
-        <v>Monique Kaufman</v>
-      </c>
-      <c r="B31" t="str">
-        <v>04/07</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="str">
-        <v>Stela Voyles</v>
-      </c>
-      <c r="B32" t="str">
-        <v>05/01</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="str">
-        <v>Elizabeth Jordan</v>
-      </c>
-      <c r="B33" t="str">
-        <v>05/09</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="str">
-        <v>Betty Dowell</v>
-      </c>
-      <c r="B34" t="str">
-        <v>05/12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="str">
-        <v>Shirley Ertola</v>
-      </c>
-      <c r="B35" t="str">
-        <v>05/18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="str">
-        <v>Kristine Skootsky</v>
-      </c>
-      <c r="B36" t="str">
-        <v>06/07</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="str">
-        <v>Tony Hanley</v>
-      </c>
-      <c r="B37" t="str">
-        <v>06/13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="str">
-        <v>Dr Doris Howard</v>
-      </c>
-      <c r="B38" t="str">
-        <v>06/19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="str">
-        <v>Jay Ludwig</v>
-      </c>
-      <c r="B39" t="str">
-        <v>06/19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="str">
-        <v>Fred Wentker</v>
-      </c>
-      <c r="B40" t="str">
-        <v>06/22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="str">
-        <v>Yvonne Benedict</v>
-      </c>
-      <c r="B41" t="str">
-        <v>06/24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="str">
-        <v>Anne Morris</v>
-      </c>
-      <c r="B42" t="str">
-        <v>06/27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="str">
-        <v>Karl Leichum</v>
-      </c>
-      <c r="B43" t="str">
-        <v>06/29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="str">
-        <v>Enid Leff</v>
-      </c>
-      <c r="B44" t="str">
-        <v>07/05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="str">
-        <v>Katherine Conley</v>
-      </c>
-      <c r="B45" t="str">
-        <v>07/15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="str">
-        <v>Midge Mansouri</v>
-      </c>
-      <c r="B46" t="str">
-        <v>07/15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="str">
-        <v>Gary Skootsky</v>
-      </c>
-      <c r="B47" t="str">
-        <v>07/22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="str">
-        <v>Gerry Miller</v>
-      </c>
-      <c r="B48" t="str">
-        <v>07/26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="str">
-        <v>Patrick Alexander</v>
-      </c>
-      <c r="B49" t="str">
-        <v>07/27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="str">
-        <v>Atilio "Til" Mossi</v>
-      </c>
-      <c r="B50" t="str">
-        <v>08/08</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="str">
-        <v>Erika Coughlan</v>
-      </c>
-      <c r="B51" t="str">
-        <v>08/09</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="str">
-        <v>Carmelita Arburua</v>
-      </c>
-      <c r="B52" t="str">
-        <v>08/12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="str">
-        <v>Marion Wake</v>
-      </c>
-      <c r="B53" t="str">
-        <v>08/15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="str">
-        <v>Tom King</v>
-      </c>
-      <c r="B54" t="str">
-        <v>08/16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="str">
-        <v>Bob Bledsoe</v>
-      </c>
-      <c r="B55" t="str">
-        <v>08/18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="str">
-        <v>Liz Nolan</v>
-      </c>
-      <c r="B56" t="str">
-        <v>08/18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="str">
-        <v>Mary Liz Harris</v>
-      </c>
-      <c r="B57" t="str">
-        <v>09/24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="str">
-        <v>Gloria Learned</v>
-      </c>
-      <c r="B58" t="str">
-        <v>09/25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="str">
-        <v>Pam Bledsoe</v>
-      </c>
-      <c r="B59" t="str">
-        <v>10/04</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="str">
-        <v>Terry Moughan</v>
-      </c>
-      <c r="B60" t="str">
-        <v>10/06</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="str">
-        <v>Charmly Ingham</v>
-      </c>
-      <c r="B61" t="str">
-        <v>10/09</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="str">
-        <v>Tucker Ingham</v>
-      </c>
-      <c r="B62" t="str">
-        <v>10/20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="str">
-        <v>Gene Graham</v>
-      </c>
-      <c r="B63" t="str">
-        <v>10/28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="str">
-        <v>Martha Nell Beatty</v>
-      </c>
-      <c r="B64" t="str">
-        <v>10/29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="str">
-        <v>Jo Ann Wentker</v>
-      </c>
-      <c r="B65" t="str">
-        <v>11/02</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="str">
-        <v>Genevieve Plusa</v>
-      </c>
-      <c r="B66" t="str">
-        <v>11/03</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="str">
-        <v>Margaret Missiaen</v>
-      </c>
-      <c r="B67" t="str">
-        <v>11/24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="str">
-        <v>Kay Tim</v>
-      </c>
-      <c r="B68" t="str">
-        <v>11/24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="str">
-        <v>Margaret Jacobs</v>
-      </c>
-      <c r="B69" t="str">
-        <v>12/12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="str">
-        <v>Sheila Moore</v>
-      </c>
-      <c r="B70" t="str">
-        <v>12/12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="str">
-        <v>Sisi Luopajarvi</v>
-      </c>
-      <c r="B71" t="str">
-        <v>12/13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="str">
-        <v>Betty Dy</v>
-      </c>
-      <c r="B72" t="str">
-        <v>12/17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" t="str">
-        <v>Lucia Dugliss</v>
-      </c>
-      <c r="B73" t="str">
-        <v>12/21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" t="str">
-        <v>Rita McEvoy</v>
-      </c>
-      <c r="B74" t="str">
-        <v>12/29</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B65" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B66" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B74">
+    <sortCondition ref="B2:B74"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13043,17 +13268,17 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.09375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.234375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.90234375" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.234375" style="11"/>
+    <col min="1" max="1" width="13.07421875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.23046875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.3046875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.921875" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1074</v>
       </c>
@@ -13070,7 +13295,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>625</v>
       </c>
@@ -13087,7 +13312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>748</v>
       </c>
@@ -13104,7 +13329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>634</v>
       </c>
@@ -13121,7 +13346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>637</v>
       </c>
@@ -13138,7 +13363,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>187</v>
       </c>
@@ -13155,7 +13380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>641</v>
       </c>
@@ -13172,7 +13397,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>643</v>
       </c>
@@ -13189,7 +13414,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>645</v>
       </c>
@@ -13206,7 +13431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>647</v>
       </c>
@@ -13223,7 +13448,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>649</v>
       </c>
@@ -13240,7 +13465,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>651</v>
       </c>
@@ -13257,7 +13482,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>723</v>
       </c>
@@ -13274,7 +13499,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>731</v>
       </c>
@@ -13291,7 +13516,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>726</v>
       </c>
@@ -13308,7 +13533,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>175</v>
       </c>
@@ -13325,7 +13550,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>1033</v>
       </c>
@@ -13342,7 +13567,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>654</v>
       </c>
@@ -13359,7 +13584,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>187</v>
       </c>
@@ -13376,7 +13601,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>728</v>
       </c>
@@ -13393,7 +13618,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>720</v>
       </c>
@@ -13410,7 +13635,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>657</v>
       </c>
@@ -13427,7 +13652,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>661</v>
       </c>
@@ -13444,7 +13669,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>662</v>
       </c>
@@ -13461,7 +13686,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
         <v>1050</v>
       </c>
@@ -13478,7 +13703,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
         <v>755</v>
       </c>
@@ -13495,7 +13720,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>664</v>
       </c>
@@ -13512,7 +13737,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>666</v>
       </c>
@@ -13529,7 +13754,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>755</v>
       </c>
@@ -13546,7 +13771,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>669</v>
       </c>
@@ -13563,7 +13788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>671</v>
       </c>
@@ -13580,7 +13805,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>1057</v>
       </c>
@@ -13597,7 +13822,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>1062</v>
       </c>
@@ -13614,7 +13839,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>672</v>
       </c>
@@ -13631,7 +13856,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>674</v>
       </c>
@@ -13648,7 +13873,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>1058</v>
       </c>
@@ -13665,7 +13890,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>223</v>
       </c>
@@ -13682,7 +13907,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>677</v>
       </c>
@@ -13699,7 +13924,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>679</v>
       </c>
@@ -13716,7 +13941,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>684</v>
       </c>
@@ -13733,7 +13958,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>649</v>
       </c>
@@ -13750,7 +13975,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>681</v>
       </c>
@@ -13767,7 +13992,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>193</v>
       </c>
@@ -13784,7 +14009,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>677</v>
       </c>
@@ -13801,7 +14026,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>687</v>
       </c>
@@ -13818,7 +14043,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>687</v>
       </c>
@@ -13835,7 +14060,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>691</v>
       </c>
@@ -13852,7 +14077,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>693</v>
       </c>
@@ -13869,7 +14094,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>695</v>
       </c>
@@ -13886,7 +14111,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>697</v>
       </c>
@@ -13903,7 +14128,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>698</v>
       </c>
@@ -13920,7 +14145,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>701</v>
       </c>
@@ -13937,7 +14162,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>1043</v>
       </c>
@@ -13954,7 +14179,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>687</v>
       </c>
@@ -13971,7 +14196,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>684</v>
       </c>
@@ -13988,7 +14213,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>706</v>
       </c>
@@ -14005,7 +14230,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>806</v>
       </c>
@@ -14022,7 +14247,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>710</v>
       </c>
@@ -14039,7 +14264,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>713</v>
       </c>
@@ -14056,7 +14281,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>718</v>
       </c>
@@ -14073,7 +14298,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>716</v>
       </c>
@@ -14090,7 +14315,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>755</v>
       </c>
@@ -14107,118 +14332,118 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D93" s="8"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99" s="8"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
     </row>
   </sheetData>
@@ -14226,52 +14451,52 @@
     <sortCondition ref="E2:E100"/>
   </sortState>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D96">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98:D100">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14300,14 +14525,14 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.76171875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.5234375" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="9.234375" style="11"/>
+    <col min="1" max="1" width="18.765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9.23046875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -14315,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>43</v>
       </c>
@@ -14323,7 +14548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>58</v>
       </c>
@@ -14331,7 +14556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>49</v>
       </c>
@@ -14339,7 +14564,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>64</v>
       </c>
@@ -14347,7 +14572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>86</v>
       </c>
@@ -14355,7 +14580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>86</v>
       </c>
@@ -14363,7 +14588,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>95</v>
       </c>
@@ -14371,7 +14596,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>106</v>
       </c>
@@ -14379,7 +14604,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>118</v>
       </c>
@@ -14387,7 +14612,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>129</v>
       </c>
@@ -14395,7 +14620,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>129</v>
       </c>
@@ -14403,7 +14628,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>137</v>
       </c>
@@ -14411,7 +14636,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>149</v>
       </c>
@@ -14419,7 +14644,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
         <v>149</v>
       </c>
@@ -14427,7 +14652,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>156</v>
       </c>
@@ -14435,7 +14660,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>162</v>
       </c>
@@ -14443,7 +14668,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>176</v>
       </c>
@@ -14451,7 +14676,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>182</v>
       </c>
@@ -14459,7 +14684,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>194</v>
       </c>
@@ -14467,7 +14692,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>215</v>
       </c>
@@ -14475,7 +14700,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>215</v>
       </c>
@@ -14483,7 +14708,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>224</v>
       </c>
@@ -14491,7 +14716,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>233</v>
       </c>
@@ -14499,7 +14724,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
         <v>239</v>
       </c>
@@ -14507,7 +14732,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="48" t="s">
         <v>244</v>
       </c>
@@ -14515,7 +14740,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
         <v>279</v>
       </c>
@@ -14523,7 +14748,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
         <v>291</v>
       </c>
@@ -14531,7 +14756,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
         <v>307</v>
       </c>
@@ -14539,7 +14764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>323</v>
       </c>
@@ -14547,7 +14772,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="48" t="s">
         <v>329</v>
       </c>
@@ -14555,7 +14780,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="48" t="s">
         <v>329</v>
       </c>
@@ -14563,7 +14788,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="48" t="s">
         <v>347</v>
       </c>
@@ -14571,7 +14796,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="48" t="s">
         <v>352</v>
       </c>
@@ -14579,7 +14804,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="48" t="s">
         <v>366</v>
       </c>
@@ -14587,7 +14812,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="48" t="s">
         <v>376</v>
       </c>
@@ -14595,7 +14820,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="48" t="s">
         <v>386</v>
       </c>
@@ -14612,23 +14837,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6171875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.47265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.47265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.90234375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.47265625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.234375" style="11"/>
+    <col min="1" max="1" width="17.61328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.4609375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.921875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.15234375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.4609375" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1074</v>
       </c>
@@ -14639,7 +14864,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>860</v>
       </c>
@@ -14650,7 +14875,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>868</v>
       </c>
@@ -14661,7 +14886,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>627</v>
       </c>
@@ -14672,7 +14897,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>739</v>
       </c>
@@ -14683,7 +14908,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>629</v>
       </c>
@@ -14694,7 +14919,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>1047</v>
       </c>
@@ -14705,7 +14930,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>632</v>
       </c>
@@ -14716,7 +14941,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>785</v>
       </c>
@@ -14727,7 +14952,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>1048</v>
       </c>
@@ -14738,7 +14963,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>832</v>
       </c>
@@ -14749,7 +14974,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>842</v>
       </c>
@@ -14760,7 +14985,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>755</v>
       </c>
@@ -14771,7 +14996,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>777</v>
       </c>
@@ -14782,7 +15007,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>728</v>
       </c>
@@ -14793,7 +15018,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>792</v>
       </c>
@@ -14804,7 +15029,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>629</v>
       </c>
@@ -14815,7 +15040,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>826</v>
       </c>
@@ -14826,7 +15051,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>829</v>
       </c>
@@ -14837,7 +15062,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>290</v>
       </c>
@@ -14848,7 +15073,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>835</v>
       </c>
@@ -14859,7 +15084,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>883</v>
       </c>
@@ -14870,7 +15095,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>1005</v>
       </c>
@@ -14881,7 +15106,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>768</v>
       </c>
@@ -14892,7 +15117,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>817</v>
       </c>
@@ -14903,7 +15128,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>845</v>
       </c>
@@ -14914,7 +15139,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>774</v>
       </c>
@@ -14925,7 +15150,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>813</v>
       </c>
@@ -14936,7 +15161,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>851</v>
       </c>
@@ -14947,7 +15172,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>389</v>
       </c>
@@ -14958,7 +15183,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>782</v>
       </c>
@@ -14969,7 +15194,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>795</v>
       </c>
@@ -14980,7 +15205,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>795</v>
       </c>
@@ -14991,7 +15216,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>780</v>
       </c>
@@ -15002,7 +15227,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>765</v>
       </c>
@@ -15013,7 +15238,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>803</v>
       </c>
@@ -15024,7 +15249,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>760</v>
       </c>
@@ -15035,7 +15260,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>748</v>
       </c>
@@ -15046,7 +15271,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>745</v>
       </c>
@@ -15057,7 +15282,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>865</v>
       </c>
@@ -15068,7 +15293,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>880</v>
       </c>
@@ -15079,7 +15304,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>672</v>
       </c>
@@ -15090,7 +15315,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>651</v>
       </c>
@@ -15101,7 +15326,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>629</v>
       </c>
@@ -15112,7 +15337,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>848</v>
       </c>
@@ -15123,7 +15348,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>811</v>
       </c>
@@ -15134,7 +15359,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>886</v>
       </c>
@@ -15145,7 +15370,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>755</v>
       </c>
@@ -15156,7 +15381,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>815</v>
       </c>
@@ -15167,7 +15392,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>9</v>
       </c>
@@ -15178,7 +15403,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>771</v>
       </c>
@@ -15189,7 +15414,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>806</v>
       </c>
@@ -15200,7 +15425,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>840</v>
       </c>
@@ -15211,7 +15436,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>627</v>
       </c>
@@ -15222,7 +15447,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>878</v>
       </c>
@@ -15233,7 +15458,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>755</v>
       </c>
@@ -15244,7 +15469,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>133</v>
       </c>
@@ -15255,7 +15480,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>837</v>
       </c>
@@ -15266,7 +15491,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>817</v>
       </c>
@@ -15277,7 +15502,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>873</v>
       </c>
@@ -15288,7 +15513,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>798</v>
       </c>
@@ -15299,7 +15524,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>857</v>
       </c>
@@ -15310,7 +15535,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>1000</v>
       </c>
@@ -15321,7 +15546,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>787</v>
       </c>
@@ -15332,7 +15557,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>790</v>
       </c>
@@ -15343,7 +15568,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>728</v>
       </c>
@@ -15354,7 +15579,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>854</v>
       </c>
@@ -15365,7 +15590,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>734</v>
       </c>
@@ -15376,7 +15601,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>823</v>
       </c>
@@ -15387,7 +15612,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>1078</v>
       </c>
@@ -15398,7 +15623,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>1063</v>
       </c>
@@ -15409,7 +15634,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>1069</v>
       </c>
@@ -15420,7 +15645,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>1064</v>
       </c>
@@ -15431,7 +15656,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>1066</v>
       </c>
@@ -15442,7 +15667,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>1106</v>
       </c>
@@ -15474,16 +15699,16 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.47265625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.90234375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.90234375" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9.234375" style="11"/>
+    <col min="1" max="1" width="11.4609375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.15234375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.921875" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1074</v>
       </c>
@@ -15497,7 +15722,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>902</v>
       </c>
@@ -15511,7 +15736,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>892</v>
       </c>
@@ -15525,7 +15750,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>748</v>
       </c>
@@ -15539,7 +15764,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>829</v>
       </c>
@@ -15553,7 +15778,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>873</v>
       </c>
@@ -15567,7 +15792,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>915</v>
       </c>
@@ -15581,7 +15806,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>918</v>
       </c>
@@ -15595,7 +15820,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>48</v>
       </c>
@@ -15609,7 +15834,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>923</v>
       </c>
@@ -15623,7 +15848,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>926</v>
       </c>
@@ -15637,7 +15862,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>929</v>
       </c>
@@ -15651,7 +15876,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>755</v>
       </c>
@@ -15665,7 +15890,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>934</v>
       </c>
@@ -15679,7 +15904,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>936</v>
       </c>
@@ -15693,7 +15918,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>128</v>
       </c>
@@ -15707,7 +15932,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>941</v>
       </c>
@@ -15721,7 +15946,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>907</v>
       </c>
@@ -15735,7 +15960,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>944</v>
       </c>
@@ -15749,7 +15974,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>947</v>
       </c>
@@ -15763,7 +15988,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>950</v>
       </c>
@@ -15777,7 +16002,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>1045</v>
       </c>
@@ -15791,7 +16016,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>953</v>
       </c>
@@ -15805,7 +16030,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>351</v>
       </c>
@@ -15819,7 +16044,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>958</v>
       </c>
@@ -15833,7 +16058,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>964</v>
       </c>
@@ -15847,7 +16072,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>967</v>
       </c>
@@ -15861,12 +16086,12 @@
         <v>895</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>651</v>
       </c>
@@ -15880,7 +16105,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>899</v>
       </c>
@@ -15894,7 +16119,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>910</v>
       </c>
@@ -15908,7 +16133,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>961</v>
       </c>
@@ -15943,17 +16168,17 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.234375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="14.47265625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="35.47265625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="14.4609375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="35.4609375" style="44" customWidth="1"/>
     <col min="4" max="4" width="38" style="44" customWidth="1"/>
-    <col min="5" max="5" width="15.09375" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="9.234375" style="44"/>
+    <col min="5" max="5" width="15.07421875" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>1074</v>
       </c>
@@ -15964,7 +16189,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>9</v>
       </c>
@@ -15975,7 +16200,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>978</v>
       </c>
@@ -15986,7 +16211,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>629</v>
       </c>
@@ -15997,7 +16222,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>981</v>
       </c>
@@ -16008,7 +16233,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>899</v>
       </c>
@@ -16019,7 +16244,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>815</v>
       </c>
@@ -16030,7 +16255,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>133</v>
       </c>
@@ -16041,7 +16266,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>974</v>
       </c>
@@ -16052,7 +16277,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>974</v>
       </c>
@@ -16063,7 +16288,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>992</v>
       </c>
@@ -16074,7 +16299,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>647</v>
       </c>
@@ -16085,7 +16310,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>1044</v>
       </c>
@@ -16093,12 +16318,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>637</v>
       </c>
@@ -16109,7 +16334,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>992</v>
       </c>
@@ -16120,7 +16345,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>755</v>
       </c>
@@ -16131,7 +16356,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>997</v>
       </c>
@@ -16160,18 +16385,18 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.90234375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.09375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.15234375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.07421875" style="11" customWidth="1"/>
     <col min="4" max="4" width="19" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.5234375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.76171875" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.234375" style="11"/>
+    <col min="5" max="5" width="16.53515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.765625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1074</v>
       </c>
@@ -16188,7 +16413,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
@@ -16199,7 +16424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>1087</v>
       </c>
@@ -16213,7 +16438,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -16230,7 +16455,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>1084</v>
       </c>
@@ -16247,7 +16472,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>1090</v>
       </c>
@@ -16258,7 +16483,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
